--- a/1.회의록(PJE_REC_A01).xlsx
+++ b/1.회의록(PJE_REC_A01).xlsx
@@ -9,24 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12168" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12168" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="1" r:id="rId1"/>
     <sheet name="17일" sheetId="2" r:id="rId2"/>
     <sheet name="18일" sheetId="8" r:id="rId3"/>
+    <sheet name="19일" sheetId="9" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="alGCG8hHI9RMmtxTwYX7196EoNOuTwECXiWPODnzzV4="/>
-    </ext>
-  </extLst>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="127">
   <si>
     <t>문서번호</t>
   </si>
@@ -307,10 +304,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>이미지를 통한 쓰레기 재활용 가능 여부 구분 서비스</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>REC_PJ_A01</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -525,6 +518,106 @@
     <t>발표 자료 수집 및 회의록 작성</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>이미지를 통한 쓰레기 재활용 가능 여부 구분 서비스</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>01월 19일</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>조이름 정하기</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>후보:아무거나 하조</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과:정해지지 않음, 차차 정해보기로</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>정확도 향상이 메인 과제</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당자 둘 중 정확도가 더 높은 사람의 모델을 쓰기로</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터를 4만개 넣고 돌려보고 싶었지만 용량 문제로 1000개 밖에 사용하지 못함</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 컴퓨터에서 각각의 분야별로 학습 시킨 뒤 합치기가 가능한가? -&gt; 어렵다</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 정확도는 74%, 외부 데이터는 30%</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>*결국 학습 시키는 데이터의 양이 문제임</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>VGG를 쪼개서 돌려보라는 교수님의 조언이 있었지만 해본 결과 정확도가 오히려 떨어짐</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류 종류가 많은 것보다 분류의 정확도를 높이는 것이 우선</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>정확도 문제 해결을 위해 분류 종류를 3~4개로 줄여서 시도해보기로</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>150/150보다 작게 만들면 들어가는 데이터의 양을 늘릴 수 있음(교수님 조언)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진 업로드 클릭하면 이미지를 업로드 할 수 있는 창이 뜸, 수행하기에는 가운데에 떠 있는 아이템이 작다.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>쓰레기 버린 이후 모달의 구성이 고민</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴ 분류된 쓰레기에 대한 설명을 띄울지/어떤 쓰레기입니다 만 띄울지</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>후자로 결정</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리가 현재 만드는 프로그램은 원래 *쓰레기통에 넣으면 분리되는 서비스임*</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술 부족으로 웹 상에 구현했지만 본래는 쓰레기통 자체에 카메라나 센서를 넣어 쓰레기를 넣기만 하면 알아서 분류되도록 하는 것이 목적임</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>차라리 설명 부분을 다른 곳으로 빼서 만든 프로그램에 대한 설명과 자잘한 설명까지 넣어버리자</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 구석에 ? 마크를 넣어 그걸 클릭하면 쓰인 데이터 수, 정확도 등의 정보와 함께 만든 서비스에 대한 세부 설정까지</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -533,7 +626,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -621,6 +714,14 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1120,7 +1221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1250,6 +1351,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1307,16 +1426,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1633,7 +1743,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1713,10 +1823,10 @@
       <c r="J3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="43" t="s">
+      <c r="K3" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="L3" s="44"/>
+      <c r="L3" s="50"/>
       <c r="M3" s="7"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -1930,19 +2040,19 @@
     </row>
     <row r="11" spans="1:26" ht="21" customHeight="1">
       <c r="A11" s="5"/>
-      <c r="B11" s="45" t="s">
-        <v>66</v>
+      <c r="B11" s="51" t="s">
+        <v>102</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="47"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="53"/>
       <c r="M11" s="7"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -1960,17 +2070,17 @@
     </row>
     <row r="12" spans="1:26" ht="21" customHeight="1">
       <c r="A12" s="5"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="50"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="56"/>
       <c r="M12" s="7"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -1988,17 +2098,17 @@
     </row>
     <row r="13" spans="1:26" ht="21" customHeight="1">
       <c r="A13" s="5"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="50"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="56"/>
       <c r="M13" s="7"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -2016,17 +2126,17 @@
     </row>
     <row r="14" spans="1:26" ht="21" customHeight="1">
       <c r="A14" s="5"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="50"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="56"/>
       <c r="M14" s="7"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -2044,17 +2154,17 @@
     </row>
     <row r="15" spans="1:26" ht="16.5" customHeight="1">
       <c r="A15" s="5"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="53"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="59"/>
       <c r="M15" s="7"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -2244,11 +2354,11 @@
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="54">
+      <c r="F22" s="60">
         <v>45308</v>
       </c>
-      <c r="G22" s="55"/>
-      <c r="H22" s="56"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="62"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
@@ -2274,9 +2384,9 @@
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="59"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="65"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -29684,10 +29794,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="61"/>
+      <c r="B1" s="67"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -29994,21 +30104,21 @@
     <row r="48" spans="1:3" s="42" customFormat="1" ht="16.5" customHeight="1">
       <c r="A48" s="15"/>
       <c r="B48" s="28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C48" s="26"/>
     </row>
     <row r="49" spans="1:4" s="42" customFormat="1" ht="16.5" customHeight="1">
       <c r="A49" s="15"/>
       <c r="B49" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C49" s="26"/>
     </row>
     <row r="50" spans="1:4" s="42" customFormat="1" ht="16.5" customHeight="1">
       <c r="A50" s="15"/>
       <c r="B50" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C50" s="26"/>
     </row>
@@ -30023,9 +30133,9 @@
       <c r="C52" s="26"/>
     </row>
     <row r="53" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A53" s="62"/>
-      <c r="B53" s="63"/>
-      <c r="C53" s="64"/>
+      <c r="A53" s="44"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="46"/>
     </row>
     <row r="54" spans="1:4" s="42" customFormat="1" ht="16.5" customHeight="1">
       <c r="A54" s="39"/>
@@ -30058,20 +30168,20 @@
     <row r="58" spans="1:4" ht="16.5" customHeight="1">
       <c r="A58" s="15"/>
       <c r="B58" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C58" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D58" s="18"/>
     </row>
     <row r="59" spans="1:4" ht="16.5" customHeight="1">
       <c r="A59" s="15"/>
       <c r="B59" s="32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C59" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D59" s="18"/>
     </row>
@@ -30131,7 +30241,7 @@
         <v>36</v>
       </c>
       <c r="B68" s="41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C68" s="35"/>
     </row>
@@ -30169,12 +30279,12 @@
     </row>
     <row r="77" spans="1:3" ht="16.5" customHeight="1">
       <c r="A77" s="40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="16.5" customHeight="1">
       <c r="A78" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="16.5" customHeight="1">
@@ -31121,8 +31231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D984"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -31137,10 +31247,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="61"/>
+      <c r="B1" s="67"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -31153,7 +31263,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" customHeight="1">
@@ -31161,7 +31271,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" customHeight="1">
@@ -31169,7 +31279,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" customHeight="1">
@@ -31221,35 +31331,35 @@
         <v>13</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C13" s="26"/>
     </row>
     <row r="14" spans="1:3" ht="16.5" customHeight="1">
       <c r="A14" s="15"/>
       <c r="B14" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14" s="26"/>
     </row>
     <row r="15" spans="1:3" ht="16.5" customHeight="1">
       <c r="A15" s="15"/>
       <c r="B15" s="28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C15" s="27"/>
     </row>
     <row r="16" spans="1:3" ht="16.5" customHeight="1">
       <c r="A16" s="15"/>
       <c r="B16" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C16" s="26"/>
     </row>
     <row r="17" spans="1:3" ht="16.5" customHeight="1">
       <c r="A17" s="15"/>
       <c r="B17" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C17" s="26"/>
     </row>
@@ -31261,7 +31371,7 @@
     <row r="19" spans="1:3" ht="16.5" customHeight="1">
       <c r="A19" s="15"/>
       <c r="B19" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C19" s="26"/>
     </row>
@@ -31276,8 +31386,8 @@
     </row>
     <row r="22" spans="1:3" ht="16.5" customHeight="1">
       <c r="A22" s="15"/>
-      <c r="B22" s="65" t="s">
-        <v>89</v>
+      <c r="B22" s="47" t="s">
+        <v>88</v>
       </c>
       <c r="C22" s="26"/>
     </row>
@@ -31288,28 +31398,28 @@
     <row r="24" spans="1:3" ht="16.5" customHeight="1">
       <c r="A24" s="15"/>
       <c r="B24" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C24" s="26"/>
     </row>
     <row r="25" spans="1:3" ht="16.5" customHeight="1">
       <c r="A25" s="15"/>
       <c r="B25" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C25" s="26"/>
     </row>
     <row r="26" spans="1:3" ht="16.5" customHeight="1">
       <c r="A26" s="15"/>
       <c r="B26" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C26" s="26"/>
     </row>
     <row r="27" spans="1:3" ht="16.5" customHeight="1">
       <c r="A27" s="15"/>
       <c r="B27" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C27" s="26"/>
     </row>
@@ -31321,7 +31431,7 @@
     <row r="29" spans="1:3" ht="16.5" customHeight="1">
       <c r="A29" s="15"/>
       <c r="B29" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C29" s="26"/>
     </row>
@@ -31333,7 +31443,7 @@
     <row r="31" spans="1:3" ht="16.5" customHeight="1">
       <c r="A31" s="15"/>
       <c r="B31" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C31" s="26"/>
     </row>
@@ -31342,9 +31452,9 @@
       <c r="C32" s="26"/>
     </row>
     <row r="33" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A33" s="62"/>
-      <c r="B33" s="63"/>
-      <c r="C33" s="64"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="46"/>
     </row>
     <row r="34" spans="1:4" ht="16.5" customHeight="1">
       <c r="A34" s="39"/>
@@ -31377,30 +31487,30 @@
     <row r="38" spans="1:4" ht="16.5" customHeight="1">
       <c r="A38" s="15"/>
       <c r="B38" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C38" s="37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D38" s="18"/>
     </row>
     <row r="39" spans="1:4" ht="16.5" customHeight="1">
       <c r="A39" s="15"/>
       <c r="B39" s="37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C39" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D39" s="18"/>
     </row>
     <row r="40" spans="1:4" ht="16.5" customHeight="1">
       <c r="A40" s="15"/>
       <c r="B40" s="37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C40" s="37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D40" s="18"/>
     </row>
@@ -31436,7 +31546,7 @@
         <v>32</v>
       </c>
       <c r="B46" s="41" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C46" s="35"/>
     </row>
@@ -31445,16 +31555,16 @@
         <v>33</v>
       </c>
       <c r="B47" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C47" s="35"/>
     </row>
     <row r="48" spans="1:4" ht="16.5" customHeight="1">
       <c r="A48" s="41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B48" s="41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C48" s="35"/>
     </row>
@@ -31463,7 +31573,7 @@
         <v>37</v>
       </c>
       <c r="B49" s="41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C49" s="35"/>
     </row>
@@ -31472,7 +31582,7 @@
         <v>56</v>
       </c>
       <c r="B50" s="41" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C50" s="35"/>
     </row>
@@ -31481,7 +31591,7 @@
         <v>55</v>
       </c>
       <c r="B51" s="41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C51" s="35"/>
     </row>
@@ -31492,12 +31602,12 @@
     </row>
     <row r="57" spans="1:3" ht="16.5" customHeight="1">
       <c r="A57" s="40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="16.5" customHeight="1">
       <c r="A58" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="16.5" customHeight="1">
@@ -32438,4 +32548,1375 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D991"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="15.109375" style="43" customWidth="1"/>
+    <col min="2" max="2" width="130.109375" style="43" customWidth="1"/>
+    <col min="3" max="3" width="31.109375" style="43" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="43" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" style="43" customWidth="1"/>
+    <col min="6" max="26" width="8.6640625" style="43" customWidth="1"/>
+    <col min="27" max="16384" width="14.44140625" style="43"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A1" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="67"/>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14"/>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A6" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A7" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A8" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="10" spans="1:3" ht="16.5" customHeight="1" thickBot="1"/>
+    <row r="11" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A11" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+    </row>
+    <row r="12" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A12" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A13" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="26"/>
+    </row>
+    <row r="14" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A14" s="15"/>
+      <c r="B14" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="26"/>
+    </row>
+    <row r="15" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A15" s="15"/>
+      <c r="B15" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="27"/>
+    </row>
+    <row r="16" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A16" s="15"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="26"/>
+    </row>
+    <row r="17" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A17" s="15"/>
+      <c r="B17" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="26"/>
+    </row>
+    <row r="18" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A18" s="15"/>
+      <c r="B18" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="26"/>
+    </row>
+    <row r="19" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A19" s="15"/>
+      <c r="B19" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="26"/>
+    </row>
+    <row r="20" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A20" s="15"/>
+      <c r="B20" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="26"/>
+    </row>
+    <row r="21" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A21" s="15"/>
+      <c r="B21" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="26"/>
+    </row>
+    <row r="22" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A22" s="15"/>
+      <c r="B22" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="26"/>
+    </row>
+    <row r="23" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A23" s="15"/>
+      <c r="B23" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="26"/>
+    </row>
+    <row r="24" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A24" s="15"/>
+      <c r="B24" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="26"/>
+    </row>
+    <row r="25" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A25" s="15"/>
+      <c r="B25" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" s="26"/>
+    </row>
+    <row r="26" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A26" s="15"/>
+      <c r="B26" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="26"/>
+    </row>
+    <row r="27" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A27" s="15"/>
+      <c r="B27" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="26"/>
+    </row>
+    <row r="28" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A28" s="15"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="26"/>
+    </row>
+    <row r="29" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A29" s="15"/>
+      <c r="B29" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="26"/>
+    </row>
+    <row r="30" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A30" s="15"/>
+      <c r="B30" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" s="26"/>
+    </row>
+    <row r="31" spans="1:3" s="48" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A31" s="15"/>
+      <c r="B31" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" s="26"/>
+    </row>
+    <row r="32" spans="1:3" s="48" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A32" s="15"/>
+      <c r="B32" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" s="26"/>
+    </row>
+    <row r="33" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A33" s="15"/>
+      <c r="B33" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="26"/>
+    </row>
+    <row r="34" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A34" s="15"/>
+      <c r="B34" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="48" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A35" s="15"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="26"/>
+    </row>
+    <row r="36" spans="1:4" s="48" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A36" s="15"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="26"/>
+    </row>
+    <row r="37" spans="1:4" s="48" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A37" s="15"/>
+      <c r="B37" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" s="26"/>
+    </row>
+    <row r="38" spans="1:4" s="48" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A38" s="15"/>
+      <c r="B38" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" s="26"/>
+    </row>
+    <row r="39" spans="1:4" s="48" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A39" s="15"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="26"/>
+    </row>
+    <row r="40" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A40" s="44"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="46"/>
+    </row>
+    <row r="41" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A41" s="39"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+    </row>
+    <row r="42" spans="1:4" ht="16.5" customHeight="1" thickBot="1"/>
+    <row r="43" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A43" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="23"/>
+    </row>
+    <row r="44" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A44" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A45" s="15"/>
+      <c r="B45" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" s="18"/>
+    </row>
+    <row r="46" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A46" s="15"/>
+      <c r="B46" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" s="18"/>
+    </row>
+    <row r="47" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A47" s="15"/>
+      <c r="B47" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47" s="18"/>
+    </row>
+    <row r="48" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A48" s="15"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="18"/>
+    </row>
+    <row r="49" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A49" s="15"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="18"/>
+    </row>
+    <row r="50" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A50" s="19"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="33"/>
+    </row>
+    <row r="51" spans="1:4" ht="16.5" customHeight="1"/>
+    <row r="52" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A52" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B52" s="40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A53" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B53" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" s="35"/>
+    </row>
+    <row r="54" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A54" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B54" s="41"/>
+      <c r="C54" s="35"/>
+    </row>
+    <row r="55" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A55" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B55" s="41"/>
+      <c r="C55" s="35"/>
+    </row>
+    <row r="56" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A56" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B56" s="41"/>
+      <c r="C56" s="35"/>
+    </row>
+    <row r="57" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A57" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B57" s="41"/>
+      <c r="C57" s="35"/>
+    </row>
+    <row r="58" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A58" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B58" s="41"/>
+      <c r="C58" s="35"/>
+    </row>
+    <row r="63" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A63" s="34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A64" s="40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="16.5" customHeight="1">
+      <c r="A65" s="40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="16.5" customHeight="1">
+      <c r="A66" s="34"/>
+    </row>
+    <row r="67" spans="1:1" ht="16.5" customHeight="1">
+      <c r="A67" s="34"/>
+    </row>
+    <row r="68" spans="1:1" ht="16.5" customHeight="1"/>
+    <row r="69" spans="1:1" ht="16.5" customHeight="1"/>
+    <row r="70" spans="1:1" ht="16.5" customHeight="1"/>
+    <row r="71" spans="1:1" ht="16.5" customHeight="1"/>
+    <row r="72" spans="1:1" ht="16.5" customHeight="1"/>
+    <row r="73" spans="1:1" ht="16.5" customHeight="1"/>
+    <row r="74" spans="1:1" ht="16.5" customHeight="1"/>
+    <row r="75" spans="1:1" ht="16.5" customHeight="1"/>
+    <row r="76" spans="1:1" ht="16.5" customHeight="1"/>
+    <row r="77" spans="1:1" ht="16.5" customHeight="1"/>
+    <row r="78" spans="1:1" ht="16.5" customHeight="1"/>
+    <row r="79" spans="1:1" ht="16.5" customHeight="1"/>
+    <row r="80" spans="1:1" ht="16.5" customHeight="1"/>
+    <row r="81" ht="16.5" customHeight="1"/>
+    <row r="82" ht="16.5" customHeight="1"/>
+    <row r="83" ht="16.5" customHeight="1"/>
+    <row r="84" ht="16.5" customHeight="1"/>
+    <row r="85" ht="16.5" customHeight="1"/>
+    <row r="86" ht="16.5" customHeight="1"/>
+    <row r="87" ht="16.5" customHeight="1"/>
+    <row r="88" ht="16.5" customHeight="1"/>
+    <row r="89" ht="16.5" customHeight="1"/>
+    <row r="90" ht="16.5" customHeight="1"/>
+    <row r="91" ht="16.5" customHeight="1"/>
+    <row r="92" ht="16.5" customHeight="1"/>
+    <row r="93" ht="16.5" customHeight="1"/>
+    <row r="94" ht="16.5" customHeight="1"/>
+    <row r="95" ht="16.5" customHeight="1"/>
+    <row r="96" ht="16.5" customHeight="1"/>
+    <row r="97" ht="16.5" customHeight="1"/>
+    <row r="98" ht="16.5" customHeight="1"/>
+    <row r="99" ht="16.5" customHeight="1"/>
+    <row r="100" ht="16.5" customHeight="1"/>
+    <row r="101" ht="16.5" customHeight="1"/>
+    <row r="102" ht="16.5" customHeight="1"/>
+    <row r="103" ht="16.5" customHeight="1"/>
+    <row r="104" ht="16.5" customHeight="1"/>
+    <row r="105" ht="16.5" customHeight="1"/>
+    <row r="106" ht="16.5" customHeight="1"/>
+    <row r="107" ht="16.5" customHeight="1"/>
+    <row r="108" ht="16.5" customHeight="1"/>
+    <row r="109" ht="16.5" customHeight="1"/>
+    <row r="110" ht="16.5" customHeight="1"/>
+    <row r="111" ht="16.5" customHeight="1"/>
+    <row r="112" ht="16.5" customHeight="1"/>
+    <row r="113" ht="16.5" customHeight="1"/>
+    <row r="114" ht="16.5" customHeight="1"/>
+    <row r="115" ht="16.5" customHeight="1"/>
+    <row r="116" ht="16.5" customHeight="1"/>
+    <row r="117" ht="16.5" customHeight="1"/>
+    <row r="118" ht="16.5" customHeight="1"/>
+    <row r="119" ht="16.5" customHeight="1"/>
+    <row r="120" ht="16.5" customHeight="1"/>
+    <row r="121" ht="16.5" customHeight="1"/>
+    <row r="122" ht="16.5" customHeight="1"/>
+    <row r="123" ht="16.5" customHeight="1"/>
+    <row r="124" ht="16.5" customHeight="1"/>
+    <row r="125" ht="16.5" customHeight="1"/>
+    <row r="126" ht="16.5" customHeight="1"/>
+    <row r="127" ht="16.5" customHeight="1"/>
+    <row r="128" ht="16.5" customHeight="1"/>
+    <row r="129" ht="16.5" customHeight="1"/>
+    <row r="130" ht="16.5" customHeight="1"/>
+    <row r="131" ht="16.5" customHeight="1"/>
+    <row r="132" ht="16.5" customHeight="1"/>
+    <row r="133" ht="16.5" customHeight="1"/>
+    <row r="134" ht="16.5" customHeight="1"/>
+    <row r="135" ht="16.5" customHeight="1"/>
+    <row r="136" ht="16.5" customHeight="1"/>
+    <row r="137" ht="16.5" customHeight="1"/>
+    <row r="138" ht="16.5" customHeight="1"/>
+    <row r="139" ht="16.5" customHeight="1"/>
+    <row r="140" ht="16.5" customHeight="1"/>
+    <row r="141" ht="16.5" customHeight="1"/>
+    <row r="142" ht="16.5" customHeight="1"/>
+    <row r="143" ht="16.5" customHeight="1"/>
+    <row r="144" ht="16.5" customHeight="1"/>
+    <row r="145" ht="16.5" customHeight="1"/>
+    <row r="146" ht="16.5" customHeight="1"/>
+    <row r="147" ht="16.5" customHeight="1"/>
+    <row r="148" ht="16.5" customHeight="1"/>
+    <row r="149" ht="16.5" customHeight="1"/>
+    <row r="150" ht="16.5" customHeight="1"/>
+    <row r="151" ht="16.5" customHeight="1"/>
+    <row r="152" ht="16.5" customHeight="1"/>
+    <row r="153" ht="16.5" customHeight="1"/>
+    <row r="154" ht="16.5" customHeight="1"/>
+    <row r="155" ht="16.5" customHeight="1"/>
+    <row r="156" ht="16.5" customHeight="1"/>
+    <row r="157" ht="16.5" customHeight="1"/>
+    <row r="158" ht="16.5" customHeight="1"/>
+    <row r="159" ht="16.5" customHeight="1"/>
+    <row r="160" ht="16.5" customHeight="1"/>
+    <row r="161" ht="16.5" customHeight="1"/>
+    <row r="162" ht="16.5" customHeight="1"/>
+    <row r="163" ht="16.5" customHeight="1"/>
+    <row r="164" ht="16.5" customHeight="1"/>
+    <row r="165" ht="16.5" customHeight="1"/>
+    <row r="166" ht="16.5" customHeight="1"/>
+    <row r="167" ht="16.5" customHeight="1"/>
+    <row r="168" ht="16.5" customHeight="1"/>
+    <row r="169" ht="16.5" customHeight="1"/>
+    <row r="170" ht="16.5" customHeight="1"/>
+    <row r="171" ht="16.5" customHeight="1"/>
+    <row r="172" ht="16.5" customHeight="1"/>
+    <row r="173" ht="16.5" customHeight="1"/>
+    <row r="174" ht="16.5" customHeight="1"/>
+    <row r="175" ht="16.5" customHeight="1"/>
+    <row r="176" ht="16.5" customHeight="1"/>
+    <row r="177" ht="16.5" customHeight="1"/>
+    <row r="178" ht="16.5" customHeight="1"/>
+    <row r="179" ht="16.5" customHeight="1"/>
+    <row r="180" ht="16.5" customHeight="1"/>
+    <row r="181" ht="16.5" customHeight="1"/>
+    <row r="182" ht="16.5" customHeight="1"/>
+    <row r="183" ht="16.5" customHeight="1"/>
+    <row r="184" ht="16.5" customHeight="1"/>
+    <row r="185" ht="16.5" customHeight="1"/>
+    <row r="186" ht="16.5" customHeight="1"/>
+    <row r="187" ht="16.5" customHeight="1"/>
+    <row r="188" ht="16.5" customHeight="1"/>
+    <row r="189" ht="16.5" customHeight="1"/>
+    <row r="190" ht="16.5" customHeight="1"/>
+    <row r="191" ht="16.5" customHeight="1"/>
+    <row r="192" ht="16.5" customHeight="1"/>
+    <row r="193" ht="16.5" customHeight="1"/>
+    <row r="194" ht="16.5" customHeight="1"/>
+    <row r="195" ht="16.5" customHeight="1"/>
+    <row r="196" ht="16.5" customHeight="1"/>
+    <row r="197" ht="16.5" customHeight="1"/>
+    <row r="198" ht="16.5" customHeight="1"/>
+    <row r="199" ht="16.5" customHeight="1"/>
+    <row r="200" ht="16.5" customHeight="1"/>
+    <row r="201" ht="16.5" customHeight="1"/>
+    <row r="202" ht="16.5" customHeight="1"/>
+    <row r="203" ht="16.5" customHeight="1"/>
+    <row r="204" ht="16.5" customHeight="1"/>
+    <row r="205" ht="16.5" customHeight="1"/>
+    <row r="206" ht="16.5" customHeight="1"/>
+    <row r="207" ht="16.5" customHeight="1"/>
+    <row r="208" ht="16.5" customHeight="1"/>
+    <row r="209" ht="16.5" customHeight="1"/>
+    <row r="210" ht="16.5" customHeight="1"/>
+    <row r="211" ht="16.5" customHeight="1"/>
+    <row r="212" ht="16.5" customHeight="1"/>
+    <row r="213" ht="16.5" customHeight="1"/>
+    <row r="214" ht="16.5" customHeight="1"/>
+    <row r="215" ht="16.5" customHeight="1"/>
+    <row r="216" ht="16.5" customHeight="1"/>
+    <row r="217" ht="16.5" customHeight="1"/>
+    <row r="218" ht="16.5" customHeight="1"/>
+    <row r="219" ht="16.5" customHeight="1"/>
+    <row r="220" ht="16.5" customHeight="1"/>
+    <row r="221" ht="16.5" customHeight="1"/>
+    <row r="222" ht="16.5" customHeight="1"/>
+    <row r="223" ht="16.5" customHeight="1"/>
+    <row r="224" ht="16.5" customHeight="1"/>
+    <row r="225" ht="16.5" customHeight="1"/>
+    <row r="226" ht="16.5" customHeight="1"/>
+    <row r="227" ht="16.5" customHeight="1"/>
+    <row r="228" ht="16.5" customHeight="1"/>
+    <row r="229" ht="16.5" customHeight="1"/>
+    <row r="230" ht="16.5" customHeight="1"/>
+    <row r="231" ht="16.5" customHeight="1"/>
+    <row r="232" ht="16.5" customHeight="1"/>
+    <row r="233" ht="16.5" customHeight="1"/>
+    <row r="234" ht="16.5" customHeight="1"/>
+    <row r="235" ht="16.5" customHeight="1"/>
+    <row r="236" ht="16.5" customHeight="1"/>
+    <row r="237" ht="16.5" customHeight="1"/>
+    <row r="238" ht="16.5" customHeight="1"/>
+    <row r="239" ht="16.5" customHeight="1"/>
+    <row r="240" ht="16.5" customHeight="1"/>
+    <row r="241" ht="16.5" customHeight="1"/>
+    <row r="242" ht="16.5" customHeight="1"/>
+    <row r="243" ht="16.5" customHeight="1"/>
+    <row r="244" ht="16.5" customHeight="1"/>
+    <row r="245" ht="16.5" customHeight="1"/>
+    <row r="246" ht="16.5" customHeight="1"/>
+    <row r="247" ht="16.5" customHeight="1"/>
+    <row r="248" ht="16.5" customHeight="1"/>
+    <row r="249" ht="16.5" customHeight="1"/>
+    <row r="250" ht="16.5" customHeight="1"/>
+    <row r="251" ht="16.5" customHeight="1"/>
+    <row r="252" ht="16.5" customHeight="1"/>
+    <row r="253" ht="16.5" customHeight="1"/>
+    <row r="254" ht="16.5" customHeight="1"/>
+    <row r="255" ht="16.5" customHeight="1"/>
+    <row r="256" ht="16.5" customHeight="1"/>
+    <row r="257" ht="16.5" customHeight="1"/>
+    <row r="258" ht="16.5" customHeight="1"/>
+    <row r="259" ht="16.5" customHeight="1"/>
+    <row r="260" ht="16.5" customHeight="1"/>
+    <row r="261" ht="16.5" customHeight="1"/>
+    <row r="262" ht="16.5" customHeight="1"/>
+    <row r="263" ht="16.5" customHeight="1"/>
+    <row r="264" ht="16.5" customHeight="1"/>
+    <row r="265" ht="16.5" customHeight="1"/>
+    <row r="266" ht="16.5" customHeight="1"/>
+    <row r="267" ht="16.5" customHeight="1"/>
+    <row r="268" ht="16.5" customHeight="1"/>
+    <row r="269" ht="16.5" customHeight="1"/>
+    <row r="270" ht="16.5" customHeight="1"/>
+    <row r="271" ht="16.5" customHeight="1"/>
+    <row r="272" ht="16.5" customHeight="1"/>
+    <row r="273" ht="16.5" customHeight="1"/>
+    <row r="274" ht="16.5" customHeight="1"/>
+    <row r="275" ht="16.5" customHeight="1"/>
+    <row r="276" ht="16.5" customHeight="1"/>
+    <row r="277" ht="16.5" customHeight="1"/>
+    <row r="278" ht="16.5" customHeight="1"/>
+    <row r="279" ht="16.5" customHeight="1"/>
+    <row r="280" ht="16.5" customHeight="1"/>
+    <row r="281" ht="16.5" customHeight="1"/>
+    <row r="282" ht="16.5" customHeight="1"/>
+    <row r="283" ht="16.5" customHeight="1"/>
+    <row r="284" ht="16.5" customHeight="1"/>
+    <row r="285" ht="16.5" customHeight="1"/>
+    <row r="286" ht="16.5" customHeight="1"/>
+    <row r="287" ht="16.5" customHeight="1"/>
+    <row r="288" ht="16.5" customHeight="1"/>
+    <row r="289" ht="16.5" customHeight="1"/>
+    <row r="290" ht="16.5" customHeight="1"/>
+    <row r="291" ht="16.5" customHeight="1"/>
+    <row r="292" ht="16.5" customHeight="1"/>
+    <row r="293" ht="16.5" customHeight="1"/>
+    <row r="294" ht="16.5" customHeight="1"/>
+    <row r="295" ht="16.5" customHeight="1"/>
+    <row r="296" ht="16.5" customHeight="1"/>
+    <row r="297" ht="16.5" customHeight="1"/>
+    <row r="298" ht="16.5" customHeight="1"/>
+    <row r="299" ht="16.5" customHeight="1"/>
+    <row r="300" ht="16.5" customHeight="1"/>
+    <row r="301" ht="16.5" customHeight="1"/>
+    <row r="302" ht="16.5" customHeight="1"/>
+    <row r="303" ht="16.5" customHeight="1"/>
+    <row r="304" ht="16.5" customHeight="1"/>
+    <row r="305" ht="16.5" customHeight="1"/>
+    <row r="306" ht="16.5" customHeight="1"/>
+    <row r="307" ht="16.5" customHeight="1"/>
+    <row r="308" ht="16.5" customHeight="1"/>
+    <row r="309" ht="16.5" customHeight="1"/>
+    <row r="310" ht="16.5" customHeight="1"/>
+    <row r="311" ht="16.5" customHeight="1"/>
+    <row r="312" ht="16.5" customHeight="1"/>
+    <row r="313" ht="16.5" customHeight="1"/>
+    <row r="314" ht="16.5" customHeight="1"/>
+    <row r="315" ht="16.5" customHeight="1"/>
+    <row r="316" ht="16.5" customHeight="1"/>
+    <row r="317" ht="16.5" customHeight="1"/>
+    <row r="318" ht="16.5" customHeight="1"/>
+    <row r="319" ht="16.5" customHeight="1"/>
+    <row r="320" ht="16.5" customHeight="1"/>
+    <row r="321" ht="16.5" customHeight="1"/>
+    <row r="322" ht="16.5" customHeight="1"/>
+    <row r="323" ht="16.5" customHeight="1"/>
+    <row r="324" ht="16.5" customHeight="1"/>
+    <row r="325" ht="16.5" customHeight="1"/>
+    <row r="326" ht="16.5" customHeight="1"/>
+    <row r="327" ht="16.5" customHeight="1"/>
+    <row r="328" ht="16.5" customHeight="1"/>
+    <row r="329" ht="16.5" customHeight="1"/>
+    <row r="330" ht="16.5" customHeight="1"/>
+    <row r="331" ht="16.5" customHeight="1"/>
+    <row r="332" ht="16.5" customHeight="1"/>
+    <row r="333" ht="16.5" customHeight="1"/>
+    <row r="334" ht="16.5" customHeight="1"/>
+    <row r="335" ht="16.5" customHeight="1"/>
+    <row r="336" ht="16.5" customHeight="1"/>
+    <row r="337" ht="16.5" customHeight="1"/>
+    <row r="338" ht="16.5" customHeight="1"/>
+    <row r="339" ht="16.5" customHeight="1"/>
+    <row r="340" ht="16.5" customHeight="1"/>
+    <row r="341" ht="16.5" customHeight="1"/>
+    <row r="342" ht="16.5" customHeight="1"/>
+    <row r="343" ht="16.5" customHeight="1"/>
+    <row r="344" ht="16.5" customHeight="1"/>
+    <row r="345" ht="16.5" customHeight="1"/>
+    <row r="346" ht="16.5" customHeight="1"/>
+    <row r="347" ht="16.5" customHeight="1"/>
+    <row r="348" ht="16.5" customHeight="1"/>
+    <row r="349" ht="16.5" customHeight="1"/>
+    <row r="350" ht="16.5" customHeight="1"/>
+    <row r="351" ht="16.5" customHeight="1"/>
+    <row r="352" ht="16.5" customHeight="1"/>
+    <row r="353" ht="16.5" customHeight="1"/>
+    <row r="354" ht="16.5" customHeight="1"/>
+    <row r="355" ht="16.5" customHeight="1"/>
+    <row r="356" ht="16.5" customHeight="1"/>
+    <row r="357" ht="16.5" customHeight="1"/>
+    <row r="358" ht="16.5" customHeight="1"/>
+    <row r="359" ht="16.5" customHeight="1"/>
+    <row r="360" ht="16.5" customHeight="1"/>
+    <row r="361" ht="16.5" customHeight="1"/>
+    <row r="362" ht="16.5" customHeight="1"/>
+    <row r="363" ht="16.5" customHeight="1"/>
+    <row r="364" ht="16.5" customHeight="1"/>
+    <row r="365" ht="16.5" customHeight="1"/>
+    <row r="366" ht="16.5" customHeight="1"/>
+    <row r="367" ht="16.5" customHeight="1"/>
+    <row r="368" ht="16.5" customHeight="1"/>
+    <row r="369" ht="16.5" customHeight="1"/>
+    <row r="370" ht="16.5" customHeight="1"/>
+    <row r="371" ht="16.5" customHeight="1"/>
+    <row r="372" ht="16.5" customHeight="1"/>
+    <row r="373" ht="16.5" customHeight="1"/>
+    <row r="374" ht="16.5" customHeight="1"/>
+    <row r="375" ht="16.5" customHeight="1"/>
+    <row r="376" ht="16.5" customHeight="1"/>
+    <row r="377" ht="16.5" customHeight="1"/>
+    <row r="378" ht="16.5" customHeight="1"/>
+    <row r="379" ht="16.5" customHeight="1"/>
+    <row r="380" ht="16.5" customHeight="1"/>
+    <row r="381" ht="16.5" customHeight="1"/>
+    <row r="382" ht="16.5" customHeight="1"/>
+    <row r="383" ht="16.5" customHeight="1"/>
+    <row r="384" ht="16.5" customHeight="1"/>
+    <row r="385" ht="16.5" customHeight="1"/>
+    <row r="386" ht="16.5" customHeight="1"/>
+    <row r="387" ht="16.5" customHeight="1"/>
+    <row r="388" ht="16.5" customHeight="1"/>
+    <row r="389" ht="16.5" customHeight="1"/>
+    <row r="390" ht="16.5" customHeight="1"/>
+    <row r="391" ht="16.5" customHeight="1"/>
+    <row r="392" ht="16.5" customHeight="1"/>
+    <row r="393" ht="16.5" customHeight="1"/>
+    <row r="394" ht="16.5" customHeight="1"/>
+    <row r="395" ht="16.5" customHeight="1"/>
+    <row r="396" ht="16.5" customHeight="1"/>
+    <row r="397" ht="16.5" customHeight="1"/>
+    <row r="398" ht="16.5" customHeight="1"/>
+    <row r="399" ht="16.5" customHeight="1"/>
+    <row r="400" ht="16.5" customHeight="1"/>
+    <row r="401" ht="16.5" customHeight="1"/>
+    <row r="402" ht="16.5" customHeight="1"/>
+    <row r="403" ht="16.5" customHeight="1"/>
+    <row r="404" ht="16.5" customHeight="1"/>
+    <row r="405" ht="16.5" customHeight="1"/>
+    <row r="406" ht="16.5" customHeight="1"/>
+    <row r="407" ht="16.5" customHeight="1"/>
+    <row r="408" ht="16.5" customHeight="1"/>
+    <row r="409" ht="16.5" customHeight="1"/>
+    <row r="410" ht="16.5" customHeight="1"/>
+    <row r="411" ht="16.5" customHeight="1"/>
+    <row r="412" ht="16.5" customHeight="1"/>
+    <row r="413" ht="16.5" customHeight="1"/>
+    <row r="414" ht="16.5" customHeight="1"/>
+    <row r="415" ht="16.5" customHeight="1"/>
+    <row r="416" ht="16.5" customHeight="1"/>
+    <row r="417" ht="16.5" customHeight="1"/>
+    <row r="418" ht="16.5" customHeight="1"/>
+    <row r="419" ht="16.5" customHeight="1"/>
+    <row r="420" ht="16.5" customHeight="1"/>
+    <row r="421" ht="16.5" customHeight="1"/>
+    <row r="422" ht="16.5" customHeight="1"/>
+    <row r="423" ht="16.5" customHeight="1"/>
+    <row r="424" ht="16.5" customHeight="1"/>
+    <row r="425" ht="16.5" customHeight="1"/>
+    <row r="426" ht="16.5" customHeight="1"/>
+    <row r="427" ht="16.5" customHeight="1"/>
+    <row r="428" ht="16.5" customHeight="1"/>
+    <row r="429" ht="16.5" customHeight="1"/>
+    <row r="430" ht="16.5" customHeight="1"/>
+    <row r="431" ht="16.5" customHeight="1"/>
+    <row r="432" ht="16.5" customHeight="1"/>
+    <row r="433" ht="16.5" customHeight="1"/>
+    <row r="434" ht="16.5" customHeight="1"/>
+    <row r="435" ht="16.5" customHeight="1"/>
+    <row r="436" ht="16.5" customHeight="1"/>
+    <row r="437" ht="16.5" customHeight="1"/>
+    <row r="438" ht="16.5" customHeight="1"/>
+    <row r="439" ht="16.5" customHeight="1"/>
+    <row r="440" ht="16.5" customHeight="1"/>
+    <row r="441" ht="16.5" customHeight="1"/>
+    <row r="442" ht="16.5" customHeight="1"/>
+    <row r="443" ht="16.5" customHeight="1"/>
+    <row r="444" ht="16.5" customHeight="1"/>
+    <row r="445" ht="16.5" customHeight="1"/>
+    <row r="446" ht="16.5" customHeight="1"/>
+    <row r="447" ht="16.5" customHeight="1"/>
+    <row r="448" ht="16.5" customHeight="1"/>
+    <row r="449" ht="16.5" customHeight="1"/>
+    <row r="450" ht="16.5" customHeight="1"/>
+    <row r="451" ht="16.5" customHeight="1"/>
+    <row r="452" ht="16.5" customHeight="1"/>
+    <row r="453" ht="16.5" customHeight="1"/>
+    <row r="454" ht="16.5" customHeight="1"/>
+    <row r="455" ht="16.5" customHeight="1"/>
+    <row r="456" ht="16.5" customHeight="1"/>
+    <row r="457" ht="16.5" customHeight="1"/>
+    <row r="458" ht="16.5" customHeight="1"/>
+    <row r="459" ht="16.5" customHeight="1"/>
+    <row r="460" ht="16.5" customHeight="1"/>
+    <row r="461" ht="16.5" customHeight="1"/>
+    <row r="462" ht="16.5" customHeight="1"/>
+    <row r="463" ht="16.5" customHeight="1"/>
+    <row r="464" ht="16.5" customHeight="1"/>
+    <row r="465" ht="16.5" customHeight="1"/>
+    <row r="466" ht="16.5" customHeight="1"/>
+    <row r="467" ht="16.5" customHeight="1"/>
+    <row r="468" ht="16.5" customHeight="1"/>
+    <row r="469" ht="16.5" customHeight="1"/>
+    <row r="470" ht="16.5" customHeight="1"/>
+    <row r="471" ht="16.5" customHeight="1"/>
+    <row r="472" ht="16.5" customHeight="1"/>
+    <row r="473" ht="16.5" customHeight="1"/>
+    <row r="474" ht="16.5" customHeight="1"/>
+    <row r="475" ht="16.5" customHeight="1"/>
+    <row r="476" ht="16.5" customHeight="1"/>
+    <row r="477" ht="16.5" customHeight="1"/>
+    <row r="478" ht="16.5" customHeight="1"/>
+    <row r="479" ht="16.5" customHeight="1"/>
+    <row r="480" ht="16.5" customHeight="1"/>
+    <row r="481" ht="16.5" customHeight="1"/>
+    <row r="482" ht="16.5" customHeight="1"/>
+    <row r="483" ht="16.5" customHeight="1"/>
+    <row r="484" ht="16.5" customHeight="1"/>
+    <row r="485" ht="16.5" customHeight="1"/>
+    <row r="486" ht="16.5" customHeight="1"/>
+    <row r="487" ht="16.5" customHeight="1"/>
+    <row r="488" ht="16.5" customHeight="1"/>
+    <row r="489" ht="16.5" customHeight="1"/>
+    <row r="490" ht="16.5" customHeight="1"/>
+    <row r="491" ht="16.5" customHeight="1"/>
+    <row r="492" ht="16.5" customHeight="1"/>
+    <row r="493" ht="16.5" customHeight="1"/>
+    <row r="494" ht="16.5" customHeight="1"/>
+    <row r="495" ht="16.5" customHeight="1"/>
+    <row r="496" ht="16.5" customHeight="1"/>
+    <row r="497" ht="16.5" customHeight="1"/>
+    <row r="498" ht="16.5" customHeight="1"/>
+    <row r="499" ht="16.5" customHeight="1"/>
+    <row r="500" ht="16.5" customHeight="1"/>
+    <row r="501" ht="16.5" customHeight="1"/>
+    <row r="502" ht="16.5" customHeight="1"/>
+    <row r="503" ht="16.5" customHeight="1"/>
+    <row r="504" ht="16.5" customHeight="1"/>
+    <row r="505" ht="16.5" customHeight="1"/>
+    <row r="506" ht="16.5" customHeight="1"/>
+    <row r="507" ht="16.5" customHeight="1"/>
+    <row r="508" ht="16.5" customHeight="1"/>
+    <row r="509" ht="16.5" customHeight="1"/>
+    <row r="510" ht="16.5" customHeight="1"/>
+    <row r="511" ht="16.5" customHeight="1"/>
+    <row r="512" ht="16.5" customHeight="1"/>
+    <row r="513" ht="16.5" customHeight="1"/>
+    <row r="514" ht="16.5" customHeight="1"/>
+    <row r="515" ht="16.5" customHeight="1"/>
+    <row r="516" ht="16.5" customHeight="1"/>
+    <row r="517" ht="16.5" customHeight="1"/>
+    <row r="518" ht="16.5" customHeight="1"/>
+    <row r="519" ht="16.5" customHeight="1"/>
+    <row r="520" ht="16.5" customHeight="1"/>
+    <row r="521" ht="16.5" customHeight="1"/>
+    <row r="522" ht="16.5" customHeight="1"/>
+    <row r="523" ht="16.5" customHeight="1"/>
+    <row r="524" ht="16.5" customHeight="1"/>
+    <row r="525" ht="16.5" customHeight="1"/>
+    <row r="526" ht="16.5" customHeight="1"/>
+    <row r="527" ht="16.5" customHeight="1"/>
+    <row r="528" ht="16.5" customHeight="1"/>
+    <row r="529" ht="16.5" customHeight="1"/>
+    <row r="530" ht="16.5" customHeight="1"/>
+    <row r="531" ht="16.5" customHeight="1"/>
+    <row r="532" ht="16.5" customHeight="1"/>
+    <row r="533" ht="16.5" customHeight="1"/>
+    <row r="534" ht="16.5" customHeight="1"/>
+    <row r="535" ht="16.5" customHeight="1"/>
+    <row r="536" ht="16.5" customHeight="1"/>
+    <row r="537" ht="16.5" customHeight="1"/>
+    <row r="538" ht="16.5" customHeight="1"/>
+    <row r="539" ht="16.5" customHeight="1"/>
+    <row r="540" ht="16.5" customHeight="1"/>
+    <row r="541" ht="16.5" customHeight="1"/>
+    <row r="542" ht="16.5" customHeight="1"/>
+    <row r="543" ht="16.5" customHeight="1"/>
+    <row r="544" ht="16.5" customHeight="1"/>
+    <row r="545" ht="16.5" customHeight="1"/>
+    <row r="546" ht="16.5" customHeight="1"/>
+    <row r="547" ht="16.5" customHeight="1"/>
+    <row r="548" ht="16.5" customHeight="1"/>
+    <row r="549" ht="16.5" customHeight="1"/>
+    <row r="550" ht="16.5" customHeight="1"/>
+    <row r="551" ht="16.5" customHeight="1"/>
+    <row r="552" ht="16.5" customHeight="1"/>
+    <row r="553" ht="16.5" customHeight="1"/>
+    <row r="554" ht="16.5" customHeight="1"/>
+    <row r="555" ht="16.5" customHeight="1"/>
+    <row r="556" ht="16.5" customHeight="1"/>
+    <row r="557" ht="16.5" customHeight="1"/>
+    <row r="558" ht="16.5" customHeight="1"/>
+    <row r="559" ht="16.5" customHeight="1"/>
+    <row r="560" ht="16.5" customHeight="1"/>
+    <row r="561" ht="16.5" customHeight="1"/>
+    <row r="562" ht="16.5" customHeight="1"/>
+    <row r="563" ht="16.5" customHeight="1"/>
+    <row r="564" ht="16.5" customHeight="1"/>
+    <row r="565" ht="16.5" customHeight="1"/>
+    <row r="566" ht="16.5" customHeight="1"/>
+    <row r="567" ht="16.5" customHeight="1"/>
+    <row r="568" ht="16.5" customHeight="1"/>
+    <row r="569" ht="16.5" customHeight="1"/>
+    <row r="570" ht="16.5" customHeight="1"/>
+    <row r="571" ht="16.5" customHeight="1"/>
+    <row r="572" ht="16.5" customHeight="1"/>
+    <row r="573" ht="16.5" customHeight="1"/>
+    <row r="574" ht="16.5" customHeight="1"/>
+    <row r="575" ht="16.5" customHeight="1"/>
+    <row r="576" ht="16.5" customHeight="1"/>
+    <row r="577" ht="16.5" customHeight="1"/>
+    <row r="578" ht="16.5" customHeight="1"/>
+    <row r="579" ht="16.5" customHeight="1"/>
+    <row r="580" ht="16.5" customHeight="1"/>
+    <row r="581" ht="16.5" customHeight="1"/>
+    <row r="582" ht="16.5" customHeight="1"/>
+    <row r="583" ht="16.5" customHeight="1"/>
+    <row r="584" ht="16.5" customHeight="1"/>
+    <row r="585" ht="16.5" customHeight="1"/>
+    <row r="586" ht="16.5" customHeight="1"/>
+    <row r="587" ht="16.5" customHeight="1"/>
+    <row r="588" ht="16.5" customHeight="1"/>
+    <row r="589" ht="16.5" customHeight="1"/>
+    <row r="590" ht="16.5" customHeight="1"/>
+    <row r="591" ht="16.5" customHeight="1"/>
+    <row r="592" ht="16.5" customHeight="1"/>
+    <row r="593" ht="16.5" customHeight="1"/>
+    <row r="594" ht="16.5" customHeight="1"/>
+    <row r="595" ht="16.5" customHeight="1"/>
+    <row r="596" ht="16.5" customHeight="1"/>
+    <row r="597" ht="16.5" customHeight="1"/>
+    <row r="598" ht="16.5" customHeight="1"/>
+    <row r="599" ht="16.5" customHeight="1"/>
+    <row r="600" ht="16.5" customHeight="1"/>
+    <row r="601" ht="16.5" customHeight="1"/>
+    <row r="602" ht="16.5" customHeight="1"/>
+    <row r="603" ht="16.5" customHeight="1"/>
+    <row r="604" ht="16.5" customHeight="1"/>
+    <row r="605" ht="16.5" customHeight="1"/>
+    <row r="606" ht="16.5" customHeight="1"/>
+    <row r="607" ht="16.5" customHeight="1"/>
+    <row r="608" ht="16.5" customHeight="1"/>
+    <row r="609" ht="16.5" customHeight="1"/>
+    <row r="610" ht="16.5" customHeight="1"/>
+    <row r="611" ht="16.5" customHeight="1"/>
+    <row r="612" ht="16.5" customHeight="1"/>
+    <row r="613" ht="16.5" customHeight="1"/>
+    <row r="614" ht="16.5" customHeight="1"/>
+    <row r="615" ht="16.5" customHeight="1"/>
+    <row r="616" ht="16.5" customHeight="1"/>
+    <row r="617" ht="16.5" customHeight="1"/>
+    <row r="618" ht="16.5" customHeight="1"/>
+    <row r="619" ht="16.5" customHeight="1"/>
+    <row r="620" ht="16.5" customHeight="1"/>
+    <row r="621" ht="16.5" customHeight="1"/>
+    <row r="622" ht="16.5" customHeight="1"/>
+    <row r="623" ht="16.5" customHeight="1"/>
+    <row r="624" ht="16.5" customHeight="1"/>
+    <row r="625" ht="16.5" customHeight="1"/>
+    <row r="626" ht="16.5" customHeight="1"/>
+    <row r="627" ht="16.5" customHeight="1"/>
+    <row r="628" ht="16.5" customHeight="1"/>
+    <row r="629" ht="16.5" customHeight="1"/>
+    <row r="630" ht="16.5" customHeight="1"/>
+    <row r="631" ht="16.5" customHeight="1"/>
+    <row r="632" ht="16.5" customHeight="1"/>
+    <row r="633" ht="16.5" customHeight="1"/>
+    <row r="634" ht="16.5" customHeight="1"/>
+    <row r="635" ht="16.5" customHeight="1"/>
+    <row r="636" ht="16.5" customHeight="1"/>
+    <row r="637" ht="16.5" customHeight="1"/>
+    <row r="638" ht="16.5" customHeight="1"/>
+    <row r="639" ht="16.5" customHeight="1"/>
+    <row r="640" ht="16.5" customHeight="1"/>
+    <row r="641" ht="16.5" customHeight="1"/>
+    <row r="642" ht="16.5" customHeight="1"/>
+    <row r="643" ht="16.5" customHeight="1"/>
+    <row r="644" ht="16.5" customHeight="1"/>
+    <row r="645" ht="16.5" customHeight="1"/>
+    <row r="646" ht="16.5" customHeight="1"/>
+    <row r="647" ht="16.5" customHeight="1"/>
+    <row r="648" ht="16.5" customHeight="1"/>
+    <row r="649" ht="16.5" customHeight="1"/>
+    <row r="650" ht="16.5" customHeight="1"/>
+    <row r="651" ht="16.5" customHeight="1"/>
+    <row r="652" ht="16.5" customHeight="1"/>
+    <row r="653" ht="16.5" customHeight="1"/>
+    <row r="654" ht="16.5" customHeight="1"/>
+    <row r="655" ht="16.5" customHeight="1"/>
+    <row r="656" ht="16.5" customHeight="1"/>
+    <row r="657" ht="16.5" customHeight="1"/>
+    <row r="658" ht="16.5" customHeight="1"/>
+    <row r="659" ht="16.5" customHeight="1"/>
+    <row r="660" ht="16.5" customHeight="1"/>
+    <row r="661" ht="16.5" customHeight="1"/>
+    <row r="662" ht="16.5" customHeight="1"/>
+    <row r="663" ht="16.5" customHeight="1"/>
+    <row r="664" ht="16.5" customHeight="1"/>
+    <row r="665" ht="16.5" customHeight="1"/>
+    <row r="666" ht="16.5" customHeight="1"/>
+    <row r="667" ht="16.5" customHeight="1"/>
+    <row r="668" ht="16.5" customHeight="1"/>
+    <row r="669" ht="16.5" customHeight="1"/>
+    <row r="670" ht="16.5" customHeight="1"/>
+    <row r="671" ht="16.5" customHeight="1"/>
+    <row r="672" ht="16.5" customHeight="1"/>
+    <row r="673" ht="16.5" customHeight="1"/>
+    <row r="674" ht="16.5" customHeight="1"/>
+    <row r="675" ht="16.5" customHeight="1"/>
+    <row r="676" ht="16.5" customHeight="1"/>
+    <row r="677" ht="16.5" customHeight="1"/>
+    <row r="678" ht="16.5" customHeight="1"/>
+    <row r="679" ht="16.5" customHeight="1"/>
+    <row r="680" ht="16.5" customHeight="1"/>
+    <row r="681" ht="16.5" customHeight="1"/>
+    <row r="682" ht="16.5" customHeight="1"/>
+    <row r="683" ht="16.5" customHeight="1"/>
+    <row r="684" ht="16.5" customHeight="1"/>
+    <row r="685" ht="16.5" customHeight="1"/>
+    <row r="686" ht="16.5" customHeight="1"/>
+    <row r="687" ht="16.5" customHeight="1"/>
+    <row r="688" ht="16.5" customHeight="1"/>
+    <row r="689" ht="16.5" customHeight="1"/>
+    <row r="690" ht="16.5" customHeight="1"/>
+    <row r="691" ht="16.5" customHeight="1"/>
+    <row r="692" ht="16.5" customHeight="1"/>
+    <row r="693" ht="16.5" customHeight="1"/>
+    <row r="694" ht="16.5" customHeight="1"/>
+    <row r="695" ht="16.5" customHeight="1"/>
+    <row r="696" ht="16.5" customHeight="1"/>
+    <row r="697" ht="16.5" customHeight="1"/>
+    <row r="698" ht="16.5" customHeight="1"/>
+    <row r="699" ht="16.5" customHeight="1"/>
+    <row r="700" ht="16.5" customHeight="1"/>
+    <row r="701" ht="16.5" customHeight="1"/>
+    <row r="702" ht="16.5" customHeight="1"/>
+    <row r="703" ht="16.5" customHeight="1"/>
+    <row r="704" ht="16.5" customHeight="1"/>
+    <row r="705" ht="16.5" customHeight="1"/>
+    <row r="706" ht="16.5" customHeight="1"/>
+    <row r="707" ht="16.5" customHeight="1"/>
+    <row r="708" ht="16.5" customHeight="1"/>
+    <row r="709" ht="16.5" customHeight="1"/>
+    <row r="710" ht="16.5" customHeight="1"/>
+    <row r="711" ht="16.5" customHeight="1"/>
+    <row r="712" ht="16.5" customHeight="1"/>
+    <row r="713" ht="16.5" customHeight="1"/>
+    <row r="714" ht="16.5" customHeight="1"/>
+    <row r="715" ht="16.5" customHeight="1"/>
+    <row r="716" ht="16.5" customHeight="1"/>
+    <row r="717" ht="16.5" customHeight="1"/>
+    <row r="718" ht="16.5" customHeight="1"/>
+    <row r="719" ht="16.5" customHeight="1"/>
+    <row r="720" ht="16.5" customHeight="1"/>
+    <row r="721" ht="16.5" customHeight="1"/>
+    <row r="722" ht="16.5" customHeight="1"/>
+    <row r="723" ht="16.5" customHeight="1"/>
+    <row r="724" ht="16.5" customHeight="1"/>
+    <row r="725" ht="16.5" customHeight="1"/>
+    <row r="726" ht="16.5" customHeight="1"/>
+    <row r="727" ht="16.5" customHeight="1"/>
+    <row r="728" ht="16.5" customHeight="1"/>
+    <row r="729" ht="16.5" customHeight="1"/>
+    <row r="730" ht="16.5" customHeight="1"/>
+    <row r="731" ht="16.5" customHeight="1"/>
+    <row r="732" ht="16.5" customHeight="1"/>
+    <row r="733" ht="16.5" customHeight="1"/>
+    <row r="734" ht="16.5" customHeight="1"/>
+    <row r="735" ht="16.5" customHeight="1"/>
+    <row r="736" ht="16.5" customHeight="1"/>
+    <row r="737" ht="16.5" customHeight="1"/>
+    <row r="738" ht="16.5" customHeight="1"/>
+    <row r="739" ht="16.5" customHeight="1"/>
+    <row r="740" ht="16.5" customHeight="1"/>
+    <row r="741" ht="16.5" customHeight="1"/>
+    <row r="742" ht="16.5" customHeight="1"/>
+    <row r="743" ht="16.5" customHeight="1"/>
+    <row r="744" ht="16.5" customHeight="1"/>
+    <row r="745" ht="16.5" customHeight="1"/>
+    <row r="746" ht="16.5" customHeight="1"/>
+    <row r="747" ht="16.5" customHeight="1"/>
+    <row r="748" ht="16.5" customHeight="1"/>
+    <row r="749" ht="16.5" customHeight="1"/>
+    <row r="750" ht="16.5" customHeight="1"/>
+    <row r="751" ht="16.5" customHeight="1"/>
+    <row r="752" ht="16.5" customHeight="1"/>
+    <row r="753" ht="16.5" customHeight="1"/>
+    <row r="754" ht="16.5" customHeight="1"/>
+    <row r="755" ht="16.5" customHeight="1"/>
+    <row r="756" ht="16.5" customHeight="1"/>
+    <row r="757" ht="16.5" customHeight="1"/>
+    <row r="758" ht="16.5" customHeight="1"/>
+    <row r="759" ht="16.5" customHeight="1"/>
+    <row r="760" ht="16.5" customHeight="1"/>
+    <row r="761" ht="16.5" customHeight="1"/>
+    <row r="762" ht="16.5" customHeight="1"/>
+    <row r="763" ht="16.5" customHeight="1"/>
+    <row r="764" ht="16.5" customHeight="1"/>
+    <row r="765" ht="16.5" customHeight="1"/>
+    <row r="766" ht="16.5" customHeight="1"/>
+    <row r="767" ht="16.5" customHeight="1"/>
+    <row r="768" ht="16.5" customHeight="1"/>
+    <row r="769" ht="16.5" customHeight="1"/>
+    <row r="770" ht="16.5" customHeight="1"/>
+    <row r="771" ht="16.5" customHeight="1"/>
+    <row r="772" ht="16.5" customHeight="1"/>
+    <row r="773" ht="16.5" customHeight="1"/>
+    <row r="774" ht="16.5" customHeight="1"/>
+    <row r="775" ht="16.5" customHeight="1"/>
+    <row r="776" ht="16.5" customHeight="1"/>
+    <row r="777" ht="16.5" customHeight="1"/>
+    <row r="778" ht="16.5" customHeight="1"/>
+    <row r="779" ht="16.5" customHeight="1"/>
+    <row r="780" ht="16.5" customHeight="1"/>
+    <row r="781" ht="16.5" customHeight="1"/>
+    <row r="782" ht="16.5" customHeight="1"/>
+    <row r="783" ht="16.5" customHeight="1"/>
+    <row r="784" ht="16.5" customHeight="1"/>
+    <row r="785" ht="16.5" customHeight="1"/>
+    <row r="786" ht="16.5" customHeight="1"/>
+    <row r="787" ht="16.5" customHeight="1"/>
+    <row r="788" ht="16.5" customHeight="1"/>
+    <row r="789" ht="16.5" customHeight="1"/>
+    <row r="790" ht="16.5" customHeight="1"/>
+    <row r="791" ht="16.5" customHeight="1"/>
+    <row r="792" ht="16.5" customHeight="1"/>
+    <row r="793" ht="16.5" customHeight="1"/>
+    <row r="794" ht="16.5" customHeight="1"/>
+    <row r="795" ht="16.5" customHeight="1"/>
+    <row r="796" ht="16.5" customHeight="1"/>
+    <row r="797" ht="16.5" customHeight="1"/>
+    <row r="798" ht="16.5" customHeight="1"/>
+    <row r="799" ht="16.5" customHeight="1"/>
+    <row r="800" ht="16.5" customHeight="1"/>
+    <row r="801" ht="16.5" customHeight="1"/>
+    <row r="802" ht="16.5" customHeight="1"/>
+    <row r="803" ht="16.5" customHeight="1"/>
+    <row r="804" ht="16.5" customHeight="1"/>
+    <row r="805" ht="16.5" customHeight="1"/>
+    <row r="806" ht="16.5" customHeight="1"/>
+    <row r="807" ht="16.5" customHeight="1"/>
+    <row r="808" ht="16.5" customHeight="1"/>
+    <row r="809" ht="16.5" customHeight="1"/>
+    <row r="810" ht="16.5" customHeight="1"/>
+    <row r="811" ht="16.5" customHeight="1"/>
+    <row r="812" ht="16.5" customHeight="1"/>
+    <row r="813" ht="16.5" customHeight="1"/>
+    <row r="814" ht="16.5" customHeight="1"/>
+    <row r="815" ht="16.5" customHeight="1"/>
+    <row r="816" ht="16.5" customHeight="1"/>
+    <row r="817" ht="16.5" customHeight="1"/>
+    <row r="818" ht="16.5" customHeight="1"/>
+    <row r="819" ht="16.5" customHeight="1"/>
+    <row r="820" ht="16.5" customHeight="1"/>
+    <row r="821" ht="16.5" customHeight="1"/>
+    <row r="822" ht="16.5" customHeight="1"/>
+    <row r="823" ht="16.5" customHeight="1"/>
+    <row r="824" ht="16.5" customHeight="1"/>
+    <row r="825" ht="16.5" customHeight="1"/>
+    <row r="826" ht="16.5" customHeight="1"/>
+    <row r="827" ht="16.5" customHeight="1"/>
+    <row r="828" ht="16.5" customHeight="1"/>
+    <row r="829" ht="16.5" customHeight="1"/>
+    <row r="830" ht="16.5" customHeight="1"/>
+    <row r="831" ht="16.5" customHeight="1"/>
+    <row r="832" ht="16.5" customHeight="1"/>
+    <row r="833" ht="16.5" customHeight="1"/>
+    <row r="834" ht="16.5" customHeight="1"/>
+    <row r="835" ht="16.5" customHeight="1"/>
+    <row r="836" ht="16.5" customHeight="1"/>
+    <row r="837" ht="16.5" customHeight="1"/>
+    <row r="838" ht="16.5" customHeight="1"/>
+    <row r="839" ht="16.5" customHeight="1"/>
+    <row r="840" ht="16.5" customHeight="1"/>
+    <row r="841" ht="16.5" customHeight="1"/>
+    <row r="842" ht="16.5" customHeight="1"/>
+    <row r="843" ht="16.5" customHeight="1"/>
+    <row r="844" ht="16.5" customHeight="1"/>
+    <row r="845" ht="16.5" customHeight="1"/>
+    <row r="846" ht="16.5" customHeight="1"/>
+    <row r="847" ht="16.5" customHeight="1"/>
+    <row r="848" ht="16.5" customHeight="1"/>
+    <row r="849" ht="16.5" customHeight="1"/>
+    <row r="850" ht="16.5" customHeight="1"/>
+    <row r="851" ht="16.5" customHeight="1"/>
+    <row r="852" ht="16.5" customHeight="1"/>
+    <row r="853" ht="16.5" customHeight="1"/>
+    <row r="854" ht="16.5" customHeight="1"/>
+    <row r="855" ht="16.5" customHeight="1"/>
+    <row r="856" ht="16.5" customHeight="1"/>
+    <row r="857" ht="16.5" customHeight="1"/>
+    <row r="858" ht="16.5" customHeight="1"/>
+    <row r="859" ht="16.5" customHeight="1"/>
+    <row r="860" ht="16.5" customHeight="1"/>
+    <row r="861" ht="16.5" customHeight="1"/>
+    <row r="862" ht="16.5" customHeight="1"/>
+    <row r="863" ht="16.5" customHeight="1"/>
+    <row r="864" ht="16.5" customHeight="1"/>
+    <row r="865" ht="16.5" customHeight="1"/>
+    <row r="866" ht="16.5" customHeight="1"/>
+    <row r="867" ht="16.5" customHeight="1"/>
+    <row r="868" ht="16.5" customHeight="1"/>
+    <row r="869" ht="16.5" customHeight="1"/>
+    <row r="870" ht="16.5" customHeight="1"/>
+    <row r="871" ht="16.5" customHeight="1"/>
+    <row r="872" ht="16.5" customHeight="1"/>
+    <row r="873" ht="16.5" customHeight="1"/>
+    <row r="874" ht="16.5" customHeight="1"/>
+    <row r="875" ht="16.5" customHeight="1"/>
+    <row r="876" ht="16.5" customHeight="1"/>
+    <row r="877" ht="16.5" customHeight="1"/>
+    <row r="878" ht="16.5" customHeight="1"/>
+    <row r="879" ht="16.5" customHeight="1"/>
+    <row r="880" ht="16.5" customHeight="1"/>
+    <row r="881" ht="16.5" customHeight="1"/>
+    <row r="882" ht="16.5" customHeight="1"/>
+    <row r="883" ht="16.5" customHeight="1"/>
+    <row r="884" ht="16.5" customHeight="1"/>
+    <row r="885" ht="16.5" customHeight="1"/>
+    <row r="886" ht="16.5" customHeight="1"/>
+    <row r="887" ht="16.5" customHeight="1"/>
+    <row r="888" ht="16.5" customHeight="1"/>
+    <row r="889" ht="16.5" customHeight="1"/>
+    <row r="890" ht="16.5" customHeight="1"/>
+    <row r="891" ht="16.5" customHeight="1"/>
+    <row r="892" ht="16.5" customHeight="1"/>
+    <row r="893" ht="16.5" customHeight="1"/>
+    <row r="894" ht="16.5" customHeight="1"/>
+    <row r="895" ht="16.5" customHeight="1"/>
+    <row r="896" ht="16.5" customHeight="1"/>
+    <row r="897" ht="16.5" customHeight="1"/>
+    <row r="898" ht="16.5" customHeight="1"/>
+    <row r="899" ht="16.5" customHeight="1"/>
+    <row r="900" ht="16.5" customHeight="1"/>
+    <row r="901" ht="16.5" customHeight="1"/>
+    <row r="902" ht="16.5" customHeight="1"/>
+    <row r="903" ht="16.5" customHeight="1"/>
+    <row r="904" ht="16.5" customHeight="1"/>
+    <row r="905" ht="16.5" customHeight="1"/>
+    <row r="906" ht="16.5" customHeight="1"/>
+    <row r="907" ht="16.5" customHeight="1"/>
+    <row r="908" ht="16.5" customHeight="1"/>
+    <row r="909" ht="16.5" customHeight="1"/>
+    <row r="910" ht="16.5" customHeight="1"/>
+    <row r="911" ht="16.5" customHeight="1"/>
+    <row r="912" ht="16.5" customHeight="1"/>
+    <row r="913" ht="16.5" customHeight="1"/>
+    <row r="914" ht="16.5" customHeight="1"/>
+    <row r="915" ht="16.5" customHeight="1"/>
+    <row r="916" ht="16.5" customHeight="1"/>
+    <row r="917" ht="16.5" customHeight="1"/>
+    <row r="918" ht="16.5" customHeight="1"/>
+    <row r="919" ht="16.5" customHeight="1"/>
+    <row r="920" ht="16.5" customHeight="1"/>
+    <row r="921" ht="16.5" customHeight="1"/>
+    <row r="922" ht="16.5" customHeight="1"/>
+    <row r="923" ht="16.5" customHeight="1"/>
+    <row r="924" ht="16.5" customHeight="1"/>
+    <row r="925" ht="16.5" customHeight="1"/>
+    <row r="926" ht="16.5" customHeight="1"/>
+    <row r="927" ht="16.5" customHeight="1"/>
+    <row r="928" ht="16.5" customHeight="1"/>
+    <row r="929" ht="16.5" customHeight="1"/>
+    <row r="930" ht="16.5" customHeight="1"/>
+    <row r="931" ht="16.5" customHeight="1"/>
+    <row r="932" ht="16.5" customHeight="1"/>
+    <row r="933" ht="16.5" customHeight="1"/>
+    <row r="934" ht="16.5" customHeight="1"/>
+    <row r="935" ht="16.5" customHeight="1"/>
+    <row r="936" ht="16.5" customHeight="1"/>
+    <row r="937" ht="16.5" customHeight="1"/>
+    <row r="938" ht="16.5" customHeight="1"/>
+    <row r="939" ht="16.5" customHeight="1"/>
+    <row r="940" ht="16.5" customHeight="1"/>
+    <row r="941" ht="16.5" customHeight="1"/>
+    <row r="942" ht="16.5" customHeight="1"/>
+    <row r="943" ht="16.5" customHeight="1"/>
+    <row r="944" ht="16.5" customHeight="1"/>
+    <row r="945" ht="16.5" customHeight="1"/>
+    <row r="946" ht="16.5" customHeight="1"/>
+    <row r="947" ht="16.5" customHeight="1"/>
+    <row r="948" ht="16.5" customHeight="1"/>
+    <row r="949" ht="16.5" customHeight="1"/>
+    <row r="950" ht="16.5" customHeight="1"/>
+    <row r="951" ht="16.5" customHeight="1"/>
+    <row r="952" ht="16.5" customHeight="1"/>
+    <row r="953" ht="16.5" customHeight="1"/>
+    <row r="954" ht="16.5" customHeight="1"/>
+    <row r="955" ht="16.5" customHeight="1"/>
+    <row r="956" ht="16.5" customHeight="1"/>
+    <row r="957" ht="16.5" customHeight="1"/>
+    <row r="958" ht="16.5" customHeight="1"/>
+    <row r="959" ht="16.5" customHeight="1"/>
+    <row r="960" ht="16.5" customHeight="1"/>
+    <row r="961" ht="16.5" customHeight="1"/>
+    <row r="962" ht="16.5" customHeight="1"/>
+    <row r="963" ht="16.5" customHeight="1"/>
+    <row r="964" ht="16.5" customHeight="1"/>
+    <row r="965" ht="16.5" customHeight="1"/>
+    <row r="966" ht="16.5" customHeight="1"/>
+    <row r="967" ht="16.5" customHeight="1"/>
+    <row r="968" ht="16.5" customHeight="1"/>
+    <row r="969" ht="16.5" customHeight="1"/>
+    <row r="970" ht="16.5" customHeight="1"/>
+    <row r="971" ht="16.5" customHeight="1"/>
+    <row r="972" ht="16.5" customHeight="1"/>
+    <row r="973" ht="16.5" customHeight="1"/>
+    <row r="974" ht="16.5" customHeight="1"/>
+    <row r="975" ht="16.5" customHeight="1"/>
+    <row r="976" ht="16.5" customHeight="1"/>
+    <row r="977" ht="16.5" customHeight="1"/>
+    <row r="978" ht="16.5" customHeight="1"/>
+    <row r="979" ht="16.5" customHeight="1"/>
+    <row r="980" ht="16.5" customHeight="1"/>
+    <row r="981" ht="16.5" customHeight="1"/>
+    <row r="982" ht="16.5" customHeight="1"/>
+    <row r="983" ht="16.5" customHeight="1"/>
+    <row r="984" ht="16.5" customHeight="1"/>
+    <row r="985" ht="16.5" customHeight="1"/>
+    <row r="986" ht="16.5" customHeight="1"/>
+    <row r="987" ht="16.5" customHeight="1"/>
+    <row r="988" ht="16.5" customHeight="1"/>
+    <row r="989" ht="16.5" customHeight="1"/>
+    <row r="990" ht="16.5" customHeight="1"/>
+    <row r="991" ht="16.5" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+</worksheet>
 </file>
--- a/1.회의록(PJE_REC_A01).xlsx
+++ b/1.회의록(PJE_REC_A01).xlsx
@@ -18,12 +18,11 @@
     <sheet name="19일" sheetId="9" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="128">
   <si>
     <t>문서번호</t>
   </si>
@@ -616,6 +615,10 @@
   </si>
   <si>
     <t>화면 구석에 ? 마크를 넣어 그걸 클릭하면 쓰인 데이터 수, 정확도 등의 정보와 함께 만든 서비스에 대한 세부 설정까지</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름 Reuse로 결정</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1221,7 +1224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1369,6 +1372,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1424,9 +1433,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1823,10 +1829,10 @@
       <c r="J3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="49" t="s">
+      <c r="K3" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="L3" s="50"/>
+      <c r="L3" s="52"/>
       <c r="M3" s="7"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -2040,19 +2046,19 @@
     </row>
     <row r="11" spans="1:26" ht="21" customHeight="1">
       <c r="A11" s="5"/>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="53"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="55"/>
       <c r="M11" s="7"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -2070,17 +2076,17 @@
     </row>
     <row r="12" spans="1:26" ht="21" customHeight="1">
       <c r="A12" s="5"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="56"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="58"/>
       <c r="M12" s="7"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -2098,17 +2104,17 @@
     </row>
     <row r="13" spans="1:26" ht="21" customHeight="1">
       <c r="A13" s="5"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="56"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="58"/>
       <c r="M13" s="7"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -2126,17 +2132,17 @@
     </row>
     <row r="14" spans="1:26" ht="21" customHeight="1">
       <c r="A14" s="5"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="56"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="58"/>
       <c r="M14" s="7"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -2154,17 +2160,17 @@
     </row>
     <row r="15" spans="1:26" ht="16.5" customHeight="1">
       <c r="A15" s="5"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="59"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="61"/>
       <c r="M15" s="7"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -2354,11 +2360,11 @@
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="60">
+      <c r="F22" s="62">
         <v>45308</v>
       </c>
-      <c r="G22" s="61"/>
-      <c r="H22" s="62"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="64"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
@@ -2384,9 +2390,9 @@
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="67"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -29794,10 +29800,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="67"/>
+      <c r="B1" s="69"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -31247,10 +31253,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="67"/>
+      <c r="B1" s="69"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -32552,10 +32558,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D991"/>
+  <dimension ref="A1:D992"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -32570,10 +32576,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="67"/>
+      <c r="B1" s="69"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -32672,141 +32678,143 @@
       </c>
       <c r="C15" s="27"/>
     </row>
-    <row r="16" spans="1:3" ht="16.5" customHeight="1">
+    <row r="16" spans="1:3" s="49" customFormat="1" ht="16.5" customHeight="1">
       <c r="A16" s="15"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="26"/>
+      <c r="B16" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="27"/>
     </row>
     <row r="17" spans="1:3" ht="16.5" customHeight="1">
       <c r="A17" s="15"/>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="28"/>
+      <c r="C17" s="26"/>
+    </row>
+    <row r="18" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A18" s="15"/>
+      <c r="B18" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="26"/>
-    </row>
-    <row r="18" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A18" s="15"/>
-      <c r="B18" s="68" t="s">
-        <v>108</v>
-      </c>
       <c r="C18" s="26"/>
     </row>
     <row r="19" spans="1:3" ht="16.5" customHeight="1">
       <c r="A19" s="15"/>
-      <c r="B19" s="28" t="s">
-        <v>109</v>
+      <c r="B19" s="50" t="s">
+        <v>108</v>
       </c>
       <c r="C19" s="26"/>
     </row>
     <row r="20" spans="1:3" ht="16.5" customHeight="1">
       <c r="A20" s="15"/>
       <c r="B20" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C20" s="26"/>
     </row>
     <row r="21" spans="1:3" ht="16.5" customHeight="1">
       <c r="A21" s="15"/>
-      <c r="B21" s="40" t="s">
-        <v>111</v>
+      <c r="B21" s="28" t="s">
+        <v>110</v>
       </c>
       <c r="C21" s="26"/>
     </row>
     <row r="22" spans="1:3" ht="16.5" customHeight="1">
       <c r="A22" s="15"/>
       <c r="B22" s="40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C22" s="26"/>
     </row>
     <row r="23" spans="1:3" ht="16.5" customHeight="1">
       <c r="A23" s="15"/>
       <c r="B23" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C23" s="26"/>
     </row>
     <row r="24" spans="1:3" ht="16.5" customHeight="1">
       <c r="A24" s="15"/>
-      <c r="B24" s="28" t="s">
-        <v>114</v>
+      <c r="B24" s="40" t="s">
+        <v>113</v>
       </c>
       <c r="C24" s="26"/>
     </row>
     <row r="25" spans="1:3" ht="16.5" customHeight="1">
       <c r="A25" s="15"/>
       <c r="B25" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C25" s="26"/>
     </row>
     <row r="26" spans="1:3" ht="16.5" customHeight="1">
       <c r="A26" s="15"/>
       <c r="B26" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C26" s="26"/>
     </row>
     <row r="27" spans="1:3" ht="16.5" customHeight="1">
       <c r="A27" s="15"/>
       <c r="B27" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" s="26"/>
+    </row>
+    <row r="28" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A28" s="15"/>
+      <c r="B28" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="C27" s="26"/>
-    </row>
-    <row r="28" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A28" s="15"/>
-      <c r="B28" s="28"/>
       <c r="C28" s="26"/>
     </row>
     <row r="29" spans="1:3" ht="16.5" customHeight="1">
       <c r="A29" s="15"/>
-      <c r="B29" s="28" t="s">
-        <v>118</v>
-      </c>
+      <c r="B29" s="28"/>
       <c r="C29" s="26"/>
     </row>
     <row r="30" spans="1:3" ht="16.5" customHeight="1">
       <c r="A30" s="15"/>
       <c r="B30" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C30" s="26"/>
     </row>
-    <row r="31" spans="1:3" s="48" customFormat="1" ht="16.5" customHeight="1">
+    <row r="31" spans="1:3" ht="16.5" customHeight="1">
       <c r="A31" s="15"/>
       <c r="B31" s="28" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C31" s="26"/>
     </row>
     <row r="32" spans="1:3" s="48" customFormat="1" ht="16.5" customHeight="1">
       <c r="A32" s="15"/>
       <c r="B32" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" s="26"/>
+    </row>
+    <row r="33" spans="1:4" s="48" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A33" s="15"/>
+      <c r="B33" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="C32" s="26"/>
-    </row>
-    <row r="33" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A33" s="15"/>
-      <c r="B33" s="28" t="s">
+      <c r="C33" s="26"/>
+    </row>
+    <row r="34" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A34" s="15"/>
+      <c r="B34" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="C33" s="26"/>
-    </row>
-    <row r="34" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A34" s="15"/>
-      <c r="B34" s="40" t="s">
+      <c r="C34" s="26"/>
+    </row>
+    <row r="35" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A35" s="15"/>
+      <c r="B35" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="C35" s="26" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" s="48" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A35" s="15"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="26"/>
     </row>
     <row r="36" spans="1:4" s="48" customFormat="1" ht="16.5" customHeight="1">
       <c r="A36" s="15"/>
@@ -32815,90 +32823,89 @@
     </row>
     <row r="37" spans="1:4" s="48" customFormat="1" ht="16.5" customHeight="1">
       <c r="A37" s="15"/>
-      <c r="B37" s="40" t="s">
-        <v>123</v>
-      </c>
+      <c r="B37" s="40"/>
       <c r="C37" s="26"/>
     </row>
     <row r="38" spans="1:4" s="48" customFormat="1" ht="16.5" customHeight="1">
       <c r="A38" s="15"/>
       <c r="B38" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" s="26"/>
+    </row>
+    <row r="39" spans="1:4" s="48" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A39" s="15"/>
+      <c r="B39" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="C38" s="26"/>
-    </row>
-    <row r="39" spans="1:4" s="48" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A39" s="15"/>
-      <c r="B39" s="40"/>
       <c r="C39" s="26"/>
     </row>
-    <row r="40" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A40" s="44"/>
-      <c r="B40" s="45"/>
-      <c r="C40" s="46"/>
-    </row>
-    <row r="41" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A41" s="39"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
-    </row>
-    <row r="42" spans="1:4" ht="16.5" customHeight="1" thickBot="1"/>
-    <row r="43" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A43" s="29" t="s">
+    <row r="40" spans="1:4" s="48" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A40" s="15"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="26"/>
+    </row>
+    <row r="41" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A41" s="44"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="46"/>
+    </row>
+    <row r="42" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A42" s="39"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+    </row>
+    <row r="43" spans="1:4" ht="16.5" customHeight="1" thickBot="1"/>
+    <row r="44" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A44" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="23"/>
-    </row>
-    <row r="44" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A44" s="30" t="s">
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="23"/>
+    </row>
+    <row r="45" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A45" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B44" s="31" t="s">
+      <c r="B45" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C44" s="31" t="s">
+      <c r="C45" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="D45" s="14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A45" s="15"/>
-      <c r="B45" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="C45" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="D45" s="18"/>
     </row>
     <row r="46" spans="1:4" ht="16.5" customHeight="1">
       <c r="A46" s="15"/>
       <c r="B46" s="37" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C46" s="37" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="D46" s="18"/>
     </row>
     <row r="47" spans="1:4" ht="16.5" customHeight="1">
       <c r="A47" s="15"/>
       <c r="B47" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" s="18"/>
+    </row>
+    <row r="48" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A48" s="15"/>
+      <c r="B48" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="C47" s="37" t="s">
+      <c r="C48" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="D47" s="18"/>
-    </row>
-    <row r="48" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A48" s="15"/>
-      <c r="B48" s="37"/>
-      <c r="C48" s="37"/>
       <c r="D48" s="18"/>
     </row>
     <row r="49" spans="1:4" ht="16.5" customHeight="1">
@@ -32907,87 +32914,92 @@
       <c r="C49" s="37"/>
       <c r="D49" s="18"/>
     </row>
-    <row r="50" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A50" s="19"/>
-      <c r="B50" s="38"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="33"/>
-    </row>
-    <row r="51" spans="1:4" ht="16.5" customHeight="1"/>
-    <row r="52" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A52" s="34" t="s">
+    <row r="50" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A50" s="15"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="18"/>
+    </row>
+    <row r="51" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A51" s="19"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="33"/>
+    </row>
+    <row r="52" spans="1:4" ht="16.5" customHeight="1"/>
+    <row r="53" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A53" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="B52" s="40" t="s">
+      <c r="B53" s="40" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A53" s="41" t="s">
+    <row r="54" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A54" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="B53" s="41" t="s">
+      <c r="B54" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="C53" s="35"/>
-    </row>
-    <row r="54" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A54" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="B54" s="41"/>
       <c r="C54" s="35"/>
     </row>
     <row r="55" spans="1:4" ht="16.5" customHeight="1">
       <c r="A55" s="41" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B55" s="41"/>
       <c r="C55" s="35"/>
     </row>
     <row r="56" spans="1:4" ht="16.5" customHeight="1">
       <c r="A56" s="41" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B56" s="41"/>
       <c r="C56" s="35"/>
     </row>
     <row r="57" spans="1:4" ht="16.5" customHeight="1">
       <c r="A57" s="41" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B57" s="41"/>
       <c r="C57" s="35"/>
     </row>
     <row r="58" spans="1:4" ht="16.5" customHeight="1">
       <c r="A58" s="41" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B58" s="41"/>
       <c r="C58" s="35"/>
     </row>
-    <row r="63" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A63" s="34" t="s">
+    <row r="59" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A59" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B59" s="41"/>
+      <c r="C59" s="35"/>
+    </row>
+    <row r="64" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A64" s="34" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A64" s="40" t="s">
+    <row r="65" spans="1:1" ht="16.5" customHeight="1">
+      <c r="A65" s="40" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="16.5" customHeight="1">
-      <c r="A65" s="40" t="s">
+    <row r="66" spans="1:1" ht="16.5" customHeight="1">
+      <c r="A66" s="40" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="16.5" customHeight="1">
-      <c r="A66" s="34"/>
-    </row>
     <row r="67" spans="1:1" ht="16.5" customHeight="1">
       <c r="A67" s="34"/>
     </row>
-    <row r="68" spans="1:1" ht="16.5" customHeight="1"/>
+    <row r="68" spans="1:1" ht="16.5" customHeight="1">
+      <c r="A68" s="34"/>
+    </row>
     <row r="69" spans="1:1" ht="16.5" customHeight="1"/>
     <row r="70" spans="1:1" ht="16.5" customHeight="1"/>
     <row r="71" spans="1:1" ht="16.5" customHeight="1"/>
@@ -33911,6 +33923,7 @@
     <row r="989" ht="16.5" customHeight="1"/>
     <row r="990" ht="16.5" customHeight="1"/>
     <row r="991" ht="16.5" customHeight="1"/>
+    <row r="992" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/1.회의록(PJE_REC_A01).xlsx
+++ b/1.회의록(PJE_REC_A01).xlsx
@@ -9,20 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12168" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12168" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="1" r:id="rId1"/>
     <sheet name="17일" sheetId="2" r:id="rId2"/>
     <sheet name="18일" sheetId="8" r:id="rId3"/>
     <sheet name="19일" sheetId="9" r:id="rId4"/>
+    <sheet name="22일" sheetId="10" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="139">
   <si>
     <t>문서번호</t>
   </si>
@@ -518,10 +519,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>이미지를 통한 쓰레기 재활용 가능 여부 구분 서비스</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>01월 19일</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -619,6 +616,54 @@
   </si>
   <si>
     <t>이름 Reuse로 결정</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project Recycle</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>오전 9:30~10:00</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류 유형을 4개로 줄이니 정확도가 90%까지 오름</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 분류 유형에 캔을 넣으니 정확도가 70%로 떨어짐</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>위에 대한 해결 방안으로 학습 시키는 데이터에 무게까지 포함하는 것은 어떤지에 대한 의견을 제시</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지를 넣을 때 무게도 입력하게 해서 특정 무게 이상이면 모두 기타로 넘겨버리기</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>백과 연동하지 않고 프론트로만 출력하는 것은 어떤지</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>우선 무게 포함해서 학습시킨 이후에 정확도를 보고 프론트 적용 여부를 결정하기로</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>사람 사진을 넣었더니 종이로 나옴-잡지류로 판단한 것으로 추측됨</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 입력한 데이터를 DB에 넣어서 강화학습을 시킬지 말지</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴ 한달치 데이터를 모아서 한꺼번에 학습 시키는 것으로 결정</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구사항정의서에 추가하기</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1224,7 +1269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1376,6 +1421,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1749,7 +1797,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1829,10 +1877,10 @@
       <c r="J3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="51" t="s">
+      <c r="K3" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="L3" s="52"/>
+      <c r="L3" s="53"/>
       <c r="M3" s="7"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -2046,19 +2094,19 @@
     </row>
     <row r="11" spans="1:26" ht="21" customHeight="1">
       <c r="A11" s="5"/>
-      <c r="B11" s="53" t="s">
-        <v>102</v>
+      <c r="B11" s="54" t="s">
+        <v>127</v>
       </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="56"/>
       <c r="M11" s="7"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -2076,17 +2124,17 @@
     </row>
     <row r="12" spans="1:26" ht="21" customHeight="1">
       <c r="A12" s="5"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="58"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="59"/>
       <c r="M12" s="7"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -2104,17 +2152,17 @@
     </row>
     <row r="13" spans="1:26" ht="21" customHeight="1">
       <c r="A13" s="5"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="58"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="59"/>
       <c r="M13" s="7"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -2132,17 +2180,17 @@
     </row>
     <row r="14" spans="1:26" ht="21" customHeight="1">
       <c r="A14" s="5"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="58"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="59"/>
       <c r="M14" s="7"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -2160,17 +2208,17 @@
     </row>
     <row r="15" spans="1:26" ht="16.5" customHeight="1">
       <c r="A15" s="5"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="61"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="62"/>
       <c r="M15" s="7"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -2360,11 +2408,11 @@
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="62">
+      <c r="F22" s="63">
         <v>45308</v>
       </c>
-      <c r="G22" s="63"/>
-      <c r="H22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="65"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
@@ -2390,9 +2438,9 @@
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="67"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="68"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -29785,7 +29833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1004"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
@@ -29800,10 +29848,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="69"/>
+      <c r="B1" s="70"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -31253,10 +31301,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="69"/>
+      <c r="B1" s="70"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -32560,7 +32608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D992"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -32576,10 +32624,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="69"/>
+      <c r="B1" s="70"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -32600,7 +32648,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" customHeight="1">
@@ -32660,28 +32708,28 @@
         <v>13</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C13" s="26"/>
     </row>
     <row r="14" spans="1:3" ht="16.5" customHeight="1">
       <c r="A14" s="15"/>
       <c r="B14" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C14" s="26"/>
     </row>
     <row r="15" spans="1:3" ht="16.5" customHeight="1">
       <c r="A15" s="15"/>
       <c r="B15" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C15" s="27"/>
     </row>
     <row r="16" spans="1:3" s="49" customFormat="1" ht="16.5" customHeight="1">
       <c r="A16" s="15"/>
       <c r="B16" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C16" s="27"/>
     </row>
@@ -32693,77 +32741,77 @@
     <row r="18" spans="1:3" ht="16.5" customHeight="1">
       <c r="A18" s="15"/>
       <c r="B18" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C18" s="26"/>
     </row>
     <row r="19" spans="1:3" ht="16.5" customHeight="1">
       <c r="A19" s="15"/>
       <c r="B19" s="50" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C19" s="26"/>
     </row>
     <row r="20" spans="1:3" ht="16.5" customHeight="1">
       <c r="A20" s="15"/>
       <c r="B20" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C20" s="26"/>
     </row>
     <row r="21" spans="1:3" ht="16.5" customHeight="1">
       <c r="A21" s="15"/>
       <c r="B21" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C21" s="26"/>
     </row>
     <row r="22" spans="1:3" ht="16.5" customHeight="1">
       <c r="A22" s="15"/>
       <c r="B22" s="40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C22" s="26"/>
     </row>
     <row r="23" spans="1:3" ht="16.5" customHeight="1">
       <c r="A23" s="15"/>
       <c r="B23" s="40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C23" s="26"/>
     </row>
     <row r="24" spans="1:3" ht="16.5" customHeight="1">
       <c r="A24" s="15"/>
       <c r="B24" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C24" s="26"/>
     </row>
     <row r="25" spans="1:3" ht="16.5" customHeight="1">
       <c r="A25" s="15"/>
       <c r="B25" s="28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C25" s="26"/>
     </row>
     <row r="26" spans="1:3" ht="16.5" customHeight="1">
       <c r="A26" s="15"/>
       <c r="B26" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C26" s="26"/>
     </row>
     <row r="27" spans="1:3" ht="16.5" customHeight="1">
       <c r="A27" s="15"/>
       <c r="B27" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C27" s="26"/>
     </row>
     <row r="28" spans="1:3" ht="16.5" customHeight="1">
       <c r="A28" s="15"/>
       <c r="B28" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C28" s="26"/>
     </row>
@@ -32775,45 +32823,45 @@
     <row r="30" spans="1:3" ht="16.5" customHeight="1">
       <c r="A30" s="15"/>
       <c r="B30" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C30" s="26"/>
     </row>
     <row r="31" spans="1:3" ht="16.5" customHeight="1">
       <c r="A31" s="15"/>
       <c r="B31" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C31" s="26"/>
     </row>
     <row r="32" spans="1:3" s="48" customFormat="1" ht="16.5" customHeight="1">
       <c r="A32" s="15"/>
       <c r="B32" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C32" s="26"/>
     </row>
     <row r="33" spans="1:4" s="48" customFormat="1" ht="16.5" customHeight="1">
       <c r="A33" s="15"/>
       <c r="B33" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C33" s="26"/>
     </row>
     <row r="34" spans="1:4" ht="16.5" customHeight="1">
       <c r="A34" s="15"/>
       <c r="B34" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C34" s="26"/>
     </row>
     <row r="35" spans="1:4" ht="16.5" customHeight="1">
       <c r="A35" s="15"/>
       <c r="B35" s="40" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:4" s="48" customFormat="1" ht="16.5" customHeight="1">
@@ -32829,14 +32877,14 @@
     <row r="38" spans="1:4" s="48" customFormat="1" ht="16.5" customHeight="1">
       <c r="A38" s="15"/>
       <c r="B38" s="40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C38" s="26"/>
     </row>
     <row r="39" spans="1:4" s="48" customFormat="1" ht="16.5" customHeight="1">
       <c r="A39" s="15"/>
       <c r="B39" s="40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C39" s="26"/>
     </row>
@@ -33932,4 +33980,1289 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D979"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="15.109375" style="51" customWidth="1"/>
+    <col min="2" max="2" width="130.109375" style="51" customWidth="1"/>
+    <col min="3" max="3" width="31.109375" style="51" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="51" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" style="51" customWidth="1"/>
+    <col min="6" max="26" width="8.6640625" style="51" customWidth="1"/>
+    <col min="27" max="16384" width="14.44140625" style="51"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A1" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="70"/>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14"/>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A6" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A7" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A8" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="10" spans="1:3" ht="16.5" customHeight="1" thickBot="1"/>
+    <row r="11" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A11" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+    </row>
+    <row r="12" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A12" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A13" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="26"/>
+    </row>
+    <row r="14" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A14" s="15"/>
+      <c r="B14" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="26"/>
+    </row>
+    <row r="15" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A15" s="15"/>
+      <c r="B15" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="26"/>
+    </row>
+    <row r="16" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A16" s="15"/>
+      <c r="B16" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" s="27"/>
+    </row>
+    <row r="17" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A17" s="15"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="27"/>
+    </row>
+    <row r="18" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A18" s="15"/>
+      <c r="B18" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" s="26"/>
+    </row>
+    <row r="19" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A19" s="15"/>
+      <c r="B19" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19" s="26"/>
+    </row>
+    <row r="20" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A20" s="15"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="26"/>
+    </row>
+    <row r="21" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A21" s="15"/>
+      <c r="B21" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" s="26"/>
+    </row>
+    <row r="22" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A22" s="15"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="26"/>
+    </row>
+    <row r="23" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A23" s="15"/>
+      <c r="B23" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="26"/>
+    </row>
+    <row r="24" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A24" s="15"/>
+      <c r="B24" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="C24" s="26"/>
+    </row>
+    <row r="25" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A25" s="15"/>
+      <c r="B25" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" s="26"/>
+    </row>
+    <row r="26" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A26" s="15"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="26"/>
+    </row>
+    <row r="27" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A27" s="15"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="26"/>
+    </row>
+    <row r="28" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A28" s="44"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="46"/>
+    </row>
+    <row r="29" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A29" s="39"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+    </row>
+    <row r="30" spans="1:4" ht="16.5" customHeight="1" thickBot="1"/>
+    <row r="31" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A31" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="23"/>
+    </row>
+    <row r="32" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A32" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A33" s="15"/>
+      <c r="B33" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="18"/>
+    </row>
+    <row r="34" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A34" s="15"/>
+      <c r="B34" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="18"/>
+    </row>
+    <row r="35" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A35" s="15"/>
+      <c r="B35" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="18"/>
+    </row>
+    <row r="36" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A36" s="15"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="18"/>
+    </row>
+    <row r="37" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A37" s="15"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="18"/>
+    </row>
+    <row r="38" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A38" s="19"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="33"/>
+    </row>
+    <row r="39" spans="1:4" ht="16.5" customHeight="1"/>
+    <row r="40" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A40" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A41" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" s="35"/>
+    </row>
+    <row r="42" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A42" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="41"/>
+      <c r="C42" s="35"/>
+    </row>
+    <row r="43" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A43" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="41"/>
+      <c r="C43" s="35"/>
+    </row>
+    <row r="44" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A44" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="41"/>
+      <c r="C44" s="35"/>
+    </row>
+    <row r="45" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A45" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="41"/>
+      <c r="C45" s="35"/>
+    </row>
+    <row r="46" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A46" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" s="41"/>
+      <c r="C46" s="35"/>
+    </row>
+    <row r="51" spans="1:1" ht="16.5" customHeight="1">
+      <c r="A51" s="34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="16.5" customHeight="1">
+      <c r="A52" s="40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="16.5" customHeight="1">
+      <c r="A53" s="40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="16.5" customHeight="1">
+      <c r="A54" s="34"/>
+    </row>
+    <row r="55" spans="1:1" ht="16.5" customHeight="1">
+      <c r="A55" s="34"/>
+    </row>
+    <row r="56" spans="1:1" ht="16.5" customHeight="1"/>
+    <row r="57" spans="1:1" ht="16.5" customHeight="1"/>
+    <row r="58" spans="1:1" ht="16.5" customHeight="1"/>
+    <row r="59" spans="1:1" ht="16.5" customHeight="1"/>
+    <row r="60" spans="1:1" ht="16.5" customHeight="1"/>
+    <row r="61" spans="1:1" ht="16.5" customHeight="1"/>
+    <row r="62" spans="1:1" ht="16.5" customHeight="1"/>
+    <row r="63" spans="1:1" ht="16.5" customHeight="1"/>
+    <row r="64" spans="1:1" ht="16.5" customHeight="1"/>
+    <row r="65" ht="16.5" customHeight="1"/>
+    <row r="66" ht="16.5" customHeight="1"/>
+    <row r="67" ht="16.5" customHeight="1"/>
+    <row r="68" ht="16.5" customHeight="1"/>
+    <row r="69" ht="16.5" customHeight="1"/>
+    <row r="70" ht="16.5" customHeight="1"/>
+    <row r="71" ht="16.5" customHeight="1"/>
+    <row r="72" ht="16.5" customHeight="1"/>
+    <row r="73" ht="16.5" customHeight="1"/>
+    <row r="74" ht="16.5" customHeight="1"/>
+    <row r="75" ht="16.5" customHeight="1"/>
+    <row r="76" ht="16.5" customHeight="1"/>
+    <row r="77" ht="16.5" customHeight="1"/>
+    <row r="78" ht="16.5" customHeight="1"/>
+    <row r="79" ht="16.5" customHeight="1"/>
+    <row r="80" ht="16.5" customHeight="1"/>
+    <row r="81" ht="16.5" customHeight="1"/>
+    <row r="82" ht="16.5" customHeight="1"/>
+    <row r="83" ht="16.5" customHeight="1"/>
+    <row r="84" ht="16.5" customHeight="1"/>
+    <row r="85" ht="16.5" customHeight="1"/>
+    <row r="86" ht="16.5" customHeight="1"/>
+    <row r="87" ht="16.5" customHeight="1"/>
+    <row r="88" ht="16.5" customHeight="1"/>
+    <row r="89" ht="16.5" customHeight="1"/>
+    <row r="90" ht="16.5" customHeight="1"/>
+    <row r="91" ht="16.5" customHeight="1"/>
+    <row r="92" ht="16.5" customHeight="1"/>
+    <row r="93" ht="16.5" customHeight="1"/>
+    <row r="94" ht="16.5" customHeight="1"/>
+    <row r="95" ht="16.5" customHeight="1"/>
+    <row r="96" ht="16.5" customHeight="1"/>
+    <row r="97" ht="16.5" customHeight="1"/>
+    <row r="98" ht="16.5" customHeight="1"/>
+    <row r="99" ht="16.5" customHeight="1"/>
+    <row r="100" ht="16.5" customHeight="1"/>
+    <row r="101" ht="16.5" customHeight="1"/>
+    <row r="102" ht="16.5" customHeight="1"/>
+    <row r="103" ht="16.5" customHeight="1"/>
+    <row r="104" ht="16.5" customHeight="1"/>
+    <row r="105" ht="16.5" customHeight="1"/>
+    <row r="106" ht="16.5" customHeight="1"/>
+    <row r="107" ht="16.5" customHeight="1"/>
+    <row r="108" ht="16.5" customHeight="1"/>
+    <row r="109" ht="16.5" customHeight="1"/>
+    <row r="110" ht="16.5" customHeight="1"/>
+    <row r="111" ht="16.5" customHeight="1"/>
+    <row r="112" ht="16.5" customHeight="1"/>
+    <row r="113" ht="16.5" customHeight="1"/>
+    <row r="114" ht="16.5" customHeight="1"/>
+    <row r="115" ht="16.5" customHeight="1"/>
+    <row r="116" ht="16.5" customHeight="1"/>
+    <row r="117" ht="16.5" customHeight="1"/>
+    <row r="118" ht="16.5" customHeight="1"/>
+    <row r="119" ht="16.5" customHeight="1"/>
+    <row r="120" ht="16.5" customHeight="1"/>
+    <row r="121" ht="16.5" customHeight="1"/>
+    <row r="122" ht="16.5" customHeight="1"/>
+    <row r="123" ht="16.5" customHeight="1"/>
+    <row r="124" ht="16.5" customHeight="1"/>
+    <row r="125" ht="16.5" customHeight="1"/>
+    <row r="126" ht="16.5" customHeight="1"/>
+    <row r="127" ht="16.5" customHeight="1"/>
+    <row r="128" ht="16.5" customHeight="1"/>
+    <row r="129" ht="16.5" customHeight="1"/>
+    <row r="130" ht="16.5" customHeight="1"/>
+    <row r="131" ht="16.5" customHeight="1"/>
+    <row r="132" ht="16.5" customHeight="1"/>
+    <row r="133" ht="16.5" customHeight="1"/>
+    <row r="134" ht="16.5" customHeight="1"/>
+    <row r="135" ht="16.5" customHeight="1"/>
+    <row r="136" ht="16.5" customHeight="1"/>
+    <row r="137" ht="16.5" customHeight="1"/>
+    <row r="138" ht="16.5" customHeight="1"/>
+    <row r="139" ht="16.5" customHeight="1"/>
+    <row r="140" ht="16.5" customHeight="1"/>
+    <row r="141" ht="16.5" customHeight="1"/>
+    <row r="142" ht="16.5" customHeight="1"/>
+    <row r="143" ht="16.5" customHeight="1"/>
+    <row r="144" ht="16.5" customHeight="1"/>
+    <row r="145" ht="16.5" customHeight="1"/>
+    <row r="146" ht="16.5" customHeight="1"/>
+    <row r="147" ht="16.5" customHeight="1"/>
+    <row r="148" ht="16.5" customHeight="1"/>
+    <row r="149" ht="16.5" customHeight="1"/>
+    <row r="150" ht="16.5" customHeight="1"/>
+    <row r="151" ht="16.5" customHeight="1"/>
+    <row r="152" ht="16.5" customHeight="1"/>
+    <row r="153" ht="16.5" customHeight="1"/>
+    <row r="154" ht="16.5" customHeight="1"/>
+    <row r="155" ht="16.5" customHeight="1"/>
+    <row r="156" ht="16.5" customHeight="1"/>
+    <row r="157" ht="16.5" customHeight="1"/>
+    <row r="158" ht="16.5" customHeight="1"/>
+    <row r="159" ht="16.5" customHeight="1"/>
+    <row r="160" ht="16.5" customHeight="1"/>
+    <row r="161" ht="16.5" customHeight="1"/>
+    <row r="162" ht="16.5" customHeight="1"/>
+    <row r="163" ht="16.5" customHeight="1"/>
+    <row r="164" ht="16.5" customHeight="1"/>
+    <row r="165" ht="16.5" customHeight="1"/>
+    <row r="166" ht="16.5" customHeight="1"/>
+    <row r="167" ht="16.5" customHeight="1"/>
+    <row r="168" ht="16.5" customHeight="1"/>
+    <row r="169" ht="16.5" customHeight="1"/>
+    <row r="170" ht="16.5" customHeight="1"/>
+    <row r="171" ht="16.5" customHeight="1"/>
+    <row r="172" ht="16.5" customHeight="1"/>
+    <row r="173" ht="16.5" customHeight="1"/>
+    <row r="174" ht="16.5" customHeight="1"/>
+    <row r="175" ht="16.5" customHeight="1"/>
+    <row r="176" ht="16.5" customHeight="1"/>
+    <row r="177" ht="16.5" customHeight="1"/>
+    <row r="178" ht="16.5" customHeight="1"/>
+    <row r="179" ht="16.5" customHeight="1"/>
+    <row r="180" ht="16.5" customHeight="1"/>
+    <row r="181" ht="16.5" customHeight="1"/>
+    <row r="182" ht="16.5" customHeight="1"/>
+    <row r="183" ht="16.5" customHeight="1"/>
+    <row r="184" ht="16.5" customHeight="1"/>
+    <row r="185" ht="16.5" customHeight="1"/>
+    <row r="186" ht="16.5" customHeight="1"/>
+    <row r="187" ht="16.5" customHeight="1"/>
+    <row r="188" ht="16.5" customHeight="1"/>
+    <row r="189" ht="16.5" customHeight="1"/>
+    <row r="190" ht="16.5" customHeight="1"/>
+    <row r="191" ht="16.5" customHeight="1"/>
+    <row r="192" ht="16.5" customHeight="1"/>
+    <row r="193" ht="16.5" customHeight="1"/>
+    <row r="194" ht="16.5" customHeight="1"/>
+    <row r="195" ht="16.5" customHeight="1"/>
+    <row r="196" ht="16.5" customHeight="1"/>
+    <row r="197" ht="16.5" customHeight="1"/>
+    <row r="198" ht="16.5" customHeight="1"/>
+    <row r="199" ht="16.5" customHeight="1"/>
+    <row r="200" ht="16.5" customHeight="1"/>
+    <row r="201" ht="16.5" customHeight="1"/>
+    <row r="202" ht="16.5" customHeight="1"/>
+    <row r="203" ht="16.5" customHeight="1"/>
+    <row r="204" ht="16.5" customHeight="1"/>
+    <row r="205" ht="16.5" customHeight="1"/>
+    <row r="206" ht="16.5" customHeight="1"/>
+    <row r="207" ht="16.5" customHeight="1"/>
+    <row r="208" ht="16.5" customHeight="1"/>
+    <row r="209" ht="16.5" customHeight="1"/>
+    <row r="210" ht="16.5" customHeight="1"/>
+    <row r="211" ht="16.5" customHeight="1"/>
+    <row r="212" ht="16.5" customHeight="1"/>
+    <row r="213" ht="16.5" customHeight="1"/>
+    <row r="214" ht="16.5" customHeight="1"/>
+    <row r="215" ht="16.5" customHeight="1"/>
+    <row r="216" ht="16.5" customHeight="1"/>
+    <row r="217" ht="16.5" customHeight="1"/>
+    <row r="218" ht="16.5" customHeight="1"/>
+    <row r="219" ht="16.5" customHeight="1"/>
+    <row r="220" ht="16.5" customHeight="1"/>
+    <row r="221" ht="16.5" customHeight="1"/>
+    <row r="222" ht="16.5" customHeight="1"/>
+    <row r="223" ht="16.5" customHeight="1"/>
+    <row r="224" ht="16.5" customHeight="1"/>
+    <row r="225" ht="16.5" customHeight="1"/>
+    <row r="226" ht="16.5" customHeight="1"/>
+    <row r="227" ht="16.5" customHeight="1"/>
+    <row r="228" ht="16.5" customHeight="1"/>
+    <row r="229" ht="16.5" customHeight="1"/>
+    <row r="230" ht="16.5" customHeight="1"/>
+    <row r="231" ht="16.5" customHeight="1"/>
+    <row r="232" ht="16.5" customHeight="1"/>
+    <row r="233" ht="16.5" customHeight="1"/>
+    <row r="234" ht="16.5" customHeight="1"/>
+    <row r="235" ht="16.5" customHeight="1"/>
+    <row r="236" ht="16.5" customHeight="1"/>
+    <row r="237" ht="16.5" customHeight="1"/>
+    <row r="238" ht="16.5" customHeight="1"/>
+    <row r="239" ht="16.5" customHeight="1"/>
+    <row r="240" ht="16.5" customHeight="1"/>
+    <row r="241" ht="16.5" customHeight="1"/>
+    <row r="242" ht="16.5" customHeight="1"/>
+    <row r="243" ht="16.5" customHeight="1"/>
+    <row r="244" ht="16.5" customHeight="1"/>
+    <row r="245" ht="16.5" customHeight="1"/>
+    <row r="246" ht="16.5" customHeight="1"/>
+    <row r="247" ht="16.5" customHeight="1"/>
+    <row r="248" ht="16.5" customHeight="1"/>
+    <row r="249" ht="16.5" customHeight="1"/>
+    <row r="250" ht="16.5" customHeight="1"/>
+    <row r="251" ht="16.5" customHeight="1"/>
+    <row r="252" ht="16.5" customHeight="1"/>
+    <row r="253" ht="16.5" customHeight="1"/>
+    <row r="254" ht="16.5" customHeight="1"/>
+    <row r="255" ht="16.5" customHeight="1"/>
+    <row r="256" ht="16.5" customHeight="1"/>
+    <row r="257" ht="16.5" customHeight="1"/>
+    <row r="258" ht="16.5" customHeight="1"/>
+    <row r="259" ht="16.5" customHeight="1"/>
+    <row r="260" ht="16.5" customHeight="1"/>
+    <row r="261" ht="16.5" customHeight="1"/>
+    <row r="262" ht="16.5" customHeight="1"/>
+    <row r="263" ht="16.5" customHeight="1"/>
+    <row r="264" ht="16.5" customHeight="1"/>
+    <row r="265" ht="16.5" customHeight="1"/>
+    <row r="266" ht="16.5" customHeight="1"/>
+    <row r="267" ht="16.5" customHeight="1"/>
+    <row r="268" ht="16.5" customHeight="1"/>
+    <row r="269" ht="16.5" customHeight="1"/>
+    <row r="270" ht="16.5" customHeight="1"/>
+    <row r="271" ht="16.5" customHeight="1"/>
+    <row r="272" ht="16.5" customHeight="1"/>
+    <row r="273" ht="16.5" customHeight="1"/>
+    <row r="274" ht="16.5" customHeight="1"/>
+    <row r="275" ht="16.5" customHeight="1"/>
+    <row r="276" ht="16.5" customHeight="1"/>
+    <row r="277" ht="16.5" customHeight="1"/>
+    <row r="278" ht="16.5" customHeight="1"/>
+    <row r="279" ht="16.5" customHeight="1"/>
+    <row r="280" ht="16.5" customHeight="1"/>
+    <row r="281" ht="16.5" customHeight="1"/>
+    <row r="282" ht="16.5" customHeight="1"/>
+    <row r="283" ht="16.5" customHeight="1"/>
+    <row r="284" ht="16.5" customHeight="1"/>
+    <row r="285" ht="16.5" customHeight="1"/>
+    <row r="286" ht="16.5" customHeight="1"/>
+    <row r="287" ht="16.5" customHeight="1"/>
+    <row r="288" ht="16.5" customHeight="1"/>
+    <row r="289" ht="16.5" customHeight="1"/>
+    <row r="290" ht="16.5" customHeight="1"/>
+    <row r="291" ht="16.5" customHeight="1"/>
+    <row r="292" ht="16.5" customHeight="1"/>
+    <row r="293" ht="16.5" customHeight="1"/>
+    <row r="294" ht="16.5" customHeight="1"/>
+    <row r="295" ht="16.5" customHeight="1"/>
+    <row r="296" ht="16.5" customHeight="1"/>
+    <row r="297" ht="16.5" customHeight="1"/>
+    <row r="298" ht="16.5" customHeight="1"/>
+    <row r="299" ht="16.5" customHeight="1"/>
+    <row r="300" ht="16.5" customHeight="1"/>
+    <row r="301" ht="16.5" customHeight="1"/>
+    <row r="302" ht="16.5" customHeight="1"/>
+    <row r="303" ht="16.5" customHeight="1"/>
+    <row r="304" ht="16.5" customHeight="1"/>
+    <row r="305" ht="16.5" customHeight="1"/>
+    <row r="306" ht="16.5" customHeight="1"/>
+    <row r="307" ht="16.5" customHeight="1"/>
+    <row r="308" ht="16.5" customHeight="1"/>
+    <row r="309" ht="16.5" customHeight="1"/>
+    <row r="310" ht="16.5" customHeight="1"/>
+    <row r="311" ht="16.5" customHeight="1"/>
+    <row r="312" ht="16.5" customHeight="1"/>
+    <row r="313" ht="16.5" customHeight="1"/>
+    <row r="314" ht="16.5" customHeight="1"/>
+    <row r="315" ht="16.5" customHeight="1"/>
+    <row r="316" ht="16.5" customHeight="1"/>
+    <row r="317" ht="16.5" customHeight="1"/>
+    <row r="318" ht="16.5" customHeight="1"/>
+    <row r="319" ht="16.5" customHeight="1"/>
+    <row r="320" ht="16.5" customHeight="1"/>
+    <row r="321" ht="16.5" customHeight="1"/>
+    <row r="322" ht="16.5" customHeight="1"/>
+    <row r="323" ht="16.5" customHeight="1"/>
+    <row r="324" ht="16.5" customHeight="1"/>
+    <row r="325" ht="16.5" customHeight="1"/>
+    <row r="326" ht="16.5" customHeight="1"/>
+    <row r="327" ht="16.5" customHeight="1"/>
+    <row r="328" ht="16.5" customHeight="1"/>
+    <row r="329" ht="16.5" customHeight="1"/>
+    <row r="330" ht="16.5" customHeight="1"/>
+    <row r="331" ht="16.5" customHeight="1"/>
+    <row r="332" ht="16.5" customHeight="1"/>
+    <row r="333" ht="16.5" customHeight="1"/>
+    <row r="334" ht="16.5" customHeight="1"/>
+    <row r="335" ht="16.5" customHeight="1"/>
+    <row r="336" ht="16.5" customHeight="1"/>
+    <row r="337" ht="16.5" customHeight="1"/>
+    <row r="338" ht="16.5" customHeight="1"/>
+    <row r="339" ht="16.5" customHeight="1"/>
+    <row r="340" ht="16.5" customHeight="1"/>
+    <row r="341" ht="16.5" customHeight="1"/>
+    <row r="342" ht="16.5" customHeight="1"/>
+    <row r="343" ht="16.5" customHeight="1"/>
+    <row r="344" ht="16.5" customHeight="1"/>
+    <row r="345" ht="16.5" customHeight="1"/>
+    <row r="346" ht="16.5" customHeight="1"/>
+    <row r="347" ht="16.5" customHeight="1"/>
+    <row r="348" ht="16.5" customHeight="1"/>
+    <row r="349" ht="16.5" customHeight="1"/>
+    <row r="350" ht="16.5" customHeight="1"/>
+    <row r="351" ht="16.5" customHeight="1"/>
+    <row r="352" ht="16.5" customHeight="1"/>
+    <row r="353" ht="16.5" customHeight="1"/>
+    <row r="354" ht="16.5" customHeight="1"/>
+    <row r="355" ht="16.5" customHeight="1"/>
+    <row r="356" ht="16.5" customHeight="1"/>
+    <row r="357" ht="16.5" customHeight="1"/>
+    <row r="358" ht="16.5" customHeight="1"/>
+    <row r="359" ht="16.5" customHeight="1"/>
+    <row r="360" ht="16.5" customHeight="1"/>
+    <row r="361" ht="16.5" customHeight="1"/>
+    <row r="362" ht="16.5" customHeight="1"/>
+    <row r="363" ht="16.5" customHeight="1"/>
+    <row r="364" ht="16.5" customHeight="1"/>
+    <row r="365" ht="16.5" customHeight="1"/>
+    <row r="366" ht="16.5" customHeight="1"/>
+    <row r="367" ht="16.5" customHeight="1"/>
+    <row r="368" ht="16.5" customHeight="1"/>
+    <row r="369" ht="16.5" customHeight="1"/>
+    <row r="370" ht="16.5" customHeight="1"/>
+    <row r="371" ht="16.5" customHeight="1"/>
+    <row r="372" ht="16.5" customHeight="1"/>
+    <row r="373" ht="16.5" customHeight="1"/>
+    <row r="374" ht="16.5" customHeight="1"/>
+    <row r="375" ht="16.5" customHeight="1"/>
+    <row r="376" ht="16.5" customHeight="1"/>
+    <row r="377" ht="16.5" customHeight="1"/>
+    <row r="378" ht="16.5" customHeight="1"/>
+    <row r="379" ht="16.5" customHeight="1"/>
+    <row r="380" ht="16.5" customHeight="1"/>
+    <row r="381" ht="16.5" customHeight="1"/>
+    <row r="382" ht="16.5" customHeight="1"/>
+    <row r="383" ht="16.5" customHeight="1"/>
+    <row r="384" ht="16.5" customHeight="1"/>
+    <row r="385" ht="16.5" customHeight="1"/>
+    <row r="386" ht="16.5" customHeight="1"/>
+    <row r="387" ht="16.5" customHeight="1"/>
+    <row r="388" ht="16.5" customHeight="1"/>
+    <row r="389" ht="16.5" customHeight="1"/>
+    <row r="390" ht="16.5" customHeight="1"/>
+    <row r="391" ht="16.5" customHeight="1"/>
+    <row r="392" ht="16.5" customHeight="1"/>
+    <row r="393" ht="16.5" customHeight="1"/>
+    <row r="394" ht="16.5" customHeight="1"/>
+    <row r="395" ht="16.5" customHeight="1"/>
+    <row r="396" ht="16.5" customHeight="1"/>
+    <row r="397" ht="16.5" customHeight="1"/>
+    <row r="398" ht="16.5" customHeight="1"/>
+    <row r="399" ht="16.5" customHeight="1"/>
+    <row r="400" ht="16.5" customHeight="1"/>
+    <row r="401" ht="16.5" customHeight="1"/>
+    <row r="402" ht="16.5" customHeight="1"/>
+    <row r="403" ht="16.5" customHeight="1"/>
+    <row r="404" ht="16.5" customHeight="1"/>
+    <row r="405" ht="16.5" customHeight="1"/>
+    <row r="406" ht="16.5" customHeight="1"/>
+    <row r="407" ht="16.5" customHeight="1"/>
+    <row r="408" ht="16.5" customHeight="1"/>
+    <row r="409" ht="16.5" customHeight="1"/>
+    <row r="410" ht="16.5" customHeight="1"/>
+    <row r="411" ht="16.5" customHeight="1"/>
+    <row r="412" ht="16.5" customHeight="1"/>
+    <row r="413" ht="16.5" customHeight="1"/>
+    <row r="414" ht="16.5" customHeight="1"/>
+    <row r="415" ht="16.5" customHeight="1"/>
+    <row r="416" ht="16.5" customHeight="1"/>
+    <row r="417" ht="16.5" customHeight="1"/>
+    <row r="418" ht="16.5" customHeight="1"/>
+    <row r="419" ht="16.5" customHeight="1"/>
+    <row r="420" ht="16.5" customHeight="1"/>
+    <row r="421" ht="16.5" customHeight="1"/>
+    <row r="422" ht="16.5" customHeight="1"/>
+    <row r="423" ht="16.5" customHeight="1"/>
+    <row r="424" ht="16.5" customHeight="1"/>
+    <row r="425" ht="16.5" customHeight="1"/>
+    <row r="426" ht="16.5" customHeight="1"/>
+    <row r="427" ht="16.5" customHeight="1"/>
+    <row r="428" ht="16.5" customHeight="1"/>
+    <row r="429" ht="16.5" customHeight="1"/>
+    <row r="430" ht="16.5" customHeight="1"/>
+    <row r="431" ht="16.5" customHeight="1"/>
+    <row r="432" ht="16.5" customHeight="1"/>
+    <row r="433" ht="16.5" customHeight="1"/>
+    <row r="434" ht="16.5" customHeight="1"/>
+    <row r="435" ht="16.5" customHeight="1"/>
+    <row r="436" ht="16.5" customHeight="1"/>
+    <row r="437" ht="16.5" customHeight="1"/>
+    <row r="438" ht="16.5" customHeight="1"/>
+    <row r="439" ht="16.5" customHeight="1"/>
+    <row r="440" ht="16.5" customHeight="1"/>
+    <row r="441" ht="16.5" customHeight="1"/>
+    <row r="442" ht="16.5" customHeight="1"/>
+    <row r="443" ht="16.5" customHeight="1"/>
+    <row r="444" ht="16.5" customHeight="1"/>
+    <row r="445" ht="16.5" customHeight="1"/>
+    <row r="446" ht="16.5" customHeight="1"/>
+    <row r="447" ht="16.5" customHeight="1"/>
+    <row r="448" ht="16.5" customHeight="1"/>
+    <row r="449" ht="16.5" customHeight="1"/>
+    <row r="450" ht="16.5" customHeight="1"/>
+    <row r="451" ht="16.5" customHeight="1"/>
+    <row r="452" ht="16.5" customHeight="1"/>
+    <row r="453" ht="16.5" customHeight="1"/>
+    <row r="454" ht="16.5" customHeight="1"/>
+    <row r="455" ht="16.5" customHeight="1"/>
+    <row r="456" ht="16.5" customHeight="1"/>
+    <row r="457" ht="16.5" customHeight="1"/>
+    <row r="458" ht="16.5" customHeight="1"/>
+    <row r="459" ht="16.5" customHeight="1"/>
+    <row r="460" ht="16.5" customHeight="1"/>
+    <row r="461" ht="16.5" customHeight="1"/>
+    <row r="462" ht="16.5" customHeight="1"/>
+    <row r="463" ht="16.5" customHeight="1"/>
+    <row r="464" ht="16.5" customHeight="1"/>
+    <row r="465" ht="16.5" customHeight="1"/>
+    <row r="466" ht="16.5" customHeight="1"/>
+    <row r="467" ht="16.5" customHeight="1"/>
+    <row r="468" ht="16.5" customHeight="1"/>
+    <row r="469" ht="16.5" customHeight="1"/>
+    <row r="470" ht="16.5" customHeight="1"/>
+    <row r="471" ht="16.5" customHeight="1"/>
+    <row r="472" ht="16.5" customHeight="1"/>
+    <row r="473" ht="16.5" customHeight="1"/>
+    <row r="474" ht="16.5" customHeight="1"/>
+    <row r="475" ht="16.5" customHeight="1"/>
+    <row r="476" ht="16.5" customHeight="1"/>
+    <row r="477" ht="16.5" customHeight="1"/>
+    <row r="478" ht="16.5" customHeight="1"/>
+    <row r="479" ht="16.5" customHeight="1"/>
+    <row r="480" ht="16.5" customHeight="1"/>
+    <row r="481" ht="16.5" customHeight="1"/>
+    <row r="482" ht="16.5" customHeight="1"/>
+    <row r="483" ht="16.5" customHeight="1"/>
+    <row r="484" ht="16.5" customHeight="1"/>
+    <row r="485" ht="16.5" customHeight="1"/>
+    <row r="486" ht="16.5" customHeight="1"/>
+    <row r="487" ht="16.5" customHeight="1"/>
+    <row r="488" ht="16.5" customHeight="1"/>
+    <row r="489" ht="16.5" customHeight="1"/>
+    <row r="490" ht="16.5" customHeight="1"/>
+    <row r="491" ht="16.5" customHeight="1"/>
+    <row r="492" ht="16.5" customHeight="1"/>
+    <row r="493" ht="16.5" customHeight="1"/>
+    <row r="494" ht="16.5" customHeight="1"/>
+    <row r="495" ht="16.5" customHeight="1"/>
+    <row r="496" ht="16.5" customHeight="1"/>
+    <row r="497" ht="16.5" customHeight="1"/>
+    <row r="498" ht="16.5" customHeight="1"/>
+    <row r="499" ht="16.5" customHeight="1"/>
+    <row r="500" ht="16.5" customHeight="1"/>
+    <row r="501" ht="16.5" customHeight="1"/>
+    <row r="502" ht="16.5" customHeight="1"/>
+    <row r="503" ht="16.5" customHeight="1"/>
+    <row r="504" ht="16.5" customHeight="1"/>
+    <row r="505" ht="16.5" customHeight="1"/>
+    <row r="506" ht="16.5" customHeight="1"/>
+    <row r="507" ht="16.5" customHeight="1"/>
+    <row r="508" ht="16.5" customHeight="1"/>
+    <row r="509" ht="16.5" customHeight="1"/>
+    <row r="510" ht="16.5" customHeight="1"/>
+    <row r="511" ht="16.5" customHeight="1"/>
+    <row r="512" ht="16.5" customHeight="1"/>
+    <row r="513" ht="16.5" customHeight="1"/>
+    <row r="514" ht="16.5" customHeight="1"/>
+    <row r="515" ht="16.5" customHeight="1"/>
+    <row r="516" ht="16.5" customHeight="1"/>
+    <row r="517" ht="16.5" customHeight="1"/>
+    <row r="518" ht="16.5" customHeight="1"/>
+    <row r="519" ht="16.5" customHeight="1"/>
+    <row r="520" ht="16.5" customHeight="1"/>
+    <row r="521" ht="16.5" customHeight="1"/>
+    <row r="522" ht="16.5" customHeight="1"/>
+    <row r="523" ht="16.5" customHeight="1"/>
+    <row r="524" ht="16.5" customHeight="1"/>
+    <row r="525" ht="16.5" customHeight="1"/>
+    <row r="526" ht="16.5" customHeight="1"/>
+    <row r="527" ht="16.5" customHeight="1"/>
+    <row r="528" ht="16.5" customHeight="1"/>
+    <row r="529" ht="16.5" customHeight="1"/>
+    <row r="530" ht="16.5" customHeight="1"/>
+    <row r="531" ht="16.5" customHeight="1"/>
+    <row r="532" ht="16.5" customHeight="1"/>
+    <row r="533" ht="16.5" customHeight="1"/>
+    <row r="534" ht="16.5" customHeight="1"/>
+    <row r="535" ht="16.5" customHeight="1"/>
+    <row r="536" ht="16.5" customHeight="1"/>
+    <row r="537" ht="16.5" customHeight="1"/>
+    <row r="538" ht="16.5" customHeight="1"/>
+    <row r="539" ht="16.5" customHeight="1"/>
+    <row r="540" ht="16.5" customHeight="1"/>
+    <row r="541" ht="16.5" customHeight="1"/>
+    <row r="542" ht="16.5" customHeight="1"/>
+    <row r="543" ht="16.5" customHeight="1"/>
+    <row r="544" ht="16.5" customHeight="1"/>
+    <row r="545" ht="16.5" customHeight="1"/>
+    <row r="546" ht="16.5" customHeight="1"/>
+    <row r="547" ht="16.5" customHeight="1"/>
+    <row r="548" ht="16.5" customHeight="1"/>
+    <row r="549" ht="16.5" customHeight="1"/>
+    <row r="550" ht="16.5" customHeight="1"/>
+    <row r="551" ht="16.5" customHeight="1"/>
+    <row r="552" ht="16.5" customHeight="1"/>
+    <row r="553" ht="16.5" customHeight="1"/>
+    <row r="554" ht="16.5" customHeight="1"/>
+    <row r="555" ht="16.5" customHeight="1"/>
+    <row r="556" ht="16.5" customHeight="1"/>
+    <row r="557" ht="16.5" customHeight="1"/>
+    <row r="558" ht="16.5" customHeight="1"/>
+    <row r="559" ht="16.5" customHeight="1"/>
+    <row r="560" ht="16.5" customHeight="1"/>
+    <row r="561" ht="16.5" customHeight="1"/>
+    <row r="562" ht="16.5" customHeight="1"/>
+    <row r="563" ht="16.5" customHeight="1"/>
+    <row r="564" ht="16.5" customHeight="1"/>
+    <row r="565" ht="16.5" customHeight="1"/>
+    <row r="566" ht="16.5" customHeight="1"/>
+    <row r="567" ht="16.5" customHeight="1"/>
+    <row r="568" ht="16.5" customHeight="1"/>
+    <row r="569" ht="16.5" customHeight="1"/>
+    <row r="570" ht="16.5" customHeight="1"/>
+    <row r="571" ht="16.5" customHeight="1"/>
+    <row r="572" ht="16.5" customHeight="1"/>
+    <row r="573" ht="16.5" customHeight="1"/>
+    <row r="574" ht="16.5" customHeight="1"/>
+    <row r="575" ht="16.5" customHeight="1"/>
+    <row r="576" ht="16.5" customHeight="1"/>
+    <row r="577" ht="16.5" customHeight="1"/>
+    <row r="578" ht="16.5" customHeight="1"/>
+    <row r="579" ht="16.5" customHeight="1"/>
+    <row r="580" ht="16.5" customHeight="1"/>
+    <row r="581" ht="16.5" customHeight="1"/>
+    <row r="582" ht="16.5" customHeight="1"/>
+    <row r="583" ht="16.5" customHeight="1"/>
+    <row r="584" ht="16.5" customHeight="1"/>
+    <row r="585" ht="16.5" customHeight="1"/>
+    <row r="586" ht="16.5" customHeight="1"/>
+    <row r="587" ht="16.5" customHeight="1"/>
+    <row r="588" ht="16.5" customHeight="1"/>
+    <row r="589" ht="16.5" customHeight="1"/>
+    <row r="590" ht="16.5" customHeight="1"/>
+    <row r="591" ht="16.5" customHeight="1"/>
+    <row r="592" ht="16.5" customHeight="1"/>
+    <row r="593" ht="16.5" customHeight="1"/>
+    <row r="594" ht="16.5" customHeight="1"/>
+    <row r="595" ht="16.5" customHeight="1"/>
+    <row r="596" ht="16.5" customHeight="1"/>
+    <row r="597" ht="16.5" customHeight="1"/>
+    <row r="598" ht="16.5" customHeight="1"/>
+    <row r="599" ht="16.5" customHeight="1"/>
+    <row r="600" ht="16.5" customHeight="1"/>
+    <row r="601" ht="16.5" customHeight="1"/>
+    <row r="602" ht="16.5" customHeight="1"/>
+    <row r="603" ht="16.5" customHeight="1"/>
+    <row r="604" ht="16.5" customHeight="1"/>
+    <row r="605" ht="16.5" customHeight="1"/>
+    <row r="606" ht="16.5" customHeight="1"/>
+    <row r="607" ht="16.5" customHeight="1"/>
+    <row r="608" ht="16.5" customHeight="1"/>
+    <row r="609" ht="16.5" customHeight="1"/>
+    <row r="610" ht="16.5" customHeight="1"/>
+    <row r="611" ht="16.5" customHeight="1"/>
+    <row r="612" ht="16.5" customHeight="1"/>
+    <row r="613" ht="16.5" customHeight="1"/>
+    <row r="614" ht="16.5" customHeight="1"/>
+    <row r="615" ht="16.5" customHeight="1"/>
+    <row r="616" ht="16.5" customHeight="1"/>
+    <row r="617" ht="16.5" customHeight="1"/>
+    <row r="618" ht="16.5" customHeight="1"/>
+    <row r="619" ht="16.5" customHeight="1"/>
+    <row r="620" ht="16.5" customHeight="1"/>
+    <row r="621" ht="16.5" customHeight="1"/>
+    <row r="622" ht="16.5" customHeight="1"/>
+    <row r="623" ht="16.5" customHeight="1"/>
+    <row r="624" ht="16.5" customHeight="1"/>
+    <row r="625" ht="16.5" customHeight="1"/>
+    <row r="626" ht="16.5" customHeight="1"/>
+    <row r="627" ht="16.5" customHeight="1"/>
+    <row r="628" ht="16.5" customHeight="1"/>
+    <row r="629" ht="16.5" customHeight="1"/>
+    <row r="630" ht="16.5" customHeight="1"/>
+    <row r="631" ht="16.5" customHeight="1"/>
+    <row r="632" ht="16.5" customHeight="1"/>
+    <row r="633" ht="16.5" customHeight="1"/>
+    <row r="634" ht="16.5" customHeight="1"/>
+    <row r="635" ht="16.5" customHeight="1"/>
+    <row r="636" ht="16.5" customHeight="1"/>
+    <row r="637" ht="16.5" customHeight="1"/>
+    <row r="638" ht="16.5" customHeight="1"/>
+    <row r="639" ht="16.5" customHeight="1"/>
+    <row r="640" ht="16.5" customHeight="1"/>
+    <row r="641" ht="16.5" customHeight="1"/>
+    <row r="642" ht="16.5" customHeight="1"/>
+    <row r="643" ht="16.5" customHeight="1"/>
+    <row r="644" ht="16.5" customHeight="1"/>
+    <row r="645" ht="16.5" customHeight="1"/>
+    <row r="646" ht="16.5" customHeight="1"/>
+    <row r="647" ht="16.5" customHeight="1"/>
+    <row r="648" ht="16.5" customHeight="1"/>
+    <row r="649" ht="16.5" customHeight="1"/>
+    <row r="650" ht="16.5" customHeight="1"/>
+    <row r="651" ht="16.5" customHeight="1"/>
+    <row r="652" ht="16.5" customHeight="1"/>
+    <row r="653" ht="16.5" customHeight="1"/>
+    <row r="654" ht="16.5" customHeight="1"/>
+    <row r="655" ht="16.5" customHeight="1"/>
+    <row r="656" ht="16.5" customHeight="1"/>
+    <row r="657" ht="16.5" customHeight="1"/>
+    <row r="658" ht="16.5" customHeight="1"/>
+    <row r="659" ht="16.5" customHeight="1"/>
+    <row r="660" ht="16.5" customHeight="1"/>
+    <row r="661" ht="16.5" customHeight="1"/>
+    <row r="662" ht="16.5" customHeight="1"/>
+    <row r="663" ht="16.5" customHeight="1"/>
+    <row r="664" ht="16.5" customHeight="1"/>
+    <row r="665" ht="16.5" customHeight="1"/>
+    <row r="666" ht="16.5" customHeight="1"/>
+    <row r="667" ht="16.5" customHeight="1"/>
+    <row r="668" ht="16.5" customHeight="1"/>
+    <row r="669" ht="16.5" customHeight="1"/>
+    <row r="670" ht="16.5" customHeight="1"/>
+    <row r="671" ht="16.5" customHeight="1"/>
+    <row r="672" ht="16.5" customHeight="1"/>
+    <row r="673" ht="16.5" customHeight="1"/>
+    <row r="674" ht="16.5" customHeight="1"/>
+    <row r="675" ht="16.5" customHeight="1"/>
+    <row r="676" ht="16.5" customHeight="1"/>
+    <row r="677" ht="16.5" customHeight="1"/>
+    <row r="678" ht="16.5" customHeight="1"/>
+    <row r="679" ht="16.5" customHeight="1"/>
+    <row r="680" ht="16.5" customHeight="1"/>
+    <row r="681" ht="16.5" customHeight="1"/>
+    <row r="682" ht="16.5" customHeight="1"/>
+    <row r="683" ht="16.5" customHeight="1"/>
+    <row r="684" ht="16.5" customHeight="1"/>
+    <row r="685" ht="16.5" customHeight="1"/>
+    <row r="686" ht="16.5" customHeight="1"/>
+    <row r="687" ht="16.5" customHeight="1"/>
+    <row r="688" ht="16.5" customHeight="1"/>
+    <row r="689" ht="16.5" customHeight="1"/>
+    <row r="690" ht="16.5" customHeight="1"/>
+    <row r="691" ht="16.5" customHeight="1"/>
+    <row r="692" ht="16.5" customHeight="1"/>
+    <row r="693" ht="16.5" customHeight="1"/>
+    <row r="694" ht="16.5" customHeight="1"/>
+    <row r="695" ht="16.5" customHeight="1"/>
+    <row r="696" ht="16.5" customHeight="1"/>
+    <row r="697" ht="16.5" customHeight="1"/>
+    <row r="698" ht="16.5" customHeight="1"/>
+    <row r="699" ht="16.5" customHeight="1"/>
+    <row r="700" ht="16.5" customHeight="1"/>
+    <row r="701" ht="16.5" customHeight="1"/>
+    <row r="702" ht="16.5" customHeight="1"/>
+    <row r="703" ht="16.5" customHeight="1"/>
+    <row r="704" ht="16.5" customHeight="1"/>
+    <row r="705" ht="16.5" customHeight="1"/>
+    <row r="706" ht="16.5" customHeight="1"/>
+    <row r="707" ht="16.5" customHeight="1"/>
+    <row r="708" ht="16.5" customHeight="1"/>
+    <row r="709" ht="16.5" customHeight="1"/>
+    <row r="710" ht="16.5" customHeight="1"/>
+    <row r="711" ht="16.5" customHeight="1"/>
+    <row r="712" ht="16.5" customHeight="1"/>
+    <row r="713" ht="16.5" customHeight="1"/>
+    <row r="714" ht="16.5" customHeight="1"/>
+    <row r="715" ht="16.5" customHeight="1"/>
+    <row r="716" ht="16.5" customHeight="1"/>
+    <row r="717" ht="16.5" customHeight="1"/>
+    <row r="718" ht="16.5" customHeight="1"/>
+    <row r="719" ht="16.5" customHeight="1"/>
+    <row r="720" ht="16.5" customHeight="1"/>
+    <row r="721" ht="16.5" customHeight="1"/>
+    <row r="722" ht="16.5" customHeight="1"/>
+    <row r="723" ht="16.5" customHeight="1"/>
+    <row r="724" ht="16.5" customHeight="1"/>
+    <row r="725" ht="16.5" customHeight="1"/>
+    <row r="726" ht="16.5" customHeight="1"/>
+    <row r="727" ht="16.5" customHeight="1"/>
+    <row r="728" ht="16.5" customHeight="1"/>
+    <row r="729" ht="16.5" customHeight="1"/>
+    <row r="730" ht="16.5" customHeight="1"/>
+    <row r="731" ht="16.5" customHeight="1"/>
+    <row r="732" ht="16.5" customHeight="1"/>
+    <row r="733" ht="16.5" customHeight="1"/>
+    <row r="734" ht="16.5" customHeight="1"/>
+    <row r="735" ht="16.5" customHeight="1"/>
+    <row r="736" ht="16.5" customHeight="1"/>
+    <row r="737" ht="16.5" customHeight="1"/>
+    <row r="738" ht="16.5" customHeight="1"/>
+    <row r="739" ht="16.5" customHeight="1"/>
+    <row r="740" ht="16.5" customHeight="1"/>
+    <row r="741" ht="16.5" customHeight="1"/>
+    <row r="742" ht="16.5" customHeight="1"/>
+    <row r="743" ht="16.5" customHeight="1"/>
+    <row r="744" ht="16.5" customHeight="1"/>
+    <row r="745" ht="16.5" customHeight="1"/>
+    <row r="746" ht="16.5" customHeight="1"/>
+    <row r="747" ht="16.5" customHeight="1"/>
+    <row r="748" ht="16.5" customHeight="1"/>
+    <row r="749" ht="16.5" customHeight="1"/>
+    <row r="750" ht="16.5" customHeight="1"/>
+    <row r="751" ht="16.5" customHeight="1"/>
+    <row r="752" ht="16.5" customHeight="1"/>
+    <row r="753" ht="16.5" customHeight="1"/>
+    <row r="754" ht="16.5" customHeight="1"/>
+    <row r="755" ht="16.5" customHeight="1"/>
+    <row r="756" ht="16.5" customHeight="1"/>
+    <row r="757" ht="16.5" customHeight="1"/>
+    <row r="758" ht="16.5" customHeight="1"/>
+    <row r="759" ht="16.5" customHeight="1"/>
+    <row r="760" ht="16.5" customHeight="1"/>
+    <row r="761" ht="16.5" customHeight="1"/>
+    <row r="762" ht="16.5" customHeight="1"/>
+    <row r="763" ht="16.5" customHeight="1"/>
+    <row r="764" ht="16.5" customHeight="1"/>
+    <row r="765" ht="16.5" customHeight="1"/>
+    <row r="766" ht="16.5" customHeight="1"/>
+    <row r="767" ht="16.5" customHeight="1"/>
+    <row r="768" ht="16.5" customHeight="1"/>
+    <row r="769" ht="16.5" customHeight="1"/>
+    <row r="770" ht="16.5" customHeight="1"/>
+    <row r="771" ht="16.5" customHeight="1"/>
+    <row r="772" ht="16.5" customHeight="1"/>
+    <row r="773" ht="16.5" customHeight="1"/>
+    <row r="774" ht="16.5" customHeight="1"/>
+    <row r="775" ht="16.5" customHeight="1"/>
+    <row r="776" ht="16.5" customHeight="1"/>
+    <row r="777" ht="16.5" customHeight="1"/>
+    <row r="778" ht="16.5" customHeight="1"/>
+    <row r="779" ht="16.5" customHeight="1"/>
+    <row r="780" ht="16.5" customHeight="1"/>
+    <row r="781" ht="16.5" customHeight="1"/>
+    <row r="782" ht="16.5" customHeight="1"/>
+    <row r="783" ht="16.5" customHeight="1"/>
+    <row r="784" ht="16.5" customHeight="1"/>
+    <row r="785" ht="16.5" customHeight="1"/>
+    <row r="786" ht="16.5" customHeight="1"/>
+    <row r="787" ht="16.5" customHeight="1"/>
+    <row r="788" ht="16.5" customHeight="1"/>
+    <row r="789" ht="16.5" customHeight="1"/>
+    <row r="790" ht="16.5" customHeight="1"/>
+    <row r="791" ht="16.5" customHeight="1"/>
+    <row r="792" ht="16.5" customHeight="1"/>
+    <row r="793" ht="16.5" customHeight="1"/>
+    <row r="794" ht="16.5" customHeight="1"/>
+    <row r="795" ht="16.5" customHeight="1"/>
+    <row r="796" ht="16.5" customHeight="1"/>
+    <row r="797" ht="16.5" customHeight="1"/>
+    <row r="798" ht="16.5" customHeight="1"/>
+    <row r="799" ht="16.5" customHeight="1"/>
+    <row r="800" ht="16.5" customHeight="1"/>
+    <row r="801" ht="16.5" customHeight="1"/>
+    <row r="802" ht="16.5" customHeight="1"/>
+    <row r="803" ht="16.5" customHeight="1"/>
+    <row r="804" ht="16.5" customHeight="1"/>
+    <row r="805" ht="16.5" customHeight="1"/>
+    <row r="806" ht="16.5" customHeight="1"/>
+    <row r="807" ht="16.5" customHeight="1"/>
+    <row r="808" ht="16.5" customHeight="1"/>
+    <row r="809" ht="16.5" customHeight="1"/>
+    <row r="810" ht="16.5" customHeight="1"/>
+    <row r="811" ht="16.5" customHeight="1"/>
+    <row r="812" ht="16.5" customHeight="1"/>
+    <row r="813" ht="16.5" customHeight="1"/>
+    <row r="814" ht="16.5" customHeight="1"/>
+    <row r="815" ht="16.5" customHeight="1"/>
+    <row r="816" ht="16.5" customHeight="1"/>
+    <row r="817" ht="16.5" customHeight="1"/>
+    <row r="818" ht="16.5" customHeight="1"/>
+    <row r="819" ht="16.5" customHeight="1"/>
+    <row r="820" ht="16.5" customHeight="1"/>
+    <row r="821" ht="16.5" customHeight="1"/>
+    <row r="822" ht="16.5" customHeight="1"/>
+    <row r="823" ht="16.5" customHeight="1"/>
+    <row r="824" ht="16.5" customHeight="1"/>
+    <row r="825" ht="16.5" customHeight="1"/>
+    <row r="826" ht="16.5" customHeight="1"/>
+    <row r="827" ht="16.5" customHeight="1"/>
+    <row r="828" ht="16.5" customHeight="1"/>
+    <row r="829" ht="16.5" customHeight="1"/>
+    <row r="830" ht="16.5" customHeight="1"/>
+    <row r="831" ht="16.5" customHeight="1"/>
+    <row r="832" ht="16.5" customHeight="1"/>
+    <row r="833" ht="16.5" customHeight="1"/>
+    <row r="834" ht="16.5" customHeight="1"/>
+    <row r="835" ht="16.5" customHeight="1"/>
+    <row r="836" ht="16.5" customHeight="1"/>
+    <row r="837" ht="16.5" customHeight="1"/>
+    <row r="838" ht="16.5" customHeight="1"/>
+    <row r="839" ht="16.5" customHeight="1"/>
+    <row r="840" ht="16.5" customHeight="1"/>
+    <row r="841" ht="16.5" customHeight="1"/>
+    <row r="842" ht="16.5" customHeight="1"/>
+    <row r="843" ht="16.5" customHeight="1"/>
+    <row r="844" ht="16.5" customHeight="1"/>
+    <row r="845" ht="16.5" customHeight="1"/>
+    <row r="846" ht="16.5" customHeight="1"/>
+    <row r="847" ht="16.5" customHeight="1"/>
+    <row r="848" ht="16.5" customHeight="1"/>
+    <row r="849" ht="16.5" customHeight="1"/>
+    <row r="850" ht="16.5" customHeight="1"/>
+    <row r="851" ht="16.5" customHeight="1"/>
+    <row r="852" ht="16.5" customHeight="1"/>
+    <row r="853" ht="16.5" customHeight="1"/>
+    <row r="854" ht="16.5" customHeight="1"/>
+    <row r="855" ht="16.5" customHeight="1"/>
+    <row r="856" ht="16.5" customHeight="1"/>
+    <row r="857" ht="16.5" customHeight="1"/>
+    <row r="858" ht="16.5" customHeight="1"/>
+    <row r="859" ht="16.5" customHeight="1"/>
+    <row r="860" ht="16.5" customHeight="1"/>
+    <row r="861" ht="16.5" customHeight="1"/>
+    <row r="862" ht="16.5" customHeight="1"/>
+    <row r="863" ht="16.5" customHeight="1"/>
+    <row r="864" ht="16.5" customHeight="1"/>
+    <row r="865" ht="16.5" customHeight="1"/>
+    <row r="866" ht="16.5" customHeight="1"/>
+    <row r="867" ht="16.5" customHeight="1"/>
+    <row r="868" ht="16.5" customHeight="1"/>
+    <row r="869" ht="16.5" customHeight="1"/>
+    <row r="870" ht="16.5" customHeight="1"/>
+    <row r="871" ht="16.5" customHeight="1"/>
+    <row r="872" ht="16.5" customHeight="1"/>
+    <row r="873" ht="16.5" customHeight="1"/>
+    <row r="874" ht="16.5" customHeight="1"/>
+    <row r="875" ht="16.5" customHeight="1"/>
+    <row r="876" ht="16.5" customHeight="1"/>
+    <row r="877" ht="16.5" customHeight="1"/>
+    <row r="878" ht="16.5" customHeight="1"/>
+    <row r="879" ht="16.5" customHeight="1"/>
+    <row r="880" ht="16.5" customHeight="1"/>
+    <row r="881" ht="16.5" customHeight="1"/>
+    <row r="882" ht="16.5" customHeight="1"/>
+    <row r="883" ht="16.5" customHeight="1"/>
+    <row r="884" ht="16.5" customHeight="1"/>
+    <row r="885" ht="16.5" customHeight="1"/>
+    <row r="886" ht="16.5" customHeight="1"/>
+    <row r="887" ht="16.5" customHeight="1"/>
+    <row r="888" ht="16.5" customHeight="1"/>
+    <row r="889" ht="16.5" customHeight="1"/>
+    <row r="890" ht="16.5" customHeight="1"/>
+    <row r="891" ht="16.5" customHeight="1"/>
+    <row r="892" ht="16.5" customHeight="1"/>
+    <row r="893" ht="16.5" customHeight="1"/>
+    <row r="894" ht="16.5" customHeight="1"/>
+    <row r="895" ht="16.5" customHeight="1"/>
+    <row r="896" ht="16.5" customHeight="1"/>
+    <row r="897" ht="16.5" customHeight="1"/>
+    <row r="898" ht="16.5" customHeight="1"/>
+    <row r="899" ht="16.5" customHeight="1"/>
+    <row r="900" ht="16.5" customHeight="1"/>
+    <row r="901" ht="16.5" customHeight="1"/>
+    <row r="902" ht="16.5" customHeight="1"/>
+    <row r="903" ht="16.5" customHeight="1"/>
+    <row r="904" ht="16.5" customHeight="1"/>
+    <row r="905" ht="16.5" customHeight="1"/>
+    <row r="906" ht="16.5" customHeight="1"/>
+    <row r="907" ht="16.5" customHeight="1"/>
+    <row r="908" ht="16.5" customHeight="1"/>
+    <row r="909" ht="16.5" customHeight="1"/>
+    <row r="910" ht="16.5" customHeight="1"/>
+    <row r="911" ht="16.5" customHeight="1"/>
+    <row r="912" ht="16.5" customHeight="1"/>
+    <row r="913" ht="16.5" customHeight="1"/>
+    <row r="914" ht="16.5" customHeight="1"/>
+    <row r="915" ht="16.5" customHeight="1"/>
+    <row r="916" ht="16.5" customHeight="1"/>
+    <row r="917" ht="16.5" customHeight="1"/>
+    <row r="918" ht="16.5" customHeight="1"/>
+    <row r="919" ht="16.5" customHeight="1"/>
+    <row r="920" ht="16.5" customHeight="1"/>
+    <row r="921" ht="16.5" customHeight="1"/>
+    <row r="922" ht="16.5" customHeight="1"/>
+    <row r="923" ht="16.5" customHeight="1"/>
+    <row r="924" ht="16.5" customHeight="1"/>
+    <row r="925" ht="16.5" customHeight="1"/>
+    <row r="926" ht="16.5" customHeight="1"/>
+    <row r="927" ht="16.5" customHeight="1"/>
+    <row r="928" ht="16.5" customHeight="1"/>
+    <row r="929" ht="16.5" customHeight="1"/>
+    <row r="930" ht="16.5" customHeight="1"/>
+    <row r="931" ht="16.5" customHeight="1"/>
+    <row r="932" ht="16.5" customHeight="1"/>
+    <row r="933" ht="16.5" customHeight="1"/>
+    <row r="934" ht="16.5" customHeight="1"/>
+    <row r="935" ht="16.5" customHeight="1"/>
+    <row r="936" ht="16.5" customHeight="1"/>
+    <row r="937" ht="16.5" customHeight="1"/>
+    <row r="938" ht="16.5" customHeight="1"/>
+    <row r="939" ht="16.5" customHeight="1"/>
+    <row r="940" ht="16.5" customHeight="1"/>
+    <row r="941" ht="16.5" customHeight="1"/>
+    <row r="942" ht="16.5" customHeight="1"/>
+    <row r="943" ht="16.5" customHeight="1"/>
+    <row r="944" ht="16.5" customHeight="1"/>
+    <row r="945" ht="16.5" customHeight="1"/>
+    <row r="946" ht="16.5" customHeight="1"/>
+    <row r="947" ht="16.5" customHeight="1"/>
+    <row r="948" ht="16.5" customHeight="1"/>
+    <row r="949" ht="16.5" customHeight="1"/>
+    <row r="950" ht="16.5" customHeight="1"/>
+    <row r="951" ht="16.5" customHeight="1"/>
+    <row r="952" ht="16.5" customHeight="1"/>
+    <row r="953" ht="16.5" customHeight="1"/>
+    <row r="954" ht="16.5" customHeight="1"/>
+    <row r="955" ht="16.5" customHeight="1"/>
+    <row r="956" ht="16.5" customHeight="1"/>
+    <row r="957" ht="16.5" customHeight="1"/>
+    <row r="958" ht="16.5" customHeight="1"/>
+    <row r="959" ht="16.5" customHeight="1"/>
+    <row r="960" ht="16.5" customHeight="1"/>
+    <row r="961" ht="16.5" customHeight="1"/>
+    <row r="962" ht="16.5" customHeight="1"/>
+    <row r="963" ht="16.5" customHeight="1"/>
+    <row r="964" ht="16.5" customHeight="1"/>
+    <row r="965" ht="16.5" customHeight="1"/>
+    <row r="966" ht="16.5" customHeight="1"/>
+    <row r="967" ht="16.5" customHeight="1"/>
+    <row r="968" ht="16.5" customHeight="1"/>
+    <row r="969" ht="16.5" customHeight="1"/>
+    <row r="970" ht="16.5" customHeight="1"/>
+    <row r="971" ht="16.5" customHeight="1"/>
+    <row r="972" ht="16.5" customHeight="1"/>
+    <row r="973" ht="16.5" customHeight="1"/>
+    <row r="974" ht="16.5" customHeight="1"/>
+    <row r="975" ht="16.5" customHeight="1"/>
+    <row r="976" ht="16.5" customHeight="1"/>
+    <row r="977" ht="16.5" customHeight="1"/>
+    <row r="978" ht="16.5" customHeight="1"/>
+    <row r="979" ht="16.5" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+</worksheet>
 </file>
--- a/1.회의록(PJE_REC_A01).xlsx
+++ b/1.회의록(PJE_REC_A01).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12168" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12168" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="18일" sheetId="8" r:id="rId3"/>
     <sheet name="19일" sheetId="9" r:id="rId4"/>
     <sheet name="22일" sheetId="10" r:id="rId5"/>
+    <sheet name="23일" sheetId="11" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="163">
   <si>
     <t>문서번호</t>
   </si>
@@ -666,6 +667,102 @@
     <t>요구사항정의서에 추가하기</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>데이터</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류 카테고리에서 기타 제외</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>종이 플라스틱 유리병 캔 페트병 스티로폼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>무게 속성 추가는 정확도가 오히려 떨어져서 기각</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차적인 모델은 완성됨</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>프론트</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>첫 화면에 나올 정보 정리 필요</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지 간에 넘어가는 장면이 어색해 딜레이를 줄이기 위해 첫 화면과 로딩 페이지를 붙일 예정</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴ 실제로 실행시켜보니 크게 문제되지 않아 그대로 두기로</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>마지막 페이지에 표시되는 만족/불만족 보다 적절한 단어 필요</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 기능적으로는 잘 작동함, 모델만 연결 시키면 끝임</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델 정보 시각화</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>펏 페이지에 넣을 정보 정리</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>프론트 마지막 페이지 디테일 작업</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>프론트 마지막 페이지 디테일 작업</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>회의록</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>강화학습에 대한 언급만 넣기로 (예: 매월 마지막 날 오전 2시에 업데이트 됩니다./점검 화면)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구사항 정의서 수정 필요</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>이하는 들어올 수 있는 질문들에 대한 대처</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>쓰레기를 여러 개 버리는 경우에는 어떻게 대처할 것인가</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>01월 22일</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>01월 23일</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>오전 10:20~10:45</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴ 사진을 여러 개 넣으면 선입선출 방식으로 처리할 예정임/직접 기계를 설계하는 것이 아니라 프로그램만 만드는 것이기 때문에…</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1269,7 +1366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1421,6 +1518,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1877,10 +1977,10 @@
       <c r="J3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="52" t="s">
+      <c r="K3" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="L3" s="53"/>
+      <c r="L3" s="54"/>
       <c r="M3" s="7"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -2094,19 +2194,19 @@
     </row>
     <row r="11" spans="1:26" ht="21" customHeight="1">
       <c r="A11" s="5"/>
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="57"/>
       <c r="M11" s="7"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -2124,17 +2224,17 @@
     </row>
     <row r="12" spans="1:26" ht="21" customHeight="1">
       <c r="A12" s="5"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="59"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="60"/>
       <c r="M12" s="7"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -2152,17 +2252,17 @@
     </row>
     <row r="13" spans="1:26" ht="21" customHeight="1">
       <c r="A13" s="5"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="59"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="60"/>
       <c r="M13" s="7"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -2180,17 +2280,17 @@
     </row>
     <row r="14" spans="1:26" ht="21" customHeight="1">
       <c r="A14" s="5"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="59"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="60"/>
       <c r="M14" s="7"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -2208,17 +2308,17 @@
     </row>
     <row r="15" spans="1:26" ht="16.5" customHeight="1">
       <c r="A15" s="5"/>
-      <c r="B15" s="60"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="61"/>
-      <c r="L15" s="62"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="63"/>
       <c r="M15" s="7"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -2408,11 +2508,11 @@
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="63">
+      <c r="F22" s="64">
         <v>45308</v>
       </c>
-      <c r="G22" s="64"/>
-      <c r="H22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="66"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
@@ -2438,9 +2538,9 @@
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="68"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="69"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -29848,10 +29948,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="70"/>
+      <c r="B1" s="71"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -31285,7 +31385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D984"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
@@ -31301,10 +31401,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="70"/>
+      <c r="B1" s="71"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -32608,7 +32708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D992"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -32624,10 +32724,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="70"/>
+      <c r="B1" s="71"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -33986,8 +34086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D979"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -34002,10 +34102,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="70"/>
+      <c r="B1" s="71"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -34026,7 +34126,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>102</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" customHeight="1">
@@ -35265,4 +35365,1340 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D985"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="15.109375" style="52" customWidth="1"/>
+    <col min="2" max="2" width="130.109375" style="52" customWidth="1"/>
+    <col min="3" max="3" width="31.109375" style="52" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="52" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" style="52" customWidth="1"/>
+    <col min="6" max="26" width="8.6640625" style="52" customWidth="1"/>
+    <col min="27" max="16384" width="14.44140625" style="52"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A1" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="71"/>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14"/>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A6" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A7" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A8" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="10" spans="1:3" ht="16.5" customHeight="1" thickBot="1"/>
+    <row r="11" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A11" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+    </row>
+    <row r="12" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A12" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A13" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" s="26"/>
+    </row>
+    <row r="14" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A14" s="15"/>
+      <c r="B14" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="26"/>
+    </row>
+    <row r="15" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A15" s="15"/>
+      <c r="B15" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" s="26"/>
+    </row>
+    <row r="16" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A16" s="15"/>
+      <c r="B16" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="27"/>
+    </row>
+    <row r="17" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A17" s="15"/>
+      <c r="B17" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="C17" s="27"/>
+    </row>
+    <row r="18" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A18" s="15"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="26"/>
+    </row>
+    <row r="19" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A19" s="15"/>
+      <c r="B19" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="26"/>
+    </row>
+    <row r="20" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A20" s="15"/>
+      <c r="B20" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C20" s="26"/>
+    </row>
+    <row r="21" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A21" s="15"/>
+      <c r="B21" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21" s="26"/>
+    </row>
+    <row r="22" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A22" s="15"/>
+      <c r="B22" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" s="26"/>
+    </row>
+    <row r="23" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A23" s="15"/>
+      <c r="B23" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" s="26"/>
+    </row>
+    <row r="24" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A24" s="15"/>
+      <c r="B24" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" s="26"/>
+    </row>
+    <row r="25" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A25" s="15"/>
+      <c r="C25" s="26"/>
+    </row>
+    <row r="26" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A26" s="15"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="26"/>
+    </row>
+    <row r="27" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A27" s="15"/>
+      <c r="B27" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="C27" s="26"/>
+    </row>
+    <row r="28" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A28" s="15"/>
+      <c r="B28" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="C28" s="26"/>
+    </row>
+    <row r="29" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A29" s="15"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="26"/>
+    </row>
+    <row r="30" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A30" s="15"/>
+      <c r="B30" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="C30" s="26"/>
+    </row>
+    <row r="31" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A31" s="15"/>
+      <c r="B31" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="C31" s="26"/>
+    </row>
+    <row r="32" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A32" s="15"/>
+      <c r="B32" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="C32" s="26"/>
+    </row>
+    <row r="33" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A33" s="15"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="26"/>
+    </row>
+    <row r="34" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A34" s="44"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="46"/>
+    </row>
+    <row r="35" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A35" s="39"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+    </row>
+    <row r="36" spans="1:4" ht="16.5" customHeight="1" thickBot="1"/>
+    <row r="37" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A37" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="23"/>
+    </row>
+    <row r="38" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A38" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A39" s="15"/>
+      <c r="B39" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" s="18"/>
+    </row>
+    <row r="40" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A40" s="15"/>
+      <c r="B40" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="18"/>
+    </row>
+    <row r="41" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A41" s="15"/>
+      <c r="B41" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="D41" s="18"/>
+    </row>
+    <row r="42" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A42" s="15"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="18"/>
+    </row>
+    <row r="43" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A43" s="15"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="18"/>
+    </row>
+    <row r="44" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A44" s="19"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="33"/>
+    </row>
+    <row r="45" spans="1:4" ht="16.5" customHeight="1"/>
+    <row r="46" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A46" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" s="40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A47" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" s="35"/>
+    </row>
+    <row r="48" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A48" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B48" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="C48" s="35"/>
+    </row>
+    <row r="49" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A49" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="C49" s="35"/>
+    </row>
+    <row r="50" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A50" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="C50" s="35"/>
+    </row>
+    <row r="51" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A51" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="C51" s="35"/>
+    </row>
+    <row r="52" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A52" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="C52" s="35"/>
+    </row>
+    <row r="57" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A57" s="34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A58" s="40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A59" s="40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A60" s="34"/>
+    </row>
+    <row r="61" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A61" s="34"/>
+    </row>
+    <row r="62" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="63" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="64" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="65" ht="16.5" customHeight="1"/>
+    <row r="66" ht="16.5" customHeight="1"/>
+    <row r="67" ht="16.5" customHeight="1"/>
+    <row r="68" ht="16.5" customHeight="1"/>
+    <row r="69" ht="16.5" customHeight="1"/>
+    <row r="70" ht="16.5" customHeight="1"/>
+    <row r="71" ht="16.5" customHeight="1"/>
+    <row r="72" ht="16.5" customHeight="1"/>
+    <row r="73" ht="16.5" customHeight="1"/>
+    <row r="74" ht="16.5" customHeight="1"/>
+    <row r="75" ht="16.5" customHeight="1"/>
+    <row r="76" ht="16.5" customHeight="1"/>
+    <row r="77" ht="16.5" customHeight="1"/>
+    <row r="78" ht="16.5" customHeight="1"/>
+    <row r="79" ht="16.5" customHeight="1"/>
+    <row r="80" ht="16.5" customHeight="1"/>
+    <row r="81" ht="16.5" customHeight="1"/>
+    <row r="82" ht="16.5" customHeight="1"/>
+    <row r="83" ht="16.5" customHeight="1"/>
+    <row r="84" ht="16.5" customHeight="1"/>
+    <row r="85" ht="16.5" customHeight="1"/>
+    <row r="86" ht="16.5" customHeight="1"/>
+    <row r="87" ht="16.5" customHeight="1"/>
+    <row r="88" ht="16.5" customHeight="1"/>
+    <row r="89" ht="16.5" customHeight="1"/>
+    <row r="90" ht="16.5" customHeight="1"/>
+    <row r="91" ht="16.5" customHeight="1"/>
+    <row r="92" ht="16.5" customHeight="1"/>
+    <row r="93" ht="16.5" customHeight="1"/>
+    <row r="94" ht="16.5" customHeight="1"/>
+    <row r="95" ht="16.5" customHeight="1"/>
+    <row r="96" ht="16.5" customHeight="1"/>
+    <row r="97" ht="16.5" customHeight="1"/>
+    <row r="98" ht="16.5" customHeight="1"/>
+    <row r="99" ht="16.5" customHeight="1"/>
+    <row r="100" ht="16.5" customHeight="1"/>
+    <row r="101" ht="16.5" customHeight="1"/>
+    <row r="102" ht="16.5" customHeight="1"/>
+    <row r="103" ht="16.5" customHeight="1"/>
+    <row r="104" ht="16.5" customHeight="1"/>
+    <row r="105" ht="16.5" customHeight="1"/>
+    <row r="106" ht="16.5" customHeight="1"/>
+    <row r="107" ht="16.5" customHeight="1"/>
+    <row r="108" ht="16.5" customHeight="1"/>
+    <row r="109" ht="16.5" customHeight="1"/>
+    <row r="110" ht="16.5" customHeight="1"/>
+    <row r="111" ht="16.5" customHeight="1"/>
+    <row r="112" ht="16.5" customHeight="1"/>
+    <row r="113" ht="16.5" customHeight="1"/>
+    <row r="114" ht="16.5" customHeight="1"/>
+    <row r="115" ht="16.5" customHeight="1"/>
+    <row r="116" ht="16.5" customHeight="1"/>
+    <row r="117" ht="16.5" customHeight="1"/>
+    <row r="118" ht="16.5" customHeight="1"/>
+    <row r="119" ht="16.5" customHeight="1"/>
+    <row r="120" ht="16.5" customHeight="1"/>
+    <row r="121" ht="16.5" customHeight="1"/>
+    <row r="122" ht="16.5" customHeight="1"/>
+    <row r="123" ht="16.5" customHeight="1"/>
+    <row r="124" ht="16.5" customHeight="1"/>
+    <row r="125" ht="16.5" customHeight="1"/>
+    <row r="126" ht="16.5" customHeight="1"/>
+    <row r="127" ht="16.5" customHeight="1"/>
+    <row r="128" ht="16.5" customHeight="1"/>
+    <row r="129" ht="16.5" customHeight="1"/>
+    <row r="130" ht="16.5" customHeight="1"/>
+    <row r="131" ht="16.5" customHeight="1"/>
+    <row r="132" ht="16.5" customHeight="1"/>
+    <row r="133" ht="16.5" customHeight="1"/>
+    <row r="134" ht="16.5" customHeight="1"/>
+    <row r="135" ht="16.5" customHeight="1"/>
+    <row r="136" ht="16.5" customHeight="1"/>
+    <row r="137" ht="16.5" customHeight="1"/>
+    <row r="138" ht="16.5" customHeight="1"/>
+    <row r="139" ht="16.5" customHeight="1"/>
+    <row r="140" ht="16.5" customHeight="1"/>
+    <row r="141" ht="16.5" customHeight="1"/>
+    <row r="142" ht="16.5" customHeight="1"/>
+    <row r="143" ht="16.5" customHeight="1"/>
+    <row r="144" ht="16.5" customHeight="1"/>
+    <row r="145" ht="16.5" customHeight="1"/>
+    <row r="146" ht="16.5" customHeight="1"/>
+    <row r="147" ht="16.5" customHeight="1"/>
+    <row r="148" ht="16.5" customHeight="1"/>
+    <row r="149" ht="16.5" customHeight="1"/>
+    <row r="150" ht="16.5" customHeight="1"/>
+    <row r="151" ht="16.5" customHeight="1"/>
+    <row r="152" ht="16.5" customHeight="1"/>
+    <row r="153" ht="16.5" customHeight="1"/>
+    <row r="154" ht="16.5" customHeight="1"/>
+    <row r="155" ht="16.5" customHeight="1"/>
+    <row r="156" ht="16.5" customHeight="1"/>
+    <row r="157" ht="16.5" customHeight="1"/>
+    <row r="158" ht="16.5" customHeight="1"/>
+    <row r="159" ht="16.5" customHeight="1"/>
+    <row r="160" ht="16.5" customHeight="1"/>
+    <row r="161" ht="16.5" customHeight="1"/>
+    <row r="162" ht="16.5" customHeight="1"/>
+    <row r="163" ht="16.5" customHeight="1"/>
+    <row r="164" ht="16.5" customHeight="1"/>
+    <row r="165" ht="16.5" customHeight="1"/>
+    <row r="166" ht="16.5" customHeight="1"/>
+    <row r="167" ht="16.5" customHeight="1"/>
+    <row r="168" ht="16.5" customHeight="1"/>
+    <row r="169" ht="16.5" customHeight="1"/>
+    <row r="170" ht="16.5" customHeight="1"/>
+    <row r="171" ht="16.5" customHeight="1"/>
+    <row r="172" ht="16.5" customHeight="1"/>
+    <row r="173" ht="16.5" customHeight="1"/>
+    <row r="174" ht="16.5" customHeight="1"/>
+    <row r="175" ht="16.5" customHeight="1"/>
+    <row r="176" ht="16.5" customHeight="1"/>
+    <row r="177" ht="16.5" customHeight="1"/>
+    <row r="178" ht="16.5" customHeight="1"/>
+    <row r="179" ht="16.5" customHeight="1"/>
+    <row r="180" ht="16.5" customHeight="1"/>
+    <row r="181" ht="16.5" customHeight="1"/>
+    <row r="182" ht="16.5" customHeight="1"/>
+    <row r="183" ht="16.5" customHeight="1"/>
+    <row r="184" ht="16.5" customHeight="1"/>
+    <row r="185" ht="16.5" customHeight="1"/>
+    <row r="186" ht="16.5" customHeight="1"/>
+    <row r="187" ht="16.5" customHeight="1"/>
+    <row r="188" ht="16.5" customHeight="1"/>
+    <row r="189" ht="16.5" customHeight="1"/>
+    <row r="190" ht="16.5" customHeight="1"/>
+    <row r="191" ht="16.5" customHeight="1"/>
+    <row r="192" ht="16.5" customHeight="1"/>
+    <row r="193" ht="16.5" customHeight="1"/>
+    <row r="194" ht="16.5" customHeight="1"/>
+    <row r="195" ht="16.5" customHeight="1"/>
+    <row r="196" ht="16.5" customHeight="1"/>
+    <row r="197" ht="16.5" customHeight="1"/>
+    <row r="198" ht="16.5" customHeight="1"/>
+    <row r="199" ht="16.5" customHeight="1"/>
+    <row r="200" ht="16.5" customHeight="1"/>
+    <row r="201" ht="16.5" customHeight="1"/>
+    <row r="202" ht="16.5" customHeight="1"/>
+    <row r="203" ht="16.5" customHeight="1"/>
+    <row r="204" ht="16.5" customHeight="1"/>
+    <row r="205" ht="16.5" customHeight="1"/>
+    <row r="206" ht="16.5" customHeight="1"/>
+    <row r="207" ht="16.5" customHeight="1"/>
+    <row r="208" ht="16.5" customHeight="1"/>
+    <row r="209" ht="16.5" customHeight="1"/>
+    <row r="210" ht="16.5" customHeight="1"/>
+    <row r="211" ht="16.5" customHeight="1"/>
+    <row r="212" ht="16.5" customHeight="1"/>
+    <row r="213" ht="16.5" customHeight="1"/>
+    <row r="214" ht="16.5" customHeight="1"/>
+    <row r="215" ht="16.5" customHeight="1"/>
+    <row r="216" ht="16.5" customHeight="1"/>
+    <row r="217" ht="16.5" customHeight="1"/>
+    <row r="218" ht="16.5" customHeight="1"/>
+    <row r="219" ht="16.5" customHeight="1"/>
+    <row r="220" ht="16.5" customHeight="1"/>
+    <row r="221" ht="16.5" customHeight="1"/>
+    <row r="222" ht="16.5" customHeight="1"/>
+    <row r="223" ht="16.5" customHeight="1"/>
+    <row r="224" ht="16.5" customHeight="1"/>
+    <row r="225" ht="16.5" customHeight="1"/>
+    <row r="226" ht="16.5" customHeight="1"/>
+    <row r="227" ht="16.5" customHeight="1"/>
+    <row r="228" ht="16.5" customHeight="1"/>
+    <row r="229" ht="16.5" customHeight="1"/>
+    <row r="230" ht="16.5" customHeight="1"/>
+    <row r="231" ht="16.5" customHeight="1"/>
+    <row r="232" ht="16.5" customHeight="1"/>
+    <row r="233" ht="16.5" customHeight="1"/>
+    <row r="234" ht="16.5" customHeight="1"/>
+    <row r="235" ht="16.5" customHeight="1"/>
+    <row r="236" ht="16.5" customHeight="1"/>
+    <row r="237" ht="16.5" customHeight="1"/>
+    <row r="238" ht="16.5" customHeight="1"/>
+    <row r="239" ht="16.5" customHeight="1"/>
+    <row r="240" ht="16.5" customHeight="1"/>
+    <row r="241" ht="16.5" customHeight="1"/>
+    <row r="242" ht="16.5" customHeight="1"/>
+    <row r="243" ht="16.5" customHeight="1"/>
+    <row r="244" ht="16.5" customHeight="1"/>
+    <row r="245" ht="16.5" customHeight="1"/>
+    <row r="246" ht="16.5" customHeight="1"/>
+    <row r="247" ht="16.5" customHeight="1"/>
+    <row r="248" ht="16.5" customHeight="1"/>
+    <row r="249" ht="16.5" customHeight="1"/>
+    <row r="250" ht="16.5" customHeight="1"/>
+    <row r="251" ht="16.5" customHeight="1"/>
+    <row r="252" ht="16.5" customHeight="1"/>
+    <row r="253" ht="16.5" customHeight="1"/>
+    <row r="254" ht="16.5" customHeight="1"/>
+    <row r="255" ht="16.5" customHeight="1"/>
+    <row r="256" ht="16.5" customHeight="1"/>
+    <row r="257" ht="16.5" customHeight="1"/>
+    <row r="258" ht="16.5" customHeight="1"/>
+    <row r="259" ht="16.5" customHeight="1"/>
+    <row r="260" ht="16.5" customHeight="1"/>
+    <row r="261" ht="16.5" customHeight="1"/>
+    <row r="262" ht="16.5" customHeight="1"/>
+    <row r="263" ht="16.5" customHeight="1"/>
+    <row r="264" ht="16.5" customHeight="1"/>
+    <row r="265" ht="16.5" customHeight="1"/>
+    <row r="266" ht="16.5" customHeight="1"/>
+    <row r="267" ht="16.5" customHeight="1"/>
+    <row r="268" ht="16.5" customHeight="1"/>
+    <row r="269" ht="16.5" customHeight="1"/>
+    <row r="270" ht="16.5" customHeight="1"/>
+    <row r="271" ht="16.5" customHeight="1"/>
+    <row r="272" ht="16.5" customHeight="1"/>
+    <row r="273" ht="16.5" customHeight="1"/>
+    <row r="274" ht="16.5" customHeight="1"/>
+    <row r="275" ht="16.5" customHeight="1"/>
+    <row r="276" ht="16.5" customHeight="1"/>
+    <row r="277" ht="16.5" customHeight="1"/>
+    <row r="278" ht="16.5" customHeight="1"/>
+    <row r="279" ht="16.5" customHeight="1"/>
+    <row r="280" ht="16.5" customHeight="1"/>
+    <row r="281" ht="16.5" customHeight="1"/>
+    <row r="282" ht="16.5" customHeight="1"/>
+    <row r="283" ht="16.5" customHeight="1"/>
+    <row r="284" ht="16.5" customHeight="1"/>
+    <row r="285" ht="16.5" customHeight="1"/>
+    <row r="286" ht="16.5" customHeight="1"/>
+    <row r="287" ht="16.5" customHeight="1"/>
+    <row r="288" ht="16.5" customHeight="1"/>
+    <row r="289" ht="16.5" customHeight="1"/>
+    <row r="290" ht="16.5" customHeight="1"/>
+    <row r="291" ht="16.5" customHeight="1"/>
+    <row r="292" ht="16.5" customHeight="1"/>
+    <row r="293" ht="16.5" customHeight="1"/>
+    <row r="294" ht="16.5" customHeight="1"/>
+    <row r="295" ht="16.5" customHeight="1"/>
+    <row r="296" ht="16.5" customHeight="1"/>
+    <row r="297" ht="16.5" customHeight="1"/>
+    <row r="298" ht="16.5" customHeight="1"/>
+    <row r="299" ht="16.5" customHeight="1"/>
+    <row r="300" ht="16.5" customHeight="1"/>
+    <row r="301" ht="16.5" customHeight="1"/>
+    <row r="302" ht="16.5" customHeight="1"/>
+    <row r="303" ht="16.5" customHeight="1"/>
+    <row r="304" ht="16.5" customHeight="1"/>
+    <row r="305" ht="16.5" customHeight="1"/>
+    <row r="306" ht="16.5" customHeight="1"/>
+    <row r="307" ht="16.5" customHeight="1"/>
+    <row r="308" ht="16.5" customHeight="1"/>
+    <row r="309" ht="16.5" customHeight="1"/>
+    <row r="310" ht="16.5" customHeight="1"/>
+    <row r="311" ht="16.5" customHeight="1"/>
+    <row r="312" ht="16.5" customHeight="1"/>
+    <row r="313" ht="16.5" customHeight="1"/>
+    <row r="314" ht="16.5" customHeight="1"/>
+    <row r="315" ht="16.5" customHeight="1"/>
+    <row r="316" ht="16.5" customHeight="1"/>
+    <row r="317" ht="16.5" customHeight="1"/>
+    <row r="318" ht="16.5" customHeight="1"/>
+    <row r="319" ht="16.5" customHeight="1"/>
+    <row r="320" ht="16.5" customHeight="1"/>
+    <row r="321" ht="16.5" customHeight="1"/>
+    <row r="322" ht="16.5" customHeight="1"/>
+    <row r="323" ht="16.5" customHeight="1"/>
+    <row r="324" ht="16.5" customHeight="1"/>
+    <row r="325" ht="16.5" customHeight="1"/>
+    <row r="326" ht="16.5" customHeight="1"/>
+    <row r="327" ht="16.5" customHeight="1"/>
+    <row r="328" ht="16.5" customHeight="1"/>
+    <row r="329" ht="16.5" customHeight="1"/>
+    <row r="330" ht="16.5" customHeight="1"/>
+    <row r="331" ht="16.5" customHeight="1"/>
+    <row r="332" ht="16.5" customHeight="1"/>
+    <row r="333" ht="16.5" customHeight="1"/>
+    <row r="334" ht="16.5" customHeight="1"/>
+    <row r="335" ht="16.5" customHeight="1"/>
+    <row r="336" ht="16.5" customHeight="1"/>
+    <row r="337" ht="16.5" customHeight="1"/>
+    <row r="338" ht="16.5" customHeight="1"/>
+    <row r="339" ht="16.5" customHeight="1"/>
+    <row r="340" ht="16.5" customHeight="1"/>
+    <row r="341" ht="16.5" customHeight="1"/>
+    <row r="342" ht="16.5" customHeight="1"/>
+    <row r="343" ht="16.5" customHeight="1"/>
+    <row r="344" ht="16.5" customHeight="1"/>
+    <row r="345" ht="16.5" customHeight="1"/>
+    <row r="346" ht="16.5" customHeight="1"/>
+    <row r="347" ht="16.5" customHeight="1"/>
+    <row r="348" ht="16.5" customHeight="1"/>
+    <row r="349" ht="16.5" customHeight="1"/>
+    <row r="350" ht="16.5" customHeight="1"/>
+    <row r="351" ht="16.5" customHeight="1"/>
+    <row r="352" ht="16.5" customHeight="1"/>
+    <row r="353" ht="16.5" customHeight="1"/>
+    <row r="354" ht="16.5" customHeight="1"/>
+    <row r="355" ht="16.5" customHeight="1"/>
+    <row r="356" ht="16.5" customHeight="1"/>
+    <row r="357" ht="16.5" customHeight="1"/>
+    <row r="358" ht="16.5" customHeight="1"/>
+    <row r="359" ht="16.5" customHeight="1"/>
+    <row r="360" ht="16.5" customHeight="1"/>
+    <row r="361" ht="16.5" customHeight="1"/>
+    <row r="362" ht="16.5" customHeight="1"/>
+    <row r="363" ht="16.5" customHeight="1"/>
+    <row r="364" ht="16.5" customHeight="1"/>
+    <row r="365" ht="16.5" customHeight="1"/>
+    <row r="366" ht="16.5" customHeight="1"/>
+    <row r="367" ht="16.5" customHeight="1"/>
+    <row r="368" ht="16.5" customHeight="1"/>
+    <row r="369" ht="16.5" customHeight="1"/>
+    <row r="370" ht="16.5" customHeight="1"/>
+    <row r="371" ht="16.5" customHeight="1"/>
+    <row r="372" ht="16.5" customHeight="1"/>
+    <row r="373" ht="16.5" customHeight="1"/>
+    <row r="374" ht="16.5" customHeight="1"/>
+    <row r="375" ht="16.5" customHeight="1"/>
+    <row r="376" ht="16.5" customHeight="1"/>
+    <row r="377" ht="16.5" customHeight="1"/>
+    <row r="378" ht="16.5" customHeight="1"/>
+    <row r="379" ht="16.5" customHeight="1"/>
+    <row r="380" ht="16.5" customHeight="1"/>
+    <row r="381" ht="16.5" customHeight="1"/>
+    <row r="382" ht="16.5" customHeight="1"/>
+    <row r="383" ht="16.5" customHeight="1"/>
+    <row r="384" ht="16.5" customHeight="1"/>
+    <row r="385" ht="16.5" customHeight="1"/>
+    <row r="386" ht="16.5" customHeight="1"/>
+    <row r="387" ht="16.5" customHeight="1"/>
+    <row r="388" ht="16.5" customHeight="1"/>
+    <row r="389" ht="16.5" customHeight="1"/>
+    <row r="390" ht="16.5" customHeight="1"/>
+    <row r="391" ht="16.5" customHeight="1"/>
+    <row r="392" ht="16.5" customHeight="1"/>
+    <row r="393" ht="16.5" customHeight="1"/>
+    <row r="394" ht="16.5" customHeight="1"/>
+    <row r="395" ht="16.5" customHeight="1"/>
+    <row r="396" ht="16.5" customHeight="1"/>
+    <row r="397" ht="16.5" customHeight="1"/>
+    <row r="398" ht="16.5" customHeight="1"/>
+    <row r="399" ht="16.5" customHeight="1"/>
+    <row r="400" ht="16.5" customHeight="1"/>
+    <row r="401" ht="16.5" customHeight="1"/>
+    <row r="402" ht="16.5" customHeight="1"/>
+    <row r="403" ht="16.5" customHeight="1"/>
+    <row r="404" ht="16.5" customHeight="1"/>
+    <row r="405" ht="16.5" customHeight="1"/>
+    <row r="406" ht="16.5" customHeight="1"/>
+    <row r="407" ht="16.5" customHeight="1"/>
+    <row r="408" ht="16.5" customHeight="1"/>
+    <row r="409" ht="16.5" customHeight="1"/>
+    <row r="410" ht="16.5" customHeight="1"/>
+    <row r="411" ht="16.5" customHeight="1"/>
+    <row r="412" ht="16.5" customHeight="1"/>
+    <row r="413" ht="16.5" customHeight="1"/>
+    <row r="414" ht="16.5" customHeight="1"/>
+    <row r="415" ht="16.5" customHeight="1"/>
+    <row r="416" ht="16.5" customHeight="1"/>
+    <row r="417" ht="16.5" customHeight="1"/>
+    <row r="418" ht="16.5" customHeight="1"/>
+    <row r="419" ht="16.5" customHeight="1"/>
+    <row r="420" ht="16.5" customHeight="1"/>
+    <row r="421" ht="16.5" customHeight="1"/>
+    <row r="422" ht="16.5" customHeight="1"/>
+    <row r="423" ht="16.5" customHeight="1"/>
+    <row r="424" ht="16.5" customHeight="1"/>
+    <row r="425" ht="16.5" customHeight="1"/>
+    <row r="426" ht="16.5" customHeight="1"/>
+    <row r="427" ht="16.5" customHeight="1"/>
+    <row r="428" ht="16.5" customHeight="1"/>
+    <row r="429" ht="16.5" customHeight="1"/>
+    <row r="430" ht="16.5" customHeight="1"/>
+    <row r="431" ht="16.5" customHeight="1"/>
+    <row r="432" ht="16.5" customHeight="1"/>
+    <row r="433" ht="16.5" customHeight="1"/>
+    <row r="434" ht="16.5" customHeight="1"/>
+    <row r="435" ht="16.5" customHeight="1"/>
+    <row r="436" ht="16.5" customHeight="1"/>
+    <row r="437" ht="16.5" customHeight="1"/>
+    <row r="438" ht="16.5" customHeight="1"/>
+    <row r="439" ht="16.5" customHeight="1"/>
+    <row r="440" ht="16.5" customHeight="1"/>
+    <row r="441" ht="16.5" customHeight="1"/>
+    <row r="442" ht="16.5" customHeight="1"/>
+    <row r="443" ht="16.5" customHeight="1"/>
+    <row r="444" ht="16.5" customHeight="1"/>
+    <row r="445" ht="16.5" customHeight="1"/>
+    <row r="446" ht="16.5" customHeight="1"/>
+    <row r="447" ht="16.5" customHeight="1"/>
+    <row r="448" ht="16.5" customHeight="1"/>
+    <row r="449" ht="16.5" customHeight="1"/>
+    <row r="450" ht="16.5" customHeight="1"/>
+    <row r="451" ht="16.5" customHeight="1"/>
+    <row r="452" ht="16.5" customHeight="1"/>
+    <row r="453" ht="16.5" customHeight="1"/>
+    <row r="454" ht="16.5" customHeight="1"/>
+    <row r="455" ht="16.5" customHeight="1"/>
+    <row r="456" ht="16.5" customHeight="1"/>
+    <row r="457" ht="16.5" customHeight="1"/>
+    <row r="458" ht="16.5" customHeight="1"/>
+    <row r="459" ht="16.5" customHeight="1"/>
+    <row r="460" ht="16.5" customHeight="1"/>
+    <row r="461" ht="16.5" customHeight="1"/>
+    <row r="462" ht="16.5" customHeight="1"/>
+    <row r="463" ht="16.5" customHeight="1"/>
+    <row r="464" ht="16.5" customHeight="1"/>
+    <row r="465" ht="16.5" customHeight="1"/>
+    <row r="466" ht="16.5" customHeight="1"/>
+    <row r="467" ht="16.5" customHeight="1"/>
+    <row r="468" ht="16.5" customHeight="1"/>
+    <row r="469" ht="16.5" customHeight="1"/>
+    <row r="470" ht="16.5" customHeight="1"/>
+    <row r="471" ht="16.5" customHeight="1"/>
+    <row r="472" ht="16.5" customHeight="1"/>
+    <row r="473" ht="16.5" customHeight="1"/>
+    <row r="474" ht="16.5" customHeight="1"/>
+    <row r="475" ht="16.5" customHeight="1"/>
+    <row r="476" ht="16.5" customHeight="1"/>
+    <row r="477" ht="16.5" customHeight="1"/>
+    <row r="478" ht="16.5" customHeight="1"/>
+    <row r="479" ht="16.5" customHeight="1"/>
+    <row r="480" ht="16.5" customHeight="1"/>
+    <row r="481" ht="16.5" customHeight="1"/>
+    <row r="482" ht="16.5" customHeight="1"/>
+    <row r="483" ht="16.5" customHeight="1"/>
+    <row r="484" ht="16.5" customHeight="1"/>
+    <row r="485" ht="16.5" customHeight="1"/>
+    <row r="486" ht="16.5" customHeight="1"/>
+    <row r="487" ht="16.5" customHeight="1"/>
+    <row r="488" ht="16.5" customHeight="1"/>
+    <row r="489" ht="16.5" customHeight="1"/>
+    <row r="490" ht="16.5" customHeight="1"/>
+    <row r="491" ht="16.5" customHeight="1"/>
+    <row r="492" ht="16.5" customHeight="1"/>
+    <row r="493" ht="16.5" customHeight="1"/>
+    <row r="494" ht="16.5" customHeight="1"/>
+    <row r="495" ht="16.5" customHeight="1"/>
+    <row r="496" ht="16.5" customHeight="1"/>
+    <row r="497" ht="16.5" customHeight="1"/>
+    <row r="498" ht="16.5" customHeight="1"/>
+    <row r="499" ht="16.5" customHeight="1"/>
+    <row r="500" ht="16.5" customHeight="1"/>
+    <row r="501" ht="16.5" customHeight="1"/>
+    <row r="502" ht="16.5" customHeight="1"/>
+    <row r="503" ht="16.5" customHeight="1"/>
+    <row r="504" ht="16.5" customHeight="1"/>
+    <row r="505" ht="16.5" customHeight="1"/>
+    <row r="506" ht="16.5" customHeight="1"/>
+    <row r="507" ht="16.5" customHeight="1"/>
+    <row r="508" ht="16.5" customHeight="1"/>
+    <row r="509" ht="16.5" customHeight="1"/>
+    <row r="510" ht="16.5" customHeight="1"/>
+    <row r="511" ht="16.5" customHeight="1"/>
+    <row r="512" ht="16.5" customHeight="1"/>
+    <row r="513" ht="16.5" customHeight="1"/>
+    <row r="514" ht="16.5" customHeight="1"/>
+    <row r="515" ht="16.5" customHeight="1"/>
+    <row r="516" ht="16.5" customHeight="1"/>
+    <row r="517" ht="16.5" customHeight="1"/>
+    <row r="518" ht="16.5" customHeight="1"/>
+    <row r="519" ht="16.5" customHeight="1"/>
+    <row r="520" ht="16.5" customHeight="1"/>
+    <row r="521" ht="16.5" customHeight="1"/>
+    <row r="522" ht="16.5" customHeight="1"/>
+    <row r="523" ht="16.5" customHeight="1"/>
+    <row r="524" ht="16.5" customHeight="1"/>
+    <row r="525" ht="16.5" customHeight="1"/>
+    <row r="526" ht="16.5" customHeight="1"/>
+    <row r="527" ht="16.5" customHeight="1"/>
+    <row r="528" ht="16.5" customHeight="1"/>
+    <row r="529" ht="16.5" customHeight="1"/>
+    <row r="530" ht="16.5" customHeight="1"/>
+    <row r="531" ht="16.5" customHeight="1"/>
+    <row r="532" ht="16.5" customHeight="1"/>
+    <row r="533" ht="16.5" customHeight="1"/>
+    <row r="534" ht="16.5" customHeight="1"/>
+    <row r="535" ht="16.5" customHeight="1"/>
+    <row r="536" ht="16.5" customHeight="1"/>
+    <row r="537" ht="16.5" customHeight="1"/>
+    <row r="538" ht="16.5" customHeight="1"/>
+    <row r="539" ht="16.5" customHeight="1"/>
+    <row r="540" ht="16.5" customHeight="1"/>
+    <row r="541" ht="16.5" customHeight="1"/>
+    <row r="542" ht="16.5" customHeight="1"/>
+    <row r="543" ht="16.5" customHeight="1"/>
+    <row r="544" ht="16.5" customHeight="1"/>
+    <row r="545" ht="16.5" customHeight="1"/>
+    <row r="546" ht="16.5" customHeight="1"/>
+    <row r="547" ht="16.5" customHeight="1"/>
+    <row r="548" ht="16.5" customHeight="1"/>
+    <row r="549" ht="16.5" customHeight="1"/>
+    <row r="550" ht="16.5" customHeight="1"/>
+    <row r="551" ht="16.5" customHeight="1"/>
+    <row r="552" ht="16.5" customHeight="1"/>
+    <row r="553" ht="16.5" customHeight="1"/>
+    <row r="554" ht="16.5" customHeight="1"/>
+    <row r="555" ht="16.5" customHeight="1"/>
+    <row r="556" ht="16.5" customHeight="1"/>
+    <row r="557" ht="16.5" customHeight="1"/>
+    <row r="558" ht="16.5" customHeight="1"/>
+    <row r="559" ht="16.5" customHeight="1"/>
+    <row r="560" ht="16.5" customHeight="1"/>
+    <row r="561" ht="16.5" customHeight="1"/>
+    <row r="562" ht="16.5" customHeight="1"/>
+    <row r="563" ht="16.5" customHeight="1"/>
+    <row r="564" ht="16.5" customHeight="1"/>
+    <row r="565" ht="16.5" customHeight="1"/>
+    <row r="566" ht="16.5" customHeight="1"/>
+    <row r="567" ht="16.5" customHeight="1"/>
+    <row r="568" ht="16.5" customHeight="1"/>
+    <row r="569" ht="16.5" customHeight="1"/>
+    <row r="570" ht="16.5" customHeight="1"/>
+    <row r="571" ht="16.5" customHeight="1"/>
+    <row r="572" ht="16.5" customHeight="1"/>
+    <row r="573" ht="16.5" customHeight="1"/>
+    <row r="574" ht="16.5" customHeight="1"/>
+    <row r="575" ht="16.5" customHeight="1"/>
+    <row r="576" ht="16.5" customHeight="1"/>
+    <row r="577" ht="16.5" customHeight="1"/>
+    <row r="578" ht="16.5" customHeight="1"/>
+    <row r="579" ht="16.5" customHeight="1"/>
+    <row r="580" ht="16.5" customHeight="1"/>
+    <row r="581" ht="16.5" customHeight="1"/>
+    <row r="582" ht="16.5" customHeight="1"/>
+    <row r="583" ht="16.5" customHeight="1"/>
+    <row r="584" ht="16.5" customHeight="1"/>
+    <row r="585" ht="16.5" customHeight="1"/>
+    <row r="586" ht="16.5" customHeight="1"/>
+    <row r="587" ht="16.5" customHeight="1"/>
+    <row r="588" ht="16.5" customHeight="1"/>
+    <row r="589" ht="16.5" customHeight="1"/>
+    <row r="590" ht="16.5" customHeight="1"/>
+    <row r="591" ht="16.5" customHeight="1"/>
+    <row r="592" ht="16.5" customHeight="1"/>
+    <row r="593" ht="16.5" customHeight="1"/>
+    <row r="594" ht="16.5" customHeight="1"/>
+    <row r="595" ht="16.5" customHeight="1"/>
+    <row r="596" ht="16.5" customHeight="1"/>
+    <row r="597" ht="16.5" customHeight="1"/>
+    <row r="598" ht="16.5" customHeight="1"/>
+    <row r="599" ht="16.5" customHeight="1"/>
+    <row r="600" ht="16.5" customHeight="1"/>
+    <row r="601" ht="16.5" customHeight="1"/>
+    <row r="602" ht="16.5" customHeight="1"/>
+    <row r="603" ht="16.5" customHeight="1"/>
+    <row r="604" ht="16.5" customHeight="1"/>
+    <row r="605" ht="16.5" customHeight="1"/>
+    <row r="606" ht="16.5" customHeight="1"/>
+    <row r="607" ht="16.5" customHeight="1"/>
+    <row r="608" ht="16.5" customHeight="1"/>
+    <row r="609" ht="16.5" customHeight="1"/>
+    <row r="610" ht="16.5" customHeight="1"/>
+    <row r="611" ht="16.5" customHeight="1"/>
+    <row r="612" ht="16.5" customHeight="1"/>
+    <row r="613" ht="16.5" customHeight="1"/>
+    <row r="614" ht="16.5" customHeight="1"/>
+    <row r="615" ht="16.5" customHeight="1"/>
+    <row r="616" ht="16.5" customHeight="1"/>
+    <row r="617" ht="16.5" customHeight="1"/>
+    <row r="618" ht="16.5" customHeight="1"/>
+    <row r="619" ht="16.5" customHeight="1"/>
+    <row r="620" ht="16.5" customHeight="1"/>
+    <row r="621" ht="16.5" customHeight="1"/>
+    <row r="622" ht="16.5" customHeight="1"/>
+    <row r="623" ht="16.5" customHeight="1"/>
+    <row r="624" ht="16.5" customHeight="1"/>
+    <row r="625" ht="16.5" customHeight="1"/>
+    <row r="626" ht="16.5" customHeight="1"/>
+    <row r="627" ht="16.5" customHeight="1"/>
+    <row r="628" ht="16.5" customHeight="1"/>
+    <row r="629" ht="16.5" customHeight="1"/>
+    <row r="630" ht="16.5" customHeight="1"/>
+    <row r="631" ht="16.5" customHeight="1"/>
+    <row r="632" ht="16.5" customHeight="1"/>
+    <row r="633" ht="16.5" customHeight="1"/>
+    <row r="634" ht="16.5" customHeight="1"/>
+    <row r="635" ht="16.5" customHeight="1"/>
+    <row r="636" ht="16.5" customHeight="1"/>
+    <row r="637" ht="16.5" customHeight="1"/>
+    <row r="638" ht="16.5" customHeight="1"/>
+    <row r="639" ht="16.5" customHeight="1"/>
+    <row r="640" ht="16.5" customHeight="1"/>
+    <row r="641" ht="16.5" customHeight="1"/>
+    <row r="642" ht="16.5" customHeight="1"/>
+    <row r="643" ht="16.5" customHeight="1"/>
+    <row r="644" ht="16.5" customHeight="1"/>
+    <row r="645" ht="16.5" customHeight="1"/>
+    <row r="646" ht="16.5" customHeight="1"/>
+    <row r="647" ht="16.5" customHeight="1"/>
+    <row r="648" ht="16.5" customHeight="1"/>
+    <row r="649" ht="16.5" customHeight="1"/>
+    <row r="650" ht="16.5" customHeight="1"/>
+    <row r="651" ht="16.5" customHeight="1"/>
+    <row r="652" ht="16.5" customHeight="1"/>
+    <row r="653" ht="16.5" customHeight="1"/>
+    <row r="654" ht="16.5" customHeight="1"/>
+    <row r="655" ht="16.5" customHeight="1"/>
+    <row r="656" ht="16.5" customHeight="1"/>
+    <row r="657" ht="16.5" customHeight="1"/>
+    <row r="658" ht="16.5" customHeight="1"/>
+    <row r="659" ht="16.5" customHeight="1"/>
+    <row r="660" ht="16.5" customHeight="1"/>
+    <row r="661" ht="16.5" customHeight="1"/>
+    <row r="662" ht="16.5" customHeight="1"/>
+    <row r="663" ht="16.5" customHeight="1"/>
+    <row r="664" ht="16.5" customHeight="1"/>
+    <row r="665" ht="16.5" customHeight="1"/>
+    <row r="666" ht="16.5" customHeight="1"/>
+    <row r="667" ht="16.5" customHeight="1"/>
+    <row r="668" ht="16.5" customHeight="1"/>
+    <row r="669" ht="16.5" customHeight="1"/>
+    <row r="670" ht="16.5" customHeight="1"/>
+    <row r="671" ht="16.5" customHeight="1"/>
+    <row r="672" ht="16.5" customHeight="1"/>
+    <row r="673" ht="16.5" customHeight="1"/>
+    <row r="674" ht="16.5" customHeight="1"/>
+    <row r="675" ht="16.5" customHeight="1"/>
+    <row r="676" ht="16.5" customHeight="1"/>
+    <row r="677" ht="16.5" customHeight="1"/>
+    <row r="678" ht="16.5" customHeight="1"/>
+    <row r="679" ht="16.5" customHeight="1"/>
+    <row r="680" ht="16.5" customHeight="1"/>
+    <row r="681" ht="16.5" customHeight="1"/>
+    <row r="682" ht="16.5" customHeight="1"/>
+    <row r="683" ht="16.5" customHeight="1"/>
+    <row r="684" ht="16.5" customHeight="1"/>
+    <row r="685" ht="16.5" customHeight="1"/>
+    <row r="686" ht="16.5" customHeight="1"/>
+    <row r="687" ht="16.5" customHeight="1"/>
+    <row r="688" ht="16.5" customHeight="1"/>
+    <row r="689" ht="16.5" customHeight="1"/>
+    <row r="690" ht="16.5" customHeight="1"/>
+    <row r="691" ht="16.5" customHeight="1"/>
+    <row r="692" ht="16.5" customHeight="1"/>
+    <row r="693" ht="16.5" customHeight="1"/>
+    <row r="694" ht="16.5" customHeight="1"/>
+    <row r="695" ht="16.5" customHeight="1"/>
+    <row r="696" ht="16.5" customHeight="1"/>
+    <row r="697" ht="16.5" customHeight="1"/>
+    <row r="698" ht="16.5" customHeight="1"/>
+    <row r="699" ht="16.5" customHeight="1"/>
+    <row r="700" ht="16.5" customHeight="1"/>
+    <row r="701" ht="16.5" customHeight="1"/>
+    <row r="702" ht="16.5" customHeight="1"/>
+    <row r="703" ht="16.5" customHeight="1"/>
+    <row r="704" ht="16.5" customHeight="1"/>
+    <row r="705" ht="16.5" customHeight="1"/>
+    <row r="706" ht="16.5" customHeight="1"/>
+    <row r="707" ht="16.5" customHeight="1"/>
+    <row r="708" ht="16.5" customHeight="1"/>
+    <row r="709" ht="16.5" customHeight="1"/>
+    <row r="710" ht="16.5" customHeight="1"/>
+    <row r="711" ht="16.5" customHeight="1"/>
+    <row r="712" ht="16.5" customHeight="1"/>
+    <row r="713" ht="16.5" customHeight="1"/>
+    <row r="714" ht="16.5" customHeight="1"/>
+    <row r="715" ht="16.5" customHeight="1"/>
+    <row r="716" ht="16.5" customHeight="1"/>
+    <row r="717" ht="16.5" customHeight="1"/>
+    <row r="718" ht="16.5" customHeight="1"/>
+    <row r="719" ht="16.5" customHeight="1"/>
+    <row r="720" ht="16.5" customHeight="1"/>
+    <row r="721" ht="16.5" customHeight="1"/>
+    <row r="722" ht="16.5" customHeight="1"/>
+    <row r="723" ht="16.5" customHeight="1"/>
+    <row r="724" ht="16.5" customHeight="1"/>
+    <row r="725" ht="16.5" customHeight="1"/>
+    <row r="726" ht="16.5" customHeight="1"/>
+    <row r="727" ht="16.5" customHeight="1"/>
+    <row r="728" ht="16.5" customHeight="1"/>
+    <row r="729" ht="16.5" customHeight="1"/>
+    <row r="730" ht="16.5" customHeight="1"/>
+    <row r="731" ht="16.5" customHeight="1"/>
+    <row r="732" ht="16.5" customHeight="1"/>
+    <row r="733" ht="16.5" customHeight="1"/>
+    <row r="734" ht="16.5" customHeight="1"/>
+    <row r="735" ht="16.5" customHeight="1"/>
+    <row r="736" ht="16.5" customHeight="1"/>
+    <row r="737" ht="16.5" customHeight="1"/>
+    <row r="738" ht="16.5" customHeight="1"/>
+    <row r="739" ht="16.5" customHeight="1"/>
+    <row r="740" ht="16.5" customHeight="1"/>
+    <row r="741" ht="16.5" customHeight="1"/>
+    <row r="742" ht="16.5" customHeight="1"/>
+    <row r="743" ht="16.5" customHeight="1"/>
+    <row r="744" ht="16.5" customHeight="1"/>
+    <row r="745" ht="16.5" customHeight="1"/>
+    <row r="746" ht="16.5" customHeight="1"/>
+    <row r="747" ht="16.5" customHeight="1"/>
+    <row r="748" ht="16.5" customHeight="1"/>
+    <row r="749" ht="16.5" customHeight="1"/>
+    <row r="750" ht="16.5" customHeight="1"/>
+    <row r="751" ht="16.5" customHeight="1"/>
+    <row r="752" ht="16.5" customHeight="1"/>
+    <row r="753" ht="16.5" customHeight="1"/>
+    <row r="754" ht="16.5" customHeight="1"/>
+    <row r="755" ht="16.5" customHeight="1"/>
+    <row r="756" ht="16.5" customHeight="1"/>
+    <row r="757" ht="16.5" customHeight="1"/>
+    <row r="758" ht="16.5" customHeight="1"/>
+    <row r="759" ht="16.5" customHeight="1"/>
+    <row r="760" ht="16.5" customHeight="1"/>
+    <row r="761" ht="16.5" customHeight="1"/>
+    <row r="762" ht="16.5" customHeight="1"/>
+    <row r="763" ht="16.5" customHeight="1"/>
+    <row r="764" ht="16.5" customHeight="1"/>
+    <row r="765" ht="16.5" customHeight="1"/>
+    <row r="766" ht="16.5" customHeight="1"/>
+    <row r="767" ht="16.5" customHeight="1"/>
+    <row r="768" ht="16.5" customHeight="1"/>
+    <row r="769" ht="16.5" customHeight="1"/>
+    <row r="770" ht="16.5" customHeight="1"/>
+    <row r="771" ht="16.5" customHeight="1"/>
+    <row r="772" ht="16.5" customHeight="1"/>
+    <row r="773" ht="16.5" customHeight="1"/>
+    <row r="774" ht="16.5" customHeight="1"/>
+    <row r="775" ht="16.5" customHeight="1"/>
+    <row r="776" ht="16.5" customHeight="1"/>
+    <row r="777" ht="16.5" customHeight="1"/>
+    <row r="778" ht="16.5" customHeight="1"/>
+    <row r="779" ht="16.5" customHeight="1"/>
+    <row r="780" ht="16.5" customHeight="1"/>
+    <row r="781" ht="16.5" customHeight="1"/>
+    <row r="782" ht="16.5" customHeight="1"/>
+    <row r="783" ht="16.5" customHeight="1"/>
+    <row r="784" ht="16.5" customHeight="1"/>
+    <row r="785" ht="16.5" customHeight="1"/>
+    <row r="786" ht="16.5" customHeight="1"/>
+    <row r="787" ht="16.5" customHeight="1"/>
+    <row r="788" ht="16.5" customHeight="1"/>
+    <row r="789" ht="16.5" customHeight="1"/>
+    <row r="790" ht="16.5" customHeight="1"/>
+    <row r="791" ht="16.5" customHeight="1"/>
+    <row r="792" ht="16.5" customHeight="1"/>
+    <row r="793" ht="16.5" customHeight="1"/>
+    <row r="794" ht="16.5" customHeight="1"/>
+    <row r="795" ht="16.5" customHeight="1"/>
+    <row r="796" ht="16.5" customHeight="1"/>
+    <row r="797" ht="16.5" customHeight="1"/>
+    <row r="798" ht="16.5" customHeight="1"/>
+    <row r="799" ht="16.5" customHeight="1"/>
+    <row r="800" ht="16.5" customHeight="1"/>
+    <row r="801" ht="16.5" customHeight="1"/>
+    <row r="802" ht="16.5" customHeight="1"/>
+    <row r="803" ht="16.5" customHeight="1"/>
+    <row r="804" ht="16.5" customHeight="1"/>
+    <row r="805" ht="16.5" customHeight="1"/>
+    <row r="806" ht="16.5" customHeight="1"/>
+    <row r="807" ht="16.5" customHeight="1"/>
+    <row r="808" ht="16.5" customHeight="1"/>
+    <row r="809" ht="16.5" customHeight="1"/>
+    <row r="810" ht="16.5" customHeight="1"/>
+    <row r="811" ht="16.5" customHeight="1"/>
+    <row r="812" ht="16.5" customHeight="1"/>
+    <row r="813" ht="16.5" customHeight="1"/>
+    <row r="814" ht="16.5" customHeight="1"/>
+    <row r="815" ht="16.5" customHeight="1"/>
+    <row r="816" ht="16.5" customHeight="1"/>
+    <row r="817" ht="16.5" customHeight="1"/>
+    <row r="818" ht="16.5" customHeight="1"/>
+    <row r="819" ht="16.5" customHeight="1"/>
+    <row r="820" ht="16.5" customHeight="1"/>
+    <row r="821" ht="16.5" customHeight="1"/>
+    <row r="822" ht="16.5" customHeight="1"/>
+    <row r="823" ht="16.5" customHeight="1"/>
+    <row r="824" ht="16.5" customHeight="1"/>
+    <row r="825" ht="16.5" customHeight="1"/>
+    <row r="826" ht="16.5" customHeight="1"/>
+    <row r="827" ht="16.5" customHeight="1"/>
+    <row r="828" ht="16.5" customHeight="1"/>
+    <row r="829" ht="16.5" customHeight="1"/>
+    <row r="830" ht="16.5" customHeight="1"/>
+    <row r="831" ht="16.5" customHeight="1"/>
+    <row r="832" ht="16.5" customHeight="1"/>
+    <row r="833" ht="16.5" customHeight="1"/>
+    <row r="834" ht="16.5" customHeight="1"/>
+    <row r="835" ht="16.5" customHeight="1"/>
+    <row r="836" ht="16.5" customHeight="1"/>
+    <row r="837" ht="16.5" customHeight="1"/>
+    <row r="838" ht="16.5" customHeight="1"/>
+    <row r="839" ht="16.5" customHeight="1"/>
+    <row r="840" ht="16.5" customHeight="1"/>
+    <row r="841" ht="16.5" customHeight="1"/>
+    <row r="842" ht="16.5" customHeight="1"/>
+    <row r="843" ht="16.5" customHeight="1"/>
+    <row r="844" ht="16.5" customHeight="1"/>
+    <row r="845" ht="16.5" customHeight="1"/>
+    <row r="846" ht="16.5" customHeight="1"/>
+    <row r="847" ht="16.5" customHeight="1"/>
+    <row r="848" ht="16.5" customHeight="1"/>
+    <row r="849" ht="16.5" customHeight="1"/>
+    <row r="850" ht="16.5" customHeight="1"/>
+    <row r="851" ht="16.5" customHeight="1"/>
+    <row r="852" ht="16.5" customHeight="1"/>
+    <row r="853" ht="16.5" customHeight="1"/>
+    <row r="854" ht="16.5" customHeight="1"/>
+    <row r="855" ht="16.5" customHeight="1"/>
+    <row r="856" ht="16.5" customHeight="1"/>
+    <row r="857" ht="16.5" customHeight="1"/>
+    <row r="858" ht="16.5" customHeight="1"/>
+    <row r="859" ht="16.5" customHeight="1"/>
+    <row r="860" ht="16.5" customHeight="1"/>
+    <row r="861" ht="16.5" customHeight="1"/>
+    <row r="862" ht="16.5" customHeight="1"/>
+    <row r="863" ht="16.5" customHeight="1"/>
+    <row r="864" ht="16.5" customHeight="1"/>
+    <row r="865" ht="16.5" customHeight="1"/>
+    <row r="866" ht="16.5" customHeight="1"/>
+    <row r="867" ht="16.5" customHeight="1"/>
+    <row r="868" ht="16.5" customHeight="1"/>
+    <row r="869" ht="16.5" customHeight="1"/>
+    <row r="870" ht="16.5" customHeight="1"/>
+    <row r="871" ht="16.5" customHeight="1"/>
+    <row r="872" ht="16.5" customHeight="1"/>
+    <row r="873" ht="16.5" customHeight="1"/>
+    <row r="874" ht="16.5" customHeight="1"/>
+    <row r="875" ht="16.5" customHeight="1"/>
+    <row r="876" ht="16.5" customHeight="1"/>
+    <row r="877" ht="16.5" customHeight="1"/>
+    <row r="878" ht="16.5" customHeight="1"/>
+    <row r="879" ht="16.5" customHeight="1"/>
+    <row r="880" ht="16.5" customHeight="1"/>
+    <row r="881" ht="16.5" customHeight="1"/>
+    <row r="882" ht="16.5" customHeight="1"/>
+    <row r="883" ht="16.5" customHeight="1"/>
+    <row r="884" ht="16.5" customHeight="1"/>
+    <row r="885" ht="16.5" customHeight="1"/>
+    <row r="886" ht="16.5" customHeight="1"/>
+    <row r="887" ht="16.5" customHeight="1"/>
+    <row r="888" ht="16.5" customHeight="1"/>
+    <row r="889" ht="16.5" customHeight="1"/>
+    <row r="890" ht="16.5" customHeight="1"/>
+    <row r="891" ht="16.5" customHeight="1"/>
+    <row r="892" ht="16.5" customHeight="1"/>
+    <row r="893" ht="16.5" customHeight="1"/>
+    <row r="894" ht="16.5" customHeight="1"/>
+    <row r="895" ht="16.5" customHeight="1"/>
+    <row r="896" ht="16.5" customHeight="1"/>
+    <row r="897" ht="16.5" customHeight="1"/>
+    <row r="898" ht="16.5" customHeight="1"/>
+    <row r="899" ht="16.5" customHeight="1"/>
+    <row r="900" ht="16.5" customHeight="1"/>
+    <row r="901" ht="16.5" customHeight="1"/>
+    <row r="902" ht="16.5" customHeight="1"/>
+    <row r="903" ht="16.5" customHeight="1"/>
+    <row r="904" ht="16.5" customHeight="1"/>
+    <row r="905" ht="16.5" customHeight="1"/>
+    <row r="906" ht="16.5" customHeight="1"/>
+    <row r="907" ht="16.5" customHeight="1"/>
+    <row r="908" ht="16.5" customHeight="1"/>
+    <row r="909" ht="16.5" customHeight="1"/>
+    <row r="910" ht="16.5" customHeight="1"/>
+    <row r="911" ht="16.5" customHeight="1"/>
+    <row r="912" ht="16.5" customHeight="1"/>
+    <row r="913" ht="16.5" customHeight="1"/>
+    <row r="914" ht="16.5" customHeight="1"/>
+    <row r="915" ht="16.5" customHeight="1"/>
+    <row r="916" ht="16.5" customHeight="1"/>
+    <row r="917" ht="16.5" customHeight="1"/>
+    <row r="918" ht="16.5" customHeight="1"/>
+    <row r="919" ht="16.5" customHeight="1"/>
+    <row r="920" ht="16.5" customHeight="1"/>
+    <row r="921" ht="16.5" customHeight="1"/>
+    <row r="922" ht="16.5" customHeight="1"/>
+    <row r="923" ht="16.5" customHeight="1"/>
+    <row r="924" ht="16.5" customHeight="1"/>
+    <row r="925" ht="16.5" customHeight="1"/>
+    <row r="926" ht="16.5" customHeight="1"/>
+    <row r="927" ht="16.5" customHeight="1"/>
+    <row r="928" ht="16.5" customHeight="1"/>
+    <row r="929" ht="16.5" customHeight="1"/>
+    <row r="930" ht="16.5" customHeight="1"/>
+    <row r="931" ht="16.5" customHeight="1"/>
+    <row r="932" ht="16.5" customHeight="1"/>
+    <row r="933" ht="16.5" customHeight="1"/>
+    <row r="934" ht="16.5" customHeight="1"/>
+    <row r="935" ht="16.5" customHeight="1"/>
+    <row r="936" ht="16.5" customHeight="1"/>
+    <row r="937" ht="16.5" customHeight="1"/>
+    <row r="938" ht="16.5" customHeight="1"/>
+    <row r="939" ht="16.5" customHeight="1"/>
+    <row r="940" ht="16.5" customHeight="1"/>
+    <row r="941" ht="16.5" customHeight="1"/>
+    <row r="942" ht="16.5" customHeight="1"/>
+    <row r="943" ht="16.5" customHeight="1"/>
+    <row r="944" ht="16.5" customHeight="1"/>
+    <row r="945" ht="16.5" customHeight="1"/>
+    <row r="946" ht="16.5" customHeight="1"/>
+    <row r="947" ht="16.5" customHeight="1"/>
+    <row r="948" ht="16.5" customHeight="1"/>
+    <row r="949" ht="16.5" customHeight="1"/>
+    <row r="950" ht="16.5" customHeight="1"/>
+    <row r="951" ht="16.5" customHeight="1"/>
+    <row r="952" ht="16.5" customHeight="1"/>
+    <row r="953" ht="16.5" customHeight="1"/>
+    <row r="954" ht="16.5" customHeight="1"/>
+    <row r="955" ht="16.5" customHeight="1"/>
+    <row r="956" ht="16.5" customHeight="1"/>
+    <row r="957" ht="16.5" customHeight="1"/>
+    <row r="958" ht="16.5" customHeight="1"/>
+    <row r="959" ht="16.5" customHeight="1"/>
+    <row r="960" ht="16.5" customHeight="1"/>
+    <row r="961" ht="16.5" customHeight="1"/>
+    <row r="962" ht="16.5" customHeight="1"/>
+    <row r="963" ht="16.5" customHeight="1"/>
+    <row r="964" ht="16.5" customHeight="1"/>
+    <row r="965" ht="16.5" customHeight="1"/>
+    <row r="966" ht="16.5" customHeight="1"/>
+    <row r="967" ht="16.5" customHeight="1"/>
+    <row r="968" ht="16.5" customHeight="1"/>
+    <row r="969" ht="16.5" customHeight="1"/>
+    <row r="970" ht="16.5" customHeight="1"/>
+    <row r="971" ht="16.5" customHeight="1"/>
+    <row r="972" ht="16.5" customHeight="1"/>
+    <row r="973" ht="16.5" customHeight="1"/>
+    <row r="974" ht="16.5" customHeight="1"/>
+    <row r="975" ht="16.5" customHeight="1"/>
+    <row r="976" ht="16.5" customHeight="1"/>
+    <row r="977" ht="16.5" customHeight="1"/>
+    <row r="978" ht="16.5" customHeight="1"/>
+    <row r="979" ht="16.5" customHeight="1"/>
+    <row r="980" ht="16.5" customHeight="1"/>
+    <row r="981" ht="16.5" customHeight="1"/>
+    <row r="982" ht="16.5" customHeight="1"/>
+    <row r="983" ht="16.5" customHeight="1"/>
+    <row r="984" ht="16.5" customHeight="1"/>
+    <row r="985" ht="16.5" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+</worksheet>
 </file>
--- a/1.회의록(PJE_REC_A01).xlsx
+++ b/1.회의록(PJE_REC_A01).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12168" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12168" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="19일" sheetId="9" r:id="rId4"/>
     <sheet name="22일" sheetId="10" r:id="rId5"/>
     <sheet name="23일" sheetId="11" r:id="rId6"/>
+    <sheet name="24일" sheetId="12" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="174">
   <si>
     <t>문서번호</t>
   </si>
@@ -716,10 +717,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>펏 페이지에 넣을 정보 정리</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>프론트 마지막 페이지 디테일 작업</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -761,6 +758,54 @@
   </si>
   <si>
     <t>ㄴ 사진을 여러 개 넣으면 선입선출 방식으로 처리할 예정임/직접 기계를 설계하는 것이 아니라 프로그램만 만드는 것이기 때문에…</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>오전 09:10~09:36</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>01월 24일</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 진척도</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>투명 페트병을 유리로 인식/투명 페트병을 유리로 인식</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴ 계속 돌려보면서 문제점 찾아볼 예정(건우)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정량 이상(100개)으로 데이터가 쌓일 시 재학습 진행</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>재학습 진행되는 동안 '점검중' 화면이 뜸 -&gt; 끝난 이후엔 자동으로 메인 페이지 표시</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래프도 메인 페이지에 넣는다(초록색으로 색상 변경) 2안</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래프를 메인 페이지가 아닌 ppt에만 넣는다 1안</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구사항 정의서 수정, 프로그램 목록 작성 시작</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러명이 접속할 시 어떻게 되는지 시연 필요</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>첫 페이지에 넣을 정보 정리</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1366,7 +1411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1518,6 +1563,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1977,10 +2025,10 @@
       <c r="J3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="53" t="s">
+      <c r="K3" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="L3" s="54"/>
+      <c r="L3" s="55"/>
       <c r="M3" s="7"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -2194,19 +2242,19 @@
     </row>
     <row r="11" spans="1:26" ht="21" customHeight="1">
       <c r="A11" s="5"/>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="58"/>
       <c r="M11" s="7"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -2224,17 +2272,17 @@
     </row>
     <row r="12" spans="1:26" ht="21" customHeight="1">
       <c r="A12" s="5"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="60"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="61"/>
       <c r="M12" s="7"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -2252,17 +2300,17 @@
     </row>
     <row r="13" spans="1:26" ht="21" customHeight="1">
       <c r="A13" s="5"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="60"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="61"/>
       <c r="M13" s="7"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -2280,17 +2328,17 @@
     </row>
     <row r="14" spans="1:26" ht="21" customHeight="1">
       <c r="A14" s="5"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="60"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="61"/>
       <c r="M14" s="7"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -2308,17 +2356,17 @@
     </row>
     <row r="15" spans="1:26" ht="16.5" customHeight="1">
       <c r="A15" s="5"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="63"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="64"/>
       <c r="M15" s="7"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -2508,11 +2556,11 @@
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="64">
+      <c r="F22" s="65">
         <v>45308</v>
       </c>
-      <c r="G22" s="65"/>
-      <c r="H22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="67"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
@@ -2538,9 +2586,9 @@
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="69"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="70"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -29948,10 +29996,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="71"/>
+      <c r="B1" s="72"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -31401,10 +31449,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="71"/>
+      <c r="B1" s="72"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -32724,10 +32772,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="71"/>
+      <c r="B1" s="72"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -34102,10 +34150,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="71"/>
+      <c r="B1" s="72"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -34126,7 +34174,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" customHeight="1">
@@ -35371,8 +35419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D985"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -35387,10 +35435,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="71"/>
+      <c r="B1" s="72"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -35411,7 +35459,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" customHeight="1">
@@ -35419,7 +35467,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" customHeight="1">
@@ -35562,14 +35610,14 @@
     <row r="27" spans="1:3" ht="16.5" customHeight="1">
       <c r="A27" s="15"/>
       <c r="B27" s="40" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C27" s="26"/>
     </row>
     <row r="28" spans="1:3" ht="16.5" customHeight="1">
       <c r="A28" s="15"/>
       <c r="B28" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C28" s="26"/>
     </row>
@@ -35581,21 +35629,21 @@
     <row r="30" spans="1:3" ht="16.5" customHeight="1">
       <c r="A30" s="15"/>
       <c r="B30" s="28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C30" s="26"/>
     </row>
     <row r="31" spans="1:3" ht="16.5" customHeight="1">
       <c r="A31" s="15"/>
       <c r="B31" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C31" s="26"/>
     </row>
     <row r="32" spans="1:3" ht="16.5" customHeight="1">
       <c r="A32" s="15"/>
       <c r="B32" s="28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C32" s="26"/>
     </row>
@@ -35717,7 +35765,7 @@
         <v>39</v>
       </c>
       <c r="B49" s="41" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="C49" s="35"/>
     </row>
@@ -35726,7 +35774,7 @@
         <v>37</v>
       </c>
       <c r="B50" s="41" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C50" s="35"/>
     </row>
@@ -35735,7 +35783,7 @@
         <v>40</v>
       </c>
       <c r="B51" s="41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C51" s="35"/>
     </row>
@@ -35744,7 +35792,7 @@
         <v>21</v>
       </c>
       <c r="B52" s="41" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C52" s="35"/>
     </row>
@@ -36701,4 +36749,1278 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D977"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="15.109375" style="53" customWidth="1"/>
+    <col min="2" max="2" width="130.109375" style="53" customWidth="1"/>
+    <col min="3" max="3" width="31.109375" style="53" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="53" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" style="53" customWidth="1"/>
+    <col min="6" max="26" width="8.6640625" style="53" customWidth="1"/>
+    <col min="27" max="16384" width="14.44140625" style="53"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A1" s="71" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="72"/>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14"/>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A6" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A7" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A8" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="10" spans="1:3" ht="16.5" customHeight="1" thickBot="1"/>
+    <row r="11" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A11" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+    </row>
+    <row r="12" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A12" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A13" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" s="26"/>
+    </row>
+    <row r="14" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A14" s="15"/>
+      <c r="B14" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="C14" s="26"/>
+    </row>
+    <row r="15" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A15" s="15"/>
+      <c r="B15" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" s="26"/>
+    </row>
+    <row r="16" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A16" s="15"/>
+      <c r="B16" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" s="27"/>
+    </row>
+    <row r="17" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A17" s="15"/>
+      <c r="B17" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" s="27"/>
+    </row>
+    <row r="18" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A18" s="15"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="26"/>
+    </row>
+    <row r="19" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A19" s="15"/>
+      <c r="B19" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" s="26"/>
+    </row>
+    <row r="20" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A20" s="15"/>
+      <c r="B20" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="C20" s="26"/>
+    </row>
+    <row r="21" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A21" s="15"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="26"/>
+    </row>
+    <row r="22" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A22" s="15"/>
+      <c r="B22" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="C22" s="26"/>
+    </row>
+    <row r="23" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A23" s="15"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="26"/>
+    </row>
+    <row r="24" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A24" s="15"/>
+      <c r="B24" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="C24" s="26"/>
+    </row>
+    <row r="25" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A25" s="15"/>
+      <c r="C25" s="26"/>
+    </row>
+    <row r="26" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A26" s="44"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="46"/>
+    </row>
+    <row r="27" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A27" s="39"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+    </row>
+    <row r="28" spans="1:4" ht="16.5" customHeight="1" thickBot="1"/>
+    <row r="29" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A29" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="23"/>
+    </row>
+    <row r="30" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A30" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A31" s="15"/>
+      <c r="B31" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="18"/>
+    </row>
+    <row r="32" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A32" s="15"/>
+      <c r="B32" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="18"/>
+    </row>
+    <row r="33" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A33" s="15"/>
+      <c r="B33" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="18"/>
+    </row>
+    <row r="34" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A34" s="15"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="18"/>
+    </row>
+    <row r="35" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A35" s="15"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="18"/>
+    </row>
+    <row r="36" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A36" s="19"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="33"/>
+    </row>
+    <row r="37" spans="1:4" ht="16.5" customHeight="1"/>
+    <row r="38" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A38" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A39" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" s="35"/>
+    </row>
+    <row r="40" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A40" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="41"/>
+      <c r="C40" s="35"/>
+    </row>
+    <row r="41" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A41" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="41"/>
+      <c r="C41" s="35"/>
+    </row>
+    <row r="42" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A42" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="41"/>
+      <c r="C42" s="35"/>
+    </row>
+    <row r="43" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A43" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="41"/>
+      <c r="C43" s="35"/>
+    </row>
+    <row r="44" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A44" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="C44" s="35"/>
+    </row>
+    <row r="49" spans="1:1" ht="16.5" customHeight="1">
+      <c r="A49" s="34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="16.5" customHeight="1">
+      <c r="A50" s="40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="16.5" customHeight="1">
+      <c r="A51" s="40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="16.5" customHeight="1">
+      <c r="A52" s="34"/>
+    </row>
+    <row r="53" spans="1:1" ht="16.5" customHeight="1">
+      <c r="A53" s="34"/>
+    </row>
+    <row r="54" spans="1:1" ht="16.5" customHeight="1"/>
+    <row r="55" spans="1:1" ht="16.5" customHeight="1"/>
+    <row r="56" spans="1:1" ht="16.5" customHeight="1"/>
+    <row r="57" spans="1:1" ht="16.5" customHeight="1"/>
+    <row r="58" spans="1:1" ht="16.5" customHeight="1"/>
+    <row r="59" spans="1:1" ht="16.5" customHeight="1"/>
+    <row r="60" spans="1:1" ht="16.5" customHeight="1"/>
+    <row r="61" spans="1:1" ht="16.5" customHeight="1"/>
+    <row r="62" spans="1:1" ht="16.5" customHeight="1"/>
+    <row r="63" spans="1:1" ht="16.5" customHeight="1"/>
+    <row r="64" spans="1:1" ht="16.5" customHeight="1"/>
+    <row r="65" ht="16.5" customHeight="1"/>
+    <row r="66" ht="16.5" customHeight="1"/>
+    <row r="67" ht="16.5" customHeight="1"/>
+    <row r="68" ht="16.5" customHeight="1"/>
+    <row r="69" ht="16.5" customHeight="1"/>
+    <row r="70" ht="16.5" customHeight="1"/>
+    <row r="71" ht="16.5" customHeight="1"/>
+    <row r="72" ht="16.5" customHeight="1"/>
+    <row r="73" ht="16.5" customHeight="1"/>
+    <row r="74" ht="16.5" customHeight="1"/>
+    <row r="75" ht="16.5" customHeight="1"/>
+    <row r="76" ht="16.5" customHeight="1"/>
+    <row r="77" ht="16.5" customHeight="1"/>
+    <row r="78" ht="16.5" customHeight="1"/>
+    <row r="79" ht="16.5" customHeight="1"/>
+    <row r="80" ht="16.5" customHeight="1"/>
+    <row r="81" ht="16.5" customHeight="1"/>
+    <row r="82" ht="16.5" customHeight="1"/>
+    <row r="83" ht="16.5" customHeight="1"/>
+    <row r="84" ht="16.5" customHeight="1"/>
+    <row r="85" ht="16.5" customHeight="1"/>
+    <row r="86" ht="16.5" customHeight="1"/>
+    <row r="87" ht="16.5" customHeight="1"/>
+    <row r="88" ht="16.5" customHeight="1"/>
+    <row r="89" ht="16.5" customHeight="1"/>
+    <row r="90" ht="16.5" customHeight="1"/>
+    <row r="91" ht="16.5" customHeight="1"/>
+    <row r="92" ht="16.5" customHeight="1"/>
+    <row r="93" ht="16.5" customHeight="1"/>
+    <row r="94" ht="16.5" customHeight="1"/>
+    <row r="95" ht="16.5" customHeight="1"/>
+    <row r="96" ht="16.5" customHeight="1"/>
+    <row r="97" ht="16.5" customHeight="1"/>
+    <row r="98" ht="16.5" customHeight="1"/>
+    <row r="99" ht="16.5" customHeight="1"/>
+    <row r="100" ht="16.5" customHeight="1"/>
+    <row r="101" ht="16.5" customHeight="1"/>
+    <row r="102" ht="16.5" customHeight="1"/>
+    <row r="103" ht="16.5" customHeight="1"/>
+    <row r="104" ht="16.5" customHeight="1"/>
+    <row r="105" ht="16.5" customHeight="1"/>
+    <row r="106" ht="16.5" customHeight="1"/>
+    <row r="107" ht="16.5" customHeight="1"/>
+    <row r="108" ht="16.5" customHeight="1"/>
+    <row r="109" ht="16.5" customHeight="1"/>
+    <row r="110" ht="16.5" customHeight="1"/>
+    <row r="111" ht="16.5" customHeight="1"/>
+    <row r="112" ht="16.5" customHeight="1"/>
+    <row r="113" ht="16.5" customHeight="1"/>
+    <row r="114" ht="16.5" customHeight="1"/>
+    <row r="115" ht="16.5" customHeight="1"/>
+    <row r="116" ht="16.5" customHeight="1"/>
+    <row r="117" ht="16.5" customHeight="1"/>
+    <row r="118" ht="16.5" customHeight="1"/>
+    <row r="119" ht="16.5" customHeight="1"/>
+    <row r="120" ht="16.5" customHeight="1"/>
+    <row r="121" ht="16.5" customHeight="1"/>
+    <row r="122" ht="16.5" customHeight="1"/>
+    <row r="123" ht="16.5" customHeight="1"/>
+    <row r="124" ht="16.5" customHeight="1"/>
+    <row r="125" ht="16.5" customHeight="1"/>
+    <row r="126" ht="16.5" customHeight="1"/>
+    <row r="127" ht="16.5" customHeight="1"/>
+    <row r="128" ht="16.5" customHeight="1"/>
+    <row r="129" ht="16.5" customHeight="1"/>
+    <row r="130" ht="16.5" customHeight="1"/>
+    <row r="131" ht="16.5" customHeight="1"/>
+    <row r="132" ht="16.5" customHeight="1"/>
+    <row r="133" ht="16.5" customHeight="1"/>
+    <row r="134" ht="16.5" customHeight="1"/>
+    <row r="135" ht="16.5" customHeight="1"/>
+    <row r="136" ht="16.5" customHeight="1"/>
+    <row r="137" ht="16.5" customHeight="1"/>
+    <row r="138" ht="16.5" customHeight="1"/>
+    <row r="139" ht="16.5" customHeight="1"/>
+    <row r="140" ht="16.5" customHeight="1"/>
+    <row r="141" ht="16.5" customHeight="1"/>
+    <row r="142" ht="16.5" customHeight="1"/>
+    <row r="143" ht="16.5" customHeight="1"/>
+    <row r="144" ht="16.5" customHeight="1"/>
+    <row r="145" ht="16.5" customHeight="1"/>
+    <row r="146" ht="16.5" customHeight="1"/>
+    <row r="147" ht="16.5" customHeight="1"/>
+    <row r="148" ht="16.5" customHeight="1"/>
+    <row r="149" ht="16.5" customHeight="1"/>
+    <row r="150" ht="16.5" customHeight="1"/>
+    <row r="151" ht="16.5" customHeight="1"/>
+    <row r="152" ht="16.5" customHeight="1"/>
+    <row r="153" ht="16.5" customHeight="1"/>
+    <row r="154" ht="16.5" customHeight="1"/>
+    <row r="155" ht="16.5" customHeight="1"/>
+    <row r="156" ht="16.5" customHeight="1"/>
+    <row r="157" ht="16.5" customHeight="1"/>
+    <row r="158" ht="16.5" customHeight="1"/>
+    <row r="159" ht="16.5" customHeight="1"/>
+    <row r="160" ht="16.5" customHeight="1"/>
+    <row r="161" ht="16.5" customHeight="1"/>
+    <row r="162" ht="16.5" customHeight="1"/>
+    <row r="163" ht="16.5" customHeight="1"/>
+    <row r="164" ht="16.5" customHeight="1"/>
+    <row r="165" ht="16.5" customHeight="1"/>
+    <row r="166" ht="16.5" customHeight="1"/>
+    <row r="167" ht="16.5" customHeight="1"/>
+    <row r="168" ht="16.5" customHeight="1"/>
+    <row r="169" ht="16.5" customHeight="1"/>
+    <row r="170" ht="16.5" customHeight="1"/>
+    <row r="171" ht="16.5" customHeight="1"/>
+    <row r="172" ht="16.5" customHeight="1"/>
+    <row r="173" ht="16.5" customHeight="1"/>
+    <row r="174" ht="16.5" customHeight="1"/>
+    <row r="175" ht="16.5" customHeight="1"/>
+    <row r="176" ht="16.5" customHeight="1"/>
+    <row r="177" ht="16.5" customHeight="1"/>
+    <row r="178" ht="16.5" customHeight="1"/>
+    <row r="179" ht="16.5" customHeight="1"/>
+    <row r="180" ht="16.5" customHeight="1"/>
+    <row r="181" ht="16.5" customHeight="1"/>
+    <row r="182" ht="16.5" customHeight="1"/>
+    <row r="183" ht="16.5" customHeight="1"/>
+    <row r="184" ht="16.5" customHeight="1"/>
+    <row r="185" ht="16.5" customHeight="1"/>
+    <row r="186" ht="16.5" customHeight="1"/>
+    <row r="187" ht="16.5" customHeight="1"/>
+    <row r="188" ht="16.5" customHeight="1"/>
+    <row r="189" ht="16.5" customHeight="1"/>
+    <row r="190" ht="16.5" customHeight="1"/>
+    <row r="191" ht="16.5" customHeight="1"/>
+    <row r="192" ht="16.5" customHeight="1"/>
+    <row r="193" ht="16.5" customHeight="1"/>
+    <row r="194" ht="16.5" customHeight="1"/>
+    <row r="195" ht="16.5" customHeight="1"/>
+    <row r="196" ht="16.5" customHeight="1"/>
+    <row r="197" ht="16.5" customHeight="1"/>
+    <row r="198" ht="16.5" customHeight="1"/>
+    <row r="199" ht="16.5" customHeight="1"/>
+    <row r="200" ht="16.5" customHeight="1"/>
+    <row r="201" ht="16.5" customHeight="1"/>
+    <row r="202" ht="16.5" customHeight="1"/>
+    <row r="203" ht="16.5" customHeight="1"/>
+    <row r="204" ht="16.5" customHeight="1"/>
+    <row r="205" ht="16.5" customHeight="1"/>
+    <row r="206" ht="16.5" customHeight="1"/>
+    <row r="207" ht="16.5" customHeight="1"/>
+    <row r="208" ht="16.5" customHeight="1"/>
+    <row r="209" ht="16.5" customHeight="1"/>
+    <row r="210" ht="16.5" customHeight="1"/>
+    <row r="211" ht="16.5" customHeight="1"/>
+    <row r="212" ht="16.5" customHeight="1"/>
+    <row r="213" ht="16.5" customHeight="1"/>
+    <row r="214" ht="16.5" customHeight="1"/>
+    <row r="215" ht="16.5" customHeight="1"/>
+    <row r="216" ht="16.5" customHeight="1"/>
+    <row r="217" ht="16.5" customHeight="1"/>
+    <row r="218" ht="16.5" customHeight="1"/>
+    <row r="219" ht="16.5" customHeight="1"/>
+    <row r="220" ht="16.5" customHeight="1"/>
+    <row r="221" ht="16.5" customHeight="1"/>
+    <row r="222" ht="16.5" customHeight="1"/>
+    <row r="223" ht="16.5" customHeight="1"/>
+    <row r="224" ht="16.5" customHeight="1"/>
+    <row r="225" ht="16.5" customHeight="1"/>
+    <row r="226" ht="16.5" customHeight="1"/>
+    <row r="227" ht="16.5" customHeight="1"/>
+    <row r="228" ht="16.5" customHeight="1"/>
+    <row r="229" ht="16.5" customHeight="1"/>
+    <row r="230" ht="16.5" customHeight="1"/>
+    <row r="231" ht="16.5" customHeight="1"/>
+    <row r="232" ht="16.5" customHeight="1"/>
+    <row r="233" ht="16.5" customHeight="1"/>
+    <row r="234" ht="16.5" customHeight="1"/>
+    <row r="235" ht="16.5" customHeight="1"/>
+    <row r="236" ht="16.5" customHeight="1"/>
+    <row r="237" ht="16.5" customHeight="1"/>
+    <row r="238" ht="16.5" customHeight="1"/>
+    <row r="239" ht="16.5" customHeight="1"/>
+    <row r="240" ht="16.5" customHeight="1"/>
+    <row r="241" ht="16.5" customHeight="1"/>
+    <row r="242" ht="16.5" customHeight="1"/>
+    <row r="243" ht="16.5" customHeight="1"/>
+    <row r="244" ht="16.5" customHeight="1"/>
+    <row r="245" ht="16.5" customHeight="1"/>
+    <row r="246" ht="16.5" customHeight="1"/>
+    <row r="247" ht="16.5" customHeight="1"/>
+    <row r="248" ht="16.5" customHeight="1"/>
+    <row r="249" ht="16.5" customHeight="1"/>
+    <row r="250" ht="16.5" customHeight="1"/>
+    <row r="251" ht="16.5" customHeight="1"/>
+    <row r="252" ht="16.5" customHeight="1"/>
+    <row r="253" ht="16.5" customHeight="1"/>
+    <row r="254" ht="16.5" customHeight="1"/>
+    <row r="255" ht="16.5" customHeight="1"/>
+    <row r="256" ht="16.5" customHeight="1"/>
+    <row r="257" ht="16.5" customHeight="1"/>
+    <row r="258" ht="16.5" customHeight="1"/>
+    <row r="259" ht="16.5" customHeight="1"/>
+    <row r="260" ht="16.5" customHeight="1"/>
+    <row r="261" ht="16.5" customHeight="1"/>
+    <row r="262" ht="16.5" customHeight="1"/>
+    <row r="263" ht="16.5" customHeight="1"/>
+    <row r="264" ht="16.5" customHeight="1"/>
+    <row r="265" ht="16.5" customHeight="1"/>
+    <row r="266" ht="16.5" customHeight="1"/>
+    <row r="267" ht="16.5" customHeight="1"/>
+    <row r="268" ht="16.5" customHeight="1"/>
+    <row r="269" ht="16.5" customHeight="1"/>
+    <row r="270" ht="16.5" customHeight="1"/>
+    <row r="271" ht="16.5" customHeight="1"/>
+    <row r="272" ht="16.5" customHeight="1"/>
+    <row r="273" ht="16.5" customHeight="1"/>
+    <row r="274" ht="16.5" customHeight="1"/>
+    <row r="275" ht="16.5" customHeight="1"/>
+    <row r="276" ht="16.5" customHeight="1"/>
+    <row r="277" ht="16.5" customHeight="1"/>
+    <row r="278" ht="16.5" customHeight="1"/>
+    <row r="279" ht="16.5" customHeight="1"/>
+    <row r="280" ht="16.5" customHeight="1"/>
+    <row r="281" ht="16.5" customHeight="1"/>
+    <row r="282" ht="16.5" customHeight="1"/>
+    <row r="283" ht="16.5" customHeight="1"/>
+    <row r="284" ht="16.5" customHeight="1"/>
+    <row r="285" ht="16.5" customHeight="1"/>
+    <row r="286" ht="16.5" customHeight="1"/>
+    <row r="287" ht="16.5" customHeight="1"/>
+    <row r="288" ht="16.5" customHeight="1"/>
+    <row r="289" ht="16.5" customHeight="1"/>
+    <row r="290" ht="16.5" customHeight="1"/>
+    <row r="291" ht="16.5" customHeight="1"/>
+    <row r="292" ht="16.5" customHeight="1"/>
+    <row r="293" ht="16.5" customHeight="1"/>
+    <row r="294" ht="16.5" customHeight="1"/>
+    <row r="295" ht="16.5" customHeight="1"/>
+    <row r="296" ht="16.5" customHeight="1"/>
+    <row r="297" ht="16.5" customHeight="1"/>
+    <row r="298" ht="16.5" customHeight="1"/>
+    <row r="299" ht="16.5" customHeight="1"/>
+    <row r="300" ht="16.5" customHeight="1"/>
+    <row r="301" ht="16.5" customHeight="1"/>
+    <row r="302" ht="16.5" customHeight="1"/>
+    <row r="303" ht="16.5" customHeight="1"/>
+    <row r="304" ht="16.5" customHeight="1"/>
+    <row r="305" ht="16.5" customHeight="1"/>
+    <row r="306" ht="16.5" customHeight="1"/>
+    <row r="307" ht="16.5" customHeight="1"/>
+    <row r="308" ht="16.5" customHeight="1"/>
+    <row r="309" ht="16.5" customHeight="1"/>
+    <row r="310" ht="16.5" customHeight="1"/>
+    <row r="311" ht="16.5" customHeight="1"/>
+    <row r="312" ht="16.5" customHeight="1"/>
+    <row r="313" ht="16.5" customHeight="1"/>
+    <row r="314" ht="16.5" customHeight="1"/>
+    <row r="315" ht="16.5" customHeight="1"/>
+    <row r="316" ht="16.5" customHeight="1"/>
+    <row r="317" ht="16.5" customHeight="1"/>
+    <row r="318" ht="16.5" customHeight="1"/>
+    <row r="319" ht="16.5" customHeight="1"/>
+    <row r="320" ht="16.5" customHeight="1"/>
+    <row r="321" ht="16.5" customHeight="1"/>
+    <row r="322" ht="16.5" customHeight="1"/>
+    <row r="323" ht="16.5" customHeight="1"/>
+    <row r="324" ht="16.5" customHeight="1"/>
+    <row r="325" ht="16.5" customHeight="1"/>
+    <row r="326" ht="16.5" customHeight="1"/>
+    <row r="327" ht="16.5" customHeight="1"/>
+    <row r="328" ht="16.5" customHeight="1"/>
+    <row r="329" ht="16.5" customHeight="1"/>
+    <row r="330" ht="16.5" customHeight="1"/>
+    <row r="331" ht="16.5" customHeight="1"/>
+    <row r="332" ht="16.5" customHeight="1"/>
+    <row r="333" ht="16.5" customHeight="1"/>
+    <row r="334" ht="16.5" customHeight="1"/>
+    <row r="335" ht="16.5" customHeight="1"/>
+    <row r="336" ht="16.5" customHeight="1"/>
+    <row r="337" ht="16.5" customHeight="1"/>
+    <row r="338" ht="16.5" customHeight="1"/>
+    <row r="339" ht="16.5" customHeight="1"/>
+    <row r="340" ht="16.5" customHeight="1"/>
+    <row r="341" ht="16.5" customHeight="1"/>
+    <row r="342" ht="16.5" customHeight="1"/>
+    <row r="343" ht="16.5" customHeight="1"/>
+    <row r="344" ht="16.5" customHeight="1"/>
+    <row r="345" ht="16.5" customHeight="1"/>
+    <row r="346" ht="16.5" customHeight="1"/>
+    <row r="347" ht="16.5" customHeight="1"/>
+    <row r="348" ht="16.5" customHeight="1"/>
+    <row r="349" ht="16.5" customHeight="1"/>
+    <row r="350" ht="16.5" customHeight="1"/>
+    <row r="351" ht="16.5" customHeight="1"/>
+    <row r="352" ht="16.5" customHeight="1"/>
+    <row r="353" ht="16.5" customHeight="1"/>
+    <row r="354" ht="16.5" customHeight="1"/>
+    <row r="355" ht="16.5" customHeight="1"/>
+    <row r="356" ht="16.5" customHeight="1"/>
+    <row r="357" ht="16.5" customHeight="1"/>
+    <row r="358" ht="16.5" customHeight="1"/>
+    <row r="359" ht="16.5" customHeight="1"/>
+    <row r="360" ht="16.5" customHeight="1"/>
+    <row r="361" ht="16.5" customHeight="1"/>
+    <row r="362" ht="16.5" customHeight="1"/>
+    <row r="363" ht="16.5" customHeight="1"/>
+    <row r="364" ht="16.5" customHeight="1"/>
+    <row r="365" ht="16.5" customHeight="1"/>
+    <row r="366" ht="16.5" customHeight="1"/>
+    <row r="367" ht="16.5" customHeight="1"/>
+    <row r="368" ht="16.5" customHeight="1"/>
+    <row r="369" ht="16.5" customHeight="1"/>
+    <row r="370" ht="16.5" customHeight="1"/>
+    <row r="371" ht="16.5" customHeight="1"/>
+    <row r="372" ht="16.5" customHeight="1"/>
+    <row r="373" ht="16.5" customHeight="1"/>
+    <row r="374" ht="16.5" customHeight="1"/>
+    <row r="375" ht="16.5" customHeight="1"/>
+    <row r="376" ht="16.5" customHeight="1"/>
+    <row r="377" ht="16.5" customHeight="1"/>
+    <row r="378" ht="16.5" customHeight="1"/>
+    <row r="379" ht="16.5" customHeight="1"/>
+    <row r="380" ht="16.5" customHeight="1"/>
+    <row r="381" ht="16.5" customHeight="1"/>
+    <row r="382" ht="16.5" customHeight="1"/>
+    <row r="383" ht="16.5" customHeight="1"/>
+    <row r="384" ht="16.5" customHeight="1"/>
+    <row r="385" ht="16.5" customHeight="1"/>
+    <row r="386" ht="16.5" customHeight="1"/>
+    <row r="387" ht="16.5" customHeight="1"/>
+    <row r="388" ht="16.5" customHeight="1"/>
+    <row r="389" ht="16.5" customHeight="1"/>
+    <row r="390" ht="16.5" customHeight="1"/>
+    <row r="391" ht="16.5" customHeight="1"/>
+    <row r="392" ht="16.5" customHeight="1"/>
+    <row r="393" ht="16.5" customHeight="1"/>
+    <row r="394" ht="16.5" customHeight="1"/>
+    <row r="395" ht="16.5" customHeight="1"/>
+    <row r="396" ht="16.5" customHeight="1"/>
+    <row r="397" ht="16.5" customHeight="1"/>
+    <row r="398" ht="16.5" customHeight="1"/>
+    <row r="399" ht="16.5" customHeight="1"/>
+    <row r="400" ht="16.5" customHeight="1"/>
+    <row r="401" ht="16.5" customHeight="1"/>
+    <row r="402" ht="16.5" customHeight="1"/>
+    <row r="403" ht="16.5" customHeight="1"/>
+    <row r="404" ht="16.5" customHeight="1"/>
+    <row r="405" ht="16.5" customHeight="1"/>
+    <row r="406" ht="16.5" customHeight="1"/>
+    <row r="407" ht="16.5" customHeight="1"/>
+    <row r="408" ht="16.5" customHeight="1"/>
+    <row r="409" ht="16.5" customHeight="1"/>
+    <row r="410" ht="16.5" customHeight="1"/>
+    <row r="411" ht="16.5" customHeight="1"/>
+    <row r="412" ht="16.5" customHeight="1"/>
+    <row r="413" ht="16.5" customHeight="1"/>
+    <row r="414" ht="16.5" customHeight="1"/>
+    <row r="415" ht="16.5" customHeight="1"/>
+    <row r="416" ht="16.5" customHeight="1"/>
+    <row r="417" ht="16.5" customHeight="1"/>
+    <row r="418" ht="16.5" customHeight="1"/>
+    <row r="419" ht="16.5" customHeight="1"/>
+    <row r="420" ht="16.5" customHeight="1"/>
+    <row r="421" ht="16.5" customHeight="1"/>
+    <row r="422" ht="16.5" customHeight="1"/>
+    <row r="423" ht="16.5" customHeight="1"/>
+    <row r="424" ht="16.5" customHeight="1"/>
+    <row r="425" ht="16.5" customHeight="1"/>
+    <row r="426" ht="16.5" customHeight="1"/>
+    <row r="427" ht="16.5" customHeight="1"/>
+    <row r="428" ht="16.5" customHeight="1"/>
+    <row r="429" ht="16.5" customHeight="1"/>
+    <row r="430" ht="16.5" customHeight="1"/>
+    <row r="431" ht="16.5" customHeight="1"/>
+    <row r="432" ht="16.5" customHeight="1"/>
+    <row r="433" ht="16.5" customHeight="1"/>
+    <row r="434" ht="16.5" customHeight="1"/>
+    <row r="435" ht="16.5" customHeight="1"/>
+    <row r="436" ht="16.5" customHeight="1"/>
+    <row r="437" ht="16.5" customHeight="1"/>
+    <row r="438" ht="16.5" customHeight="1"/>
+    <row r="439" ht="16.5" customHeight="1"/>
+    <row r="440" ht="16.5" customHeight="1"/>
+    <row r="441" ht="16.5" customHeight="1"/>
+    <row r="442" ht="16.5" customHeight="1"/>
+    <row r="443" ht="16.5" customHeight="1"/>
+    <row r="444" ht="16.5" customHeight="1"/>
+    <row r="445" ht="16.5" customHeight="1"/>
+    <row r="446" ht="16.5" customHeight="1"/>
+    <row r="447" ht="16.5" customHeight="1"/>
+    <row r="448" ht="16.5" customHeight="1"/>
+    <row r="449" ht="16.5" customHeight="1"/>
+    <row r="450" ht="16.5" customHeight="1"/>
+    <row r="451" ht="16.5" customHeight="1"/>
+    <row r="452" ht="16.5" customHeight="1"/>
+    <row r="453" ht="16.5" customHeight="1"/>
+    <row r="454" ht="16.5" customHeight="1"/>
+    <row r="455" ht="16.5" customHeight="1"/>
+    <row r="456" ht="16.5" customHeight="1"/>
+    <row r="457" ht="16.5" customHeight="1"/>
+    <row r="458" ht="16.5" customHeight="1"/>
+    <row r="459" ht="16.5" customHeight="1"/>
+    <row r="460" ht="16.5" customHeight="1"/>
+    <row r="461" ht="16.5" customHeight="1"/>
+    <row r="462" ht="16.5" customHeight="1"/>
+    <row r="463" ht="16.5" customHeight="1"/>
+    <row r="464" ht="16.5" customHeight="1"/>
+    <row r="465" ht="16.5" customHeight="1"/>
+    <row r="466" ht="16.5" customHeight="1"/>
+    <row r="467" ht="16.5" customHeight="1"/>
+    <row r="468" ht="16.5" customHeight="1"/>
+    <row r="469" ht="16.5" customHeight="1"/>
+    <row r="470" ht="16.5" customHeight="1"/>
+    <row r="471" ht="16.5" customHeight="1"/>
+    <row r="472" ht="16.5" customHeight="1"/>
+    <row r="473" ht="16.5" customHeight="1"/>
+    <row r="474" ht="16.5" customHeight="1"/>
+    <row r="475" ht="16.5" customHeight="1"/>
+    <row r="476" ht="16.5" customHeight="1"/>
+    <row r="477" ht="16.5" customHeight="1"/>
+    <row r="478" ht="16.5" customHeight="1"/>
+    <row r="479" ht="16.5" customHeight="1"/>
+    <row r="480" ht="16.5" customHeight="1"/>
+    <row r="481" ht="16.5" customHeight="1"/>
+    <row r="482" ht="16.5" customHeight="1"/>
+    <row r="483" ht="16.5" customHeight="1"/>
+    <row r="484" ht="16.5" customHeight="1"/>
+    <row r="485" ht="16.5" customHeight="1"/>
+    <row r="486" ht="16.5" customHeight="1"/>
+    <row r="487" ht="16.5" customHeight="1"/>
+    <row r="488" ht="16.5" customHeight="1"/>
+    <row r="489" ht="16.5" customHeight="1"/>
+    <row r="490" ht="16.5" customHeight="1"/>
+    <row r="491" ht="16.5" customHeight="1"/>
+    <row r="492" ht="16.5" customHeight="1"/>
+    <row r="493" ht="16.5" customHeight="1"/>
+    <row r="494" ht="16.5" customHeight="1"/>
+    <row r="495" ht="16.5" customHeight="1"/>
+    <row r="496" ht="16.5" customHeight="1"/>
+    <row r="497" ht="16.5" customHeight="1"/>
+    <row r="498" ht="16.5" customHeight="1"/>
+    <row r="499" ht="16.5" customHeight="1"/>
+    <row r="500" ht="16.5" customHeight="1"/>
+    <row r="501" ht="16.5" customHeight="1"/>
+    <row r="502" ht="16.5" customHeight="1"/>
+    <row r="503" ht="16.5" customHeight="1"/>
+    <row r="504" ht="16.5" customHeight="1"/>
+    <row r="505" ht="16.5" customHeight="1"/>
+    <row r="506" ht="16.5" customHeight="1"/>
+    <row r="507" ht="16.5" customHeight="1"/>
+    <row r="508" ht="16.5" customHeight="1"/>
+    <row r="509" ht="16.5" customHeight="1"/>
+    <row r="510" ht="16.5" customHeight="1"/>
+    <row r="511" ht="16.5" customHeight="1"/>
+    <row r="512" ht="16.5" customHeight="1"/>
+    <row r="513" ht="16.5" customHeight="1"/>
+    <row r="514" ht="16.5" customHeight="1"/>
+    <row r="515" ht="16.5" customHeight="1"/>
+    <row r="516" ht="16.5" customHeight="1"/>
+    <row r="517" ht="16.5" customHeight="1"/>
+    <row r="518" ht="16.5" customHeight="1"/>
+    <row r="519" ht="16.5" customHeight="1"/>
+    <row r="520" ht="16.5" customHeight="1"/>
+    <row r="521" ht="16.5" customHeight="1"/>
+    <row r="522" ht="16.5" customHeight="1"/>
+    <row r="523" ht="16.5" customHeight="1"/>
+    <row r="524" ht="16.5" customHeight="1"/>
+    <row r="525" ht="16.5" customHeight="1"/>
+    <row r="526" ht="16.5" customHeight="1"/>
+    <row r="527" ht="16.5" customHeight="1"/>
+    <row r="528" ht="16.5" customHeight="1"/>
+    <row r="529" ht="16.5" customHeight="1"/>
+    <row r="530" ht="16.5" customHeight="1"/>
+    <row r="531" ht="16.5" customHeight="1"/>
+    <row r="532" ht="16.5" customHeight="1"/>
+    <row r="533" ht="16.5" customHeight="1"/>
+    <row r="534" ht="16.5" customHeight="1"/>
+    <row r="535" ht="16.5" customHeight="1"/>
+    <row r="536" ht="16.5" customHeight="1"/>
+    <row r="537" ht="16.5" customHeight="1"/>
+    <row r="538" ht="16.5" customHeight="1"/>
+    <row r="539" ht="16.5" customHeight="1"/>
+    <row r="540" ht="16.5" customHeight="1"/>
+    <row r="541" ht="16.5" customHeight="1"/>
+    <row r="542" ht="16.5" customHeight="1"/>
+    <row r="543" ht="16.5" customHeight="1"/>
+    <row r="544" ht="16.5" customHeight="1"/>
+    <row r="545" ht="16.5" customHeight="1"/>
+    <row r="546" ht="16.5" customHeight="1"/>
+    <row r="547" ht="16.5" customHeight="1"/>
+    <row r="548" ht="16.5" customHeight="1"/>
+    <row r="549" ht="16.5" customHeight="1"/>
+    <row r="550" ht="16.5" customHeight="1"/>
+    <row r="551" ht="16.5" customHeight="1"/>
+    <row r="552" ht="16.5" customHeight="1"/>
+    <row r="553" ht="16.5" customHeight="1"/>
+    <row r="554" ht="16.5" customHeight="1"/>
+    <row r="555" ht="16.5" customHeight="1"/>
+    <row r="556" ht="16.5" customHeight="1"/>
+    <row r="557" ht="16.5" customHeight="1"/>
+    <row r="558" ht="16.5" customHeight="1"/>
+    <row r="559" ht="16.5" customHeight="1"/>
+    <row r="560" ht="16.5" customHeight="1"/>
+    <row r="561" ht="16.5" customHeight="1"/>
+    <row r="562" ht="16.5" customHeight="1"/>
+    <row r="563" ht="16.5" customHeight="1"/>
+    <row r="564" ht="16.5" customHeight="1"/>
+    <row r="565" ht="16.5" customHeight="1"/>
+    <row r="566" ht="16.5" customHeight="1"/>
+    <row r="567" ht="16.5" customHeight="1"/>
+    <row r="568" ht="16.5" customHeight="1"/>
+    <row r="569" ht="16.5" customHeight="1"/>
+    <row r="570" ht="16.5" customHeight="1"/>
+    <row r="571" ht="16.5" customHeight="1"/>
+    <row r="572" ht="16.5" customHeight="1"/>
+    <row r="573" ht="16.5" customHeight="1"/>
+    <row r="574" ht="16.5" customHeight="1"/>
+    <row r="575" ht="16.5" customHeight="1"/>
+    <row r="576" ht="16.5" customHeight="1"/>
+    <row r="577" ht="16.5" customHeight="1"/>
+    <row r="578" ht="16.5" customHeight="1"/>
+    <row r="579" ht="16.5" customHeight="1"/>
+    <row r="580" ht="16.5" customHeight="1"/>
+    <row r="581" ht="16.5" customHeight="1"/>
+    <row r="582" ht="16.5" customHeight="1"/>
+    <row r="583" ht="16.5" customHeight="1"/>
+    <row r="584" ht="16.5" customHeight="1"/>
+    <row r="585" ht="16.5" customHeight="1"/>
+    <row r="586" ht="16.5" customHeight="1"/>
+    <row r="587" ht="16.5" customHeight="1"/>
+    <row r="588" ht="16.5" customHeight="1"/>
+    <row r="589" ht="16.5" customHeight="1"/>
+    <row r="590" ht="16.5" customHeight="1"/>
+    <row r="591" ht="16.5" customHeight="1"/>
+    <row r="592" ht="16.5" customHeight="1"/>
+    <row r="593" ht="16.5" customHeight="1"/>
+    <row r="594" ht="16.5" customHeight="1"/>
+    <row r="595" ht="16.5" customHeight="1"/>
+    <row r="596" ht="16.5" customHeight="1"/>
+    <row r="597" ht="16.5" customHeight="1"/>
+    <row r="598" ht="16.5" customHeight="1"/>
+    <row r="599" ht="16.5" customHeight="1"/>
+    <row r="600" ht="16.5" customHeight="1"/>
+    <row r="601" ht="16.5" customHeight="1"/>
+    <row r="602" ht="16.5" customHeight="1"/>
+    <row r="603" ht="16.5" customHeight="1"/>
+    <row r="604" ht="16.5" customHeight="1"/>
+    <row r="605" ht="16.5" customHeight="1"/>
+    <row r="606" ht="16.5" customHeight="1"/>
+    <row r="607" ht="16.5" customHeight="1"/>
+    <row r="608" ht="16.5" customHeight="1"/>
+    <row r="609" ht="16.5" customHeight="1"/>
+    <row r="610" ht="16.5" customHeight="1"/>
+    <row r="611" ht="16.5" customHeight="1"/>
+    <row r="612" ht="16.5" customHeight="1"/>
+    <row r="613" ht="16.5" customHeight="1"/>
+    <row r="614" ht="16.5" customHeight="1"/>
+    <row r="615" ht="16.5" customHeight="1"/>
+    <row r="616" ht="16.5" customHeight="1"/>
+    <row r="617" ht="16.5" customHeight="1"/>
+    <row r="618" ht="16.5" customHeight="1"/>
+    <row r="619" ht="16.5" customHeight="1"/>
+    <row r="620" ht="16.5" customHeight="1"/>
+    <row r="621" ht="16.5" customHeight="1"/>
+    <row r="622" ht="16.5" customHeight="1"/>
+    <row r="623" ht="16.5" customHeight="1"/>
+    <row r="624" ht="16.5" customHeight="1"/>
+    <row r="625" ht="16.5" customHeight="1"/>
+    <row r="626" ht="16.5" customHeight="1"/>
+    <row r="627" ht="16.5" customHeight="1"/>
+    <row r="628" ht="16.5" customHeight="1"/>
+    <row r="629" ht="16.5" customHeight="1"/>
+    <row r="630" ht="16.5" customHeight="1"/>
+    <row r="631" ht="16.5" customHeight="1"/>
+    <row r="632" ht="16.5" customHeight="1"/>
+    <row r="633" ht="16.5" customHeight="1"/>
+    <row r="634" ht="16.5" customHeight="1"/>
+    <row r="635" ht="16.5" customHeight="1"/>
+    <row r="636" ht="16.5" customHeight="1"/>
+    <row r="637" ht="16.5" customHeight="1"/>
+    <row r="638" ht="16.5" customHeight="1"/>
+    <row r="639" ht="16.5" customHeight="1"/>
+    <row r="640" ht="16.5" customHeight="1"/>
+    <row r="641" ht="16.5" customHeight="1"/>
+    <row r="642" ht="16.5" customHeight="1"/>
+    <row r="643" ht="16.5" customHeight="1"/>
+    <row r="644" ht="16.5" customHeight="1"/>
+    <row r="645" ht="16.5" customHeight="1"/>
+    <row r="646" ht="16.5" customHeight="1"/>
+    <row r="647" ht="16.5" customHeight="1"/>
+    <row r="648" ht="16.5" customHeight="1"/>
+    <row r="649" ht="16.5" customHeight="1"/>
+    <row r="650" ht="16.5" customHeight="1"/>
+    <row r="651" ht="16.5" customHeight="1"/>
+    <row r="652" ht="16.5" customHeight="1"/>
+    <row r="653" ht="16.5" customHeight="1"/>
+    <row r="654" ht="16.5" customHeight="1"/>
+    <row r="655" ht="16.5" customHeight="1"/>
+    <row r="656" ht="16.5" customHeight="1"/>
+    <row r="657" ht="16.5" customHeight="1"/>
+    <row r="658" ht="16.5" customHeight="1"/>
+    <row r="659" ht="16.5" customHeight="1"/>
+    <row r="660" ht="16.5" customHeight="1"/>
+    <row r="661" ht="16.5" customHeight="1"/>
+    <row r="662" ht="16.5" customHeight="1"/>
+    <row r="663" ht="16.5" customHeight="1"/>
+    <row r="664" ht="16.5" customHeight="1"/>
+    <row r="665" ht="16.5" customHeight="1"/>
+    <row r="666" ht="16.5" customHeight="1"/>
+    <row r="667" ht="16.5" customHeight="1"/>
+    <row r="668" ht="16.5" customHeight="1"/>
+    <row r="669" ht="16.5" customHeight="1"/>
+    <row r="670" ht="16.5" customHeight="1"/>
+    <row r="671" ht="16.5" customHeight="1"/>
+    <row r="672" ht="16.5" customHeight="1"/>
+    <row r="673" ht="16.5" customHeight="1"/>
+    <row r="674" ht="16.5" customHeight="1"/>
+    <row r="675" ht="16.5" customHeight="1"/>
+    <row r="676" ht="16.5" customHeight="1"/>
+    <row r="677" ht="16.5" customHeight="1"/>
+    <row r="678" ht="16.5" customHeight="1"/>
+    <row r="679" ht="16.5" customHeight="1"/>
+    <row r="680" ht="16.5" customHeight="1"/>
+    <row r="681" ht="16.5" customHeight="1"/>
+    <row r="682" ht="16.5" customHeight="1"/>
+    <row r="683" ht="16.5" customHeight="1"/>
+    <row r="684" ht="16.5" customHeight="1"/>
+    <row r="685" ht="16.5" customHeight="1"/>
+    <row r="686" ht="16.5" customHeight="1"/>
+    <row r="687" ht="16.5" customHeight="1"/>
+    <row r="688" ht="16.5" customHeight="1"/>
+    <row r="689" ht="16.5" customHeight="1"/>
+    <row r="690" ht="16.5" customHeight="1"/>
+    <row r="691" ht="16.5" customHeight="1"/>
+    <row r="692" ht="16.5" customHeight="1"/>
+    <row r="693" ht="16.5" customHeight="1"/>
+    <row r="694" ht="16.5" customHeight="1"/>
+    <row r="695" ht="16.5" customHeight="1"/>
+    <row r="696" ht="16.5" customHeight="1"/>
+    <row r="697" ht="16.5" customHeight="1"/>
+    <row r="698" ht="16.5" customHeight="1"/>
+    <row r="699" ht="16.5" customHeight="1"/>
+    <row r="700" ht="16.5" customHeight="1"/>
+    <row r="701" ht="16.5" customHeight="1"/>
+    <row r="702" ht="16.5" customHeight="1"/>
+    <row r="703" ht="16.5" customHeight="1"/>
+    <row r="704" ht="16.5" customHeight="1"/>
+    <row r="705" ht="16.5" customHeight="1"/>
+    <row r="706" ht="16.5" customHeight="1"/>
+    <row r="707" ht="16.5" customHeight="1"/>
+    <row r="708" ht="16.5" customHeight="1"/>
+    <row r="709" ht="16.5" customHeight="1"/>
+    <row r="710" ht="16.5" customHeight="1"/>
+    <row r="711" ht="16.5" customHeight="1"/>
+    <row r="712" ht="16.5" customHeight="1"/>
+    <row r="713" ht="16.5" customHeight="1"/>
+    <row r="714" ht="16.5" customHeight="1"/>
+    <row r="715" ht="16.5" customHeight="1"/>
+    <row r="716" ht="16.5" customHeight="1"/>
+    <row r="717" ht="16.5" customHeight="1"/>
+    <row r="718" ht="16.5" customHeight="1"/>
+    <row r="719" ht="16.5" customHeight="1"/>
+    <row r="720" ht="16.5" customHeight="1"/>
+    <row r="721" ht="16.5" customHeight="1"/>
+    <row r="722" ht="16.5" customHeight="1"/>
+    <row r="723" ht="16.5" customHeight="1"/>
+    <row r="724" ht="16.5" customHeight="1"/>
+    <row r="725" ht="16.5" customHeight="1"/>
+    <row r="726" ht="16.5" customHeight="1"/>
+    <row r="727" ht="16.5" customHeight="1"/>
+    <row r="728" ht="16.5" customHeight="1"/>
+    <row r="729" ht="16.5" customHeight="1"/>
+    <row r="730" ht="16.5" customHeight="1"/>
+    <row r="731" ht="16.5" customHeight="1"/>
+    <row r="732" ht="16.5" customHeight="1"/>
+    <row r="733" ht="16.5" customHeight="1"/>
+    <row r="734" ht="16.5" customHeight="1"/>
+    <row r="735" ht="16.5" customHeight="1"/>
+    <row r="736" ht="16.5" customHeight="1"/>
+    <row r="737" ht="16.5" customHeight="1"/>
+    <row r="738" ht="16.5" customHeight="1"/>
+    <row r="739" ht="16.5" customHeight="1"/>
+    <row r="740" ht="16.5" customHeight="1"/>
+    <row r="741" ht="16.5" customHeight="1"/>
+    <row r="742" ht="16.5" customHeight="1"/>
+    <row r="743" ht="16.5" customHeight="1"/>
+    <row r="744" ht="16.5" customHeight="1"/>
+    <row r="745" ht="16.5" customHeight="1"/>
+    <row r="746" ht="16.5" customHeight="1"/>
+    <row r="747" ht="16.5" customHeight="1"/>
+    <row r="748" ht="16.5" customHeight="1"/>
+    <row r="749" ht="16.5" customHeight="1"/>
+    <row r="750" ht="16.5" customHeight="1"/>
+    <row r="751" ht="16.5" customHeight="1"/>
+    <row r="752" ht="16.5" customHeight="1"/>
+    <row r="753" ht="16.5" customHeight="1"/>
+    <row r="754" ht="16.5" customHeight="1"/>
+    <row r="755" ht="16.5" customHeight="1"/>
+    <row r="756" ht="16.5" customHeight="1"/>
+    <row r="757" ht="16.5" customHeight="1"/>
+    <row r="758" ht="16.5" customHeight="1"/>
+    <row r="759" ht="16.5" customHeight="1"/>
+    <row r="760" ht="16.5" customHeight="1"/>
+    <row r="761" ht="16.5" customHeight="1"/>
+    <row r="762" ht="16.5" customHeight="1"/>
+    <row r="763" ht="16.5" customHeight="1"/>
+    <row r="764" ht="16.5" customHeight="1"/>
+    <row r="765" ht="16.5" customHeight="1"/>
+    <row r="766" ht="16.5" customHeight="1"/>
+    <row r="767" ht="16.5" customHeight="1"/>
+    <row r="768" ht="16.5" customHeight="1"/>
+    <row r="769" ht="16.5" customHeight="1"/>
+    <row r="770" ht="16.5" customHeight="1"/>
+    <row r="771" ht="16.5" customHeight="1"/>
+    <row r="772" ht="16.5" customHeight="1"/>
+    <row r="773" ht="16.5" customHeight="1"/>
+    <row r="774" ht="16.5" customHeight="1"/>
+    <row r="775" ht="16.5" customHeight="1"/>
+    <row r="776" ht="16.5" customHeight="1"/>
+    <row r="777" ht="16.5" customHeight="1"/>
+    <row r="778" ht="16.5" customHeight="1"/>
+    <row r="779" ht="16.5" customHeight="1"/>
+    <row r="780" ht="16.5" customHeight="1"/>
+    <row r="781" ht="16.5" customHeight="1"/>
+    <row r="782" ht="16.5" customHeight="1"/>
+    <row r="783" ht="16.5" customHeight="1"/>
+    <row r="784" ht="16.5" customHeight="1"/>
+    <row r="785" ht="16.5" customHeight="1"/>
+    <row r="786" ht="16.5" customHeight="1"/>
+    <row r="787" ht="16.5" customHeight="1"/>
+    <row r="788" ht="16.5" customHeight="1"/>
+    <row r="789" ht="16.5" customHeight="1"/>
+    <row r="790" ht="16.5" customHeight="1"/>
+    <row r="791" ht="16.5" customHeight="1"/>
+    <row r="792" ht="16.5" customHeight="1"/>
+    <row r="793" ht="16.5" customHeight="1"/>
+    <row r="794" ht="16.5" customHeight="1"/>
+    <row r="795" ht="16.5" customHeight="1"/>
+    <row r="796" ht="16.5" customHeight="1"/>
+    <row r="797" ht="16.5" customHeight="1"/>
+    <row r="798" ht="16.5" customHeight="1"/>
+    <row r="799" ht="16.5" customHeight="1"/>
+    <row r="800" ht="16.5" customHeight="1"/>
+    <row r="801" ht="16.5" customHeight="1"/>
+    <row r="802" ht="16.5" customHeight="1"/>
+    <row r="803" ht="16.5" customHeight="1"/>
+    <row r="804" ht="16.5" customHeight="1"/>
+    <row r="805" ht="16.5" customHeight="1"/>
+    <row r="806" ht="16.5" customHeight="1"/>
+    <row r="807" ht="16.5" customHeight="1"/>
+    <row r="808" ht="16.5" customHeight="1"/>
+    <row r="809" ht="16.5" customHeight="1"/>
+    <row r="810" ht="16.5" customHeight="1"/>
+    <row r="811" ht="16.5" customHeight="1"/>
+    <row r="812" ht="16.5" customHeight="1"/>
+    <row r="813" ht="16.5" customHeight="1"/>
+    <row r="814" ht="16.5" customHeight="1"/>
+    <row r="815" ht="16.5" customHeight="1"/>
+    <row r="816" ht="16.5" customHeight="1"/>
+    <row r="817" ht="16.5" customHeight="1"/>
+    <row r="818" ht="16.5" customHeight="1"/>
+    <row r="819" ht="16.5" customHeight="1"/>
+    <row r="820" ht="16.5" customHeight="1"/>
+    <row r="821" ht="16.5" customHeight="1"/>
+    <row r="822" ht="16.5" customHeight="1"/>
+    <row r="823" ht="16.5" customHeight="1"/>
+    <row r="824" ht="16.5" customHeight="1"/>
+    <row r="825" ht="16.5" customHeight="1"/>
+    <row r="826" ht="16.5" customHeight="1"/>
+    <row r="827" ht="16.5" customHeight="1"/>
+    <row r="828" ht="16.5" customHeight="1"/>
+    <row r="829" ht="16.5" customHeight="1"/>
+    <row r="830" ht="16.5" customHeight="1"/>
+    <row r="831" ht="16.5" customHeight="1"/>
+    <row r="832" ht="16.5" customHeight="1"/>
+    <row r="833" ht="16.5" customHeight="1"/>
+    <row r="834" ht="16.5" customHeight="1"/>
+    <row r="835" ht="16.5" customHeight="1"/>
+    <row r="836" ht="16.5" customHeight="1"/>
+    <row r="837" ht="16.5" customHeight="1"/>
+    <row r="838" ht="16.5" customHeight="1"/>
+    <row r="839" ht="16.5" customHeight="1"/>
+    <row r="840" ht="16.5" customHeight="1"/>
+    <row r="841" ht="16.5" customHeight="1"/>
+    <row r="842" ht="16.5" customHeight="1"/>
+    <row r="843" ht="16.5" customHeight="1"/>
+    <row r="844" ht="16.5" customHeight="1"/>
+    <row r="845" ht="16.5" customHeight="1"/>
+    <row r="846" ht="16.5" customHeight="1"/>
+    <row r="847" ht="16.5" customHeight="1"/>
+    <row r="848" ht="16.5" customHeight="1"/>
+    <row r="849" ht="16.5" customHeight="1"/>
+    <row r="850" ht="16.5" customHeight="1"/>
+    <row r="851" ht="16.5" customHeight="1"/>
+    <row r="852" ht="16.5" customHeight="1"/>
+    <row r="853" ht="16.5" customHeight="1"/>
+    <row r="854" ht="16.5" customHeight="1"/>
+    <row r="855" ht="16.5" customHeight="1"/>
+    <row r="856" ht="16.5" customHeight="1"/>
+    <row r="857" ht="16.5" customHeight="1"/>
+    <row r="858" ht="16.5" customHeight="1"/>
+    <row r="859" ht="16.5" customHeight="1"/>
+    <row r="860" ht="16.5" customHeight="1"/>
+    <row r="861" ht="16.5" customHeight="1"/>
+    <row r="862" ht="16.5" customHeight="1"/>
+    <row r="863" ht="16.5" customHeight="1"/>
+    <row r="864" ht="16.5" customHeight="1"/>
+    <row r="865" ht="16.5" customHeight="1"/>
+    <row r="866" ht="16.5" customHeight="1"/>
+    <row r="867" ht="16.5" customHeight="1"/>
+    <row r="868" ht="16.5" customHeight="1"/>
+    <row r="869" ht="16.5" customHeight="1"/>
+    <row r="870" ht="16.5" customHeight="1"/>
+    <row r="871" ht="16.5" customHeight="1"/>
+    <row r="872" ht="16.5" customHeight="1"/>
+    <row r="873" ht="16.5" customHeight="1"/>
+    <row r="874" ht="16.5" customHeight="1"/>
+    <row r="875" ht="16.5" customHeight="1"/>
+    <row r="876" ht="16.5" customHeight="1"/>
+    <row r="877" ht="16.5" customHeight="1"/>
+    <row r="878" ht="16.5" customHeight="1"/>
+    <row r="879" ht="16.5" customHeight="1"/>
+    <row r="880" ht="16.5" customHeight="1"/>
+    <row r="881" ht="16.5" customHeight="1"/>
+    <row r="882" ht="16.5" customHeight="1"/>
+    <row r="883" ht="16.5" customHeight="1"/>
+    <row r="884" ht="16.5" customHeight="1"/>
+    <row r="885" ht="16.5" customHeight="1"/>
+    <row r="886" ht="16.5" customHeight="1"/>
+    <row r="887" ht="16.5" customHeight="1"/>
+    <row r="888" ht="16.5" customHeight="1"/>
+    <row r="889" ht="16.5" customHeight="1"/>
+    <row r="890" ht="16.5" customHeight="1"/>
+    <row r="891" ht="16.5" customHeight="1"/>
+    <row r="892" ht="16.5" customHeight="1"/>
+    <row r="893" ht="16.5" customHeight="1"/>
+    <row r="894" ht="16.5" customHeight="1"/>
+    <row r="895" ht="16.5" customHeight="1"/>
+    <row r="896" ht="16.5" customHeight="1"/>
+    <row r="897" ht="16.5" customHeight="1"/>
+    <row r="898" ht="16.5" customHeight="1"/>
+    <row r="899" ht="16.5" customHeight="1"/>
+    <row r="900" ht="16.5" customHeight="1"/>
+    <row r="901" ht="16.5" customHeight="1"/>
+    <row r="902" ht="16.5" customHeight="1"/>
+    <row r="903" ht="16.5" customHeight="1"/>
+    <row r="904" ht="16.5" customHeight="1"/>
+    <row r="905" ht="16.5" customHeight="1"/>
+    <row r="906" ht="16.5" customHeight="1"/>
+    <row r="907" ht="16.5" customHeight="1"/>
+    <row r="908" ht="16.5" customHeight="1"/>
+    <row r="909" ht="16.5" customHeight="1"/>
+    <row r="910" ht="16.5" customHeight="1"/>
+    <row r="911" ht="16.5" customHeight="1"/>
+    <row r="912" ht="16.5" customHeight="1"/>
+    <row r="913" ht="16.5" customHeight="1"/>
+    <row r="914" ht="16.5" customHeight="1"/>
+    <row r="915" ht="16.5" customHeight="1"/>
+    <row r="916" ht="16.5" customHeight="1"/>
+    <row r="917" ht="16.5" customHeight="1"/>
+    <row r="918" ht="16.5" customHeight="1"/>
+    <row r="919" ht="16.5" customHeight="1"/>
+    <row r="920" ht="16.5" customHeight="1"/>
+    <row r="921" ht="16.5" customHeight="1"/>
+    <row r="922" ht="16.5" customHeight="1"/>
+    <row r="923" ht="16.5" customHeight="1"/>
+    <row r="924" ht="16.5" customHeight="1"/>
+    <row r="925" ht="16.5" customHeight="1"/>
+    <row r="926" ht="16.5" customHeight="1"/>
+    <row r="927" ht="16.5" customHeight="1"/>
+    <row r="928" ht="16.5" customHeight="1"/>
+    <row r="929" ht="16.5" customHeight="1"/>
+    <row r="930" ht="16.5" customHeight="1"/>
+    <row r="931" ht="16.5" customHeight="1"/>
+    <row r="932" ht="16.5" customHeight="1"/>
+    <row r="933" ht="16.5" customHeight="1"/>
+    <row r="934" ht="16.5" customHeight="1"/>
+    <row r="935" ht="16.5" customHeight="1"/>
+    <row r="936" ht="16.5" customHeight="1"/>
+    <row r="937" ht="16.5" customHeight="1"/>
+    <row r="938" ht="16.5" customHeight="1"/>
+    <row r="939" ht="16.5" customHeight="1"/>
+    <row r="940" ht="16.5" customHeight="1"/>
+    <row r="941" ht="16.5" customHeight="1"/>
+    <row r="942" ht="16.5" customHeight="1"/>
+    <row r="943" ht="16.5" customHeight="1"/>
+    <row r="944" ht="16.5" customHeight="1"/>
+    <row r="945" ht="16.5" customHeight="1"/>
+    <row r="946" ht="16.5" customHeight="1"/>
+    <row r="947" ht="16.5" customHeight="1"/>
+    <row r="948" ht="16.5" customHeight="1"/>
+    <row r="949" ht="16.5" customHeight="1"/>
+    <row r="950" ht="16.5" customHeight="1"/>
+    <row r="951" ht="16.5" customHeight="1"/>
+    <row r="952" ht="16.5" customHeight="1"/>
+    <row r="953" ht="16.5" customHeight="1"/>
+    <row r="954" ht="16.5" customHeight="1"/>
+    <row r="955" ht="16.5" customHeight="1"/>
+    <row r="956" ht="16.5" customHeight="1"/>
+    <row r="957" ht="16.5" customHeight="1"/>
+    <row r="958" ht="16.5" customHeight="1"/>
+    <row r="959" ht="16.5" customHeight="1"/>
+    <row r="960" ht="16.5" customHeight="1"/>
+    <row r="961" ht="16.5" customHeight="1"/>
+    <row r="962" ht="16.5" customHeight="1"/>
+    <row r="963" ht="16.5" customHeight="1"/>
+    <row r="964" ht="16.5" customHeight="1"/>
+    <row r="965" ht="16.5" customHeight="1"/>
+    <row r="966" ht="16.5" customHeight="1"/>
+    <row r="967" ht="16.5" customHeight="1"/>
+    <row r="968" ht="16.5" customHeight="1"/>
+    <row r="969" ht="16.5" customHeight="1"/>
+    <row r="970" ht="16.5" customHeight="1"/>
+    <row r="971" ht="16.5" customHeight="1"/>
+    <row r="972" ht="16.5" customHeight="1"/>
+    <row r="973" ht="16.5" customHeight="1"/>
+    <row r="974" ht="16.5" customHeight="1"/>
+    <row r="975" ht="16.5" customHeight="1"/>
+    <row r="976" ht="16.5" customHeight="1"/>
+    <row r="977" ht="16.5" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+</worksheet>
 </file>
--- a/1.회의록(PJE_REC_A01).xlsx
+++ b/1.회의록(PJE_REC_A01).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12168" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12168" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="22일" sheetId="10" r:id="rId5"/>
     <sheet name="23일" sheetId="11" r:id="rId6"/>
     <sheet name="24일" sheetId="12" r:id="rId7"/>
+    <sheet name="25일" sheetId="13" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="201">
   <si>
     <t>문서번호</t>
   </si>
@@ -773,10 +774,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>투명 페트병을 유리로 인식/투명 페트병을 유리로 인식</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄴ 계속 돌려보면서 문제점 찾아볼 예정(건우)</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -806,6 +803,144 @@
   </si>
   <si>
     <t>첫 페이지에 넣을 정보 정리</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘 할 일</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로그램 목록</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ppt 마무리-윤주</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>모달, 마지막 페이지 디테일-재빈</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로그램 목록-태환</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이블이 늘어날수록 loss는 적어지고 정확도는 높아짐</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>위의 이유는?</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류별 특징을 더 잘 학습해서?</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류 한 가지의 정확도가 올라서 평균이 오름?</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>시연 주소 10.10.21.89:3000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>백엔드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>프론트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>학습 모델 생성 중</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>학습 모델 생성 중</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>발표 스크립트 및 회의록 작성</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>강화학습</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>오전 09:10~09:30</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>강화학습(점검)까지 시연</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ppt</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹 페이지 마무리</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹 페이지 마무리</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>정확도 높아지는 이유 찾기</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>투명 페트병을 유리로 인식/유리를 투명 페트병으로 인식</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>투명 페트병과 유리를 헷갈리는 이유 찾기</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>재학습 시 점검중 화면 표시되도록 프론트 작성</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구사항 정의서 수정, 프로그램 목록</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>강화 학습 백엔드 코드 작성</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ppt 만들기 시작</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -29981,8 +30116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1004"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -30389,8 +30524,12 @@
     </row>
     <row r="60" spans="1:4" s="42" customFormat="1" ht="16.5" customHeight="1">
       <c r="A60" s="15"/>
-      <c r="B60" s="37"/>
-      <c r="C60" s="37"/>
+      <c r="B60" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C60" s="37" t="s">
+        <v>94</v>
+      </c>
       <c r="D60" s="18"/>
     </row>
     <row r="61" spans="1:4" s="42" customFormat="1" ht="16.5" customHeight="1">
@@ -31433,8 +31572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D984"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -32756,8 +32895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D992"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -33144,35 +33283,45 @@
       <c r="A55" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B55" s="41"/>
+      <c r="B55" s="41" t="s">
+        <v>185</v>
+      </c>
       <c r="C55" s="35"/>
     </row>
     <row r="56" spans="1:4" ht="16.5" customHeight="1">
       <c r="A56" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="B56" s="41"/>
+      <c r="B56" s="41" t="s">
+        <v>186</v>
+      </c>
       <c r="C56" s="35"/>
     </row>
     <row r="57" spans="1:4" ht="16.5" customHeight="1">
       <c r="A57" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B57" s="41"/>
+      <c r="B57" s="41" t="s">
+        <v>183</v>
+      </c>
       <c r="C57" s="35"/>
     </row>
     <row r="58" spans="1:4" ht="16.5" customHeight="1">
       <c r="A58" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B58" s="41"/>
+      <c r="B58" s="41" t="s">
+        <v>184</v>
+      </c>
       <c r="C58" s="35"/>
     </row>
     <row r="59" spans="1:4" ht="16.5" customHeight="1">
       <c r="A59" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B59" s="41"/>
+      <c r="B59" s="41" t="s">
+        <v>101</v>
+      </c>
       <c r="C59" s="35"/>
     </row>
     <row r="64" spans="1:4" ht="16.5" customHeight="1">
@@ -34134,8 +34283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D979"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -34429,35 +34578,45 @@
       <c r="A42" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="41"/>
+      <c r="B42" s="41" t="s">
+        <v>185</v>
+      </c>
       <c r="C42" s="35"/>
     </row>
     <row r="43" spans="1:4" ht="16.5" customHeight="1">
       <c r="A43" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="41"/>
+      <c r="B43" s="41" t="s">
+        <v>186</v>
+      </c>
       <c r="C43" s="35"/>
     </row>
     <row r="44" spans="1:4" ht="16.5" customHeight="1">
       <c r="A44" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B44" s="41"/>
+      <c r="B44" s="41" t="s">
+        <v>183</v>
+      </c>
       <c r="C44" s="35"/>
     </row>
     <row r="45" spans="1:4" ht="16.5" customHeight="1">
       <c r="A45" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B45" s="41"/>
+      <c r="B45" s="41" t="s">
+        <v>184</v>
+      </c>
       <c r="C45" s="35"/>
     </row>
     <row r="46" spans="1:4" ht="16.5" customHeight="1">
       <c r="A46" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="41"/>
+      <c r="B46" s="41" t="s">
+        <v>187</v>
+      </c>
       <c r="C46" s="35"/>
     </row>
     <row r="51" spans="1:1" ht="16.5" customHeight="1">
@@ -35419,7 +35578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D985"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
@@ -35747,7 +35906,7 @@
         <v>32</v>
       </c>
       <c r="B47" s="41" t="s">
-        <v>96</v>
+        <v>188</v>
       </c>
       <c r="C47" s="35"/>
     </row>
@@ -35765,7 +35924,7 @@
         <v>39</v>
       </c>
       <c r="B49" s="41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C49" s="35"/>
     </row>
@@ -36755,8 +36914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D977"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -36862,28 +37021,28 @@
     <row r="14" spans="1:3" ht="16.5" customHeight="1">
       <c r="A14" s="15"/>
       <c r="B14" s="28" t="s">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="C14" s="26"/>
     </row>
     <row r="15" spans="1:3" ht="16.5" customHeight="1">
       <c r="A15" s="15"/>
       <c r="B15" s="28" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C15" s="26"/>
     </row>
     <row r="16" spans="1:3" ht="16.5" customHeight="1">
       <c r="A16" s="15"/>
       <c r="B16" s="28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C16" s="27"/>
     </row>
     <row r="17" spans="1:4" ht="16.5" customHeight="1">
       <c r="A17" s="15"/>
       <c r="B17" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C17" s="27"/>
     </row>
@@ -36895,14 +37054,14 @@
     <row r="19" spans="1:4" ht="16.5" customHeight="1">
       <c r="A19" s="15"/>
       <c r="B19" s="28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C19" s="26"/>
     </row>
     <row r="20" spans="1:4" ht="16.5" customHeight="1">
       <c r="A20" s="15"/>
       <c r="B20" s="28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C20" s="26"/>
     </row>
@@ -36914,7 +37073,7 @@
     <row r="22" spans="1:4" ht="16.5" customHeight="1">
       <c r="A22" s="15"/>
       <c r="B22" s="28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C22" s="26"/>
     </row>
@@ -36926,7 +37085,7 @@
     <row r="24" spans="1:4" ht="16.5" customHeight="1">
       <c r="A24" s="15"/>
       <c r="B24" s="40" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C24" s="26"/>
     </row>
@@ -37029,7 +37188,7 @@
         <v>32</v>
       </c>
       <c r="B39" s="41" t="s">
-        <v>96</v>
+        <v>198</v>
       </c>
       <c r="C39" s="35"/>
     </row>
@@ -37037,28 +37196,36 @@
       <c r="A40" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="41"/>
+      <c r="B40" s="41" t="s">
+        <v>196</v>
+      </c>
       <c r="C40" s="35"/>
     </row>
     <row r="41" spans="1:4" ht="16.5" customHeight="1">
       <c r="A41" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="41"/>
+      <c r="B41" s="41" t="s">
+        <v>200</v>
+      </c>
       <c r="C41" s="35"/>
     </row>
     <row r="42" spans="1:4" ht="16.5" customHeight="1">
       <c r="A42" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="41"/>
+      <c r="B42" s="41" t="s">
+        <v>199</v>
+      </c>
       <c r="C42" s="35"/>
     </row>
     <row r="43" spans="1:4" ht="16.5" customHeight="1">
       <c r="A43" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="41"/>
+      <c r="B43" s="41" t="s">
+        <v>197</v>
+      </c>
       <c r="C43" s="35"/>
     </row>
     <row r="44" spans="1:4" ht="16.5" customHeight="1">
@@ -38023,4 +38190,1283 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D976"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="15.109375" style="53" customWidth="1"/>
+    <col min="2" max="2" width="130.109375" style="53" customWidth="1"/>
+    <col min="3" max="3" width="31.109375" style="53" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="53" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" style="53" customWidth="1"/>
+    <col min="6" max="26" width="8.6640625" style="53" customWidth="1"/>
+    <col min="27" max="16384" width="14.44140625" style="53"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A1" s="71" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="72"/>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14"/>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A6" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A7" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A8" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="10" spans="1:3" ht="16.5" customHeight="1" thickBot="1"/>
+    <row r="11" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A11" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+    </row>
+    <row r="12" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A12" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A13" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="26"/>
+    </row>
+    <row r="14" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A14" s="15"/>
+      <c r="B14" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="C14" s="26"/>
+    </row>
+    <row r="15" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A15" s="15"/>
+      <c r="B15" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="C15" s="26"/>
+    </row>
+    <row r="16" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A16" s="15"/>
+      <c r="B16" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="C16" s="27"/>
+    </row>
+    <row r="17" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A17" s="15"/>
+      <c r="C17" s="27"/>
+    </row>
+    <row r="18" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A18" s="15"/>
+      <c r="B18" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="C18" s="26"/>
+    </row>
+    <row r="19" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A19" s="15"/>
+      <c r="B19" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="C19" s="26"/>
+    </row>
+    <row r="20" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A20" s="15"/>
+      <c r="B20" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="C20" s="26"/>
+    </row>
+    <row r="21" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A21" s="15"/>
+      <c r="B21" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="C21" s="26"/>
+    </row>
+    <row r="22" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A22" s="15"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="26"/>
+    </row>
+    <row r="23" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A23" s="15"/>
+      <c r="B23" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="C23" s="26"/>
+    </row>
+    <row r="24" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A24" s="15"/>
+      <c r="B24" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="C24" s="26"/>
+    </row>
+    <row r="25" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A25" s="44"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="46"/>
+    </row>
+    <row r="26" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A26" s="39"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+    </row>
+    <row r="27" spans="1:4" ht="16.5" customHeight="1" thickBot="1"/>
+    <row r="28" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A28" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="23"/>
+    </row>
+    <row r="29" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A29" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A30" s="15"/>
+      <c r="B30" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="18"/>
+    </row>
+    <row r="31" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A31" s="15"/>
+      <c r="B31" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="18"/>
+    </row>
+    <row r="32" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A32" s="15"/>
+      <c r="B32" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="18"/>
+    </row>
+    <row r="33" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A33" s="15"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="18"/>
+    </row>
+    <row r="34" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A34" s="15"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="18"/>
+    </row>
+    <row r="35" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A35" s="19"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="33"/>
+    </row>
+    <row r="36" spans="1:4" ht="16.5" customHeight="1"/>
+    <row r="37" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A37" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A38" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="C38" s="35"/>
+    </row>
+    <row r="39" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A39" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="C39" s="35"/>
+    </row>
+    <row r="40" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A40" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="C40" s="35"/>
+    </row>
+    <row r="41" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A41" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="C41" s="35"/>
+    </row>
+    <row r="42" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A42" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="C42" s="35"/>
+    </row>
+    <row r="43" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A43" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="C43" s="35"/>
+    </row>
+    <row r="48" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A48" s="34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="16.5" customHeight="1">
+      <c r="A49" s="40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="16.5" customHeight="1">
+      <c r="A50" s="40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="16.5" customHeight="1">
+      <c r="A51" s="34"/>
+    </row>
+    <row r="52" spans="1:1" ht="16.5" customHeight="1">
+      <c r="A52" s="34"/>
+    </row>
+    <row r="53" spans="1:1" ht="16.5" customHeight="1"/>
+    <row r="54" spans="1:1" ht="16.5" customHeight="1"/>
+    <row r="55" spans="1:1" ht="16.5" customHeight="1"/>
+    <row r="56" spans="1:1" ht="16.5" customHeight="1"/>
+    <row r="57" spans="1:1" ht="16.5" customHeight="1"/>
+    <row r="58" spans="1:1" ht="16.5" customHeight="1"/>
+    <row r="59" spans="1:1" ht="16.5" customHeight="1"/>
+    <row r="60" spans="1:1" ht="16.5" customHeight="1"/>
+    <row r="61" spans="1:1" ht="16.5" customHeight="1"/>
+    <row r="62" spans="1:1" ht="16.5" customHeight="1"/>
+    <row r="63" spans="1:1" ht="16.5" customHeight="1"/>
+    <row r="64" spans="1:1" ht="16.5" customHeight="1"/>
+    <row r="65" ht="16.5" customHeight="1"/>
+    <row r="66" ht="16.5" customHeight="1"/>
+    <row r="67" ht="16.5" customHeight="1"/>
+    <row r="68" ht="16.5" customHeight="1"/>
+    <row r="69" ht="16.5" customHeight="1"/>
+    <row r="70" ht="16.5" customHeight="1"/>
+    <row r="71" ht="16.5" customHeight="1"/>
+    <row r="72" ht="16.5" customHeight="1"/>
+    <row r="73" ht="16.5" customHeight="1"/>
+    <row r="74" ht="16.5" customHeight="1"/>
+    <row r="75" ht="16.5" customHeight="1"/>
+    <row r="76" ht="16.5" customHeight="1"/>
+    <row r="77" ht="16.5" customHeight="1"/>
+    <row r="78" ht="16.5" customHeight="1"/>
+    <row r="79" ht="16.5" customHeight="1"/>
+    <row r="80" ht="16.5" customHeight="1"/>
+    <row r="81" ht="16.5" customHeight="1"/>
+    <row r="82" ht="16.5" customHeight="1"/>
+    <row r="83" ht="16.5" customHeight="1"/>
+    <row r="84" ht="16.5" customHeight="1"/>
+    <row r="85" ht="16.5" customHeight="1"/>
+    <row r="86" ht="16.5" customHeight="1"/>
+    <row r="87" ht="16.5" customHeight="1"/>
+    <row r="88" ht="16.5" customHeight="1"/>
+    <row r="89" ht="16.5" customHeight="1"/>
+    <row r="90" ht="16.5" customHeight="1"/>
+    <row r="91" ht="16.5" customHeight="1"/>
+    <row r="92" ht="16.5" customHeight="1"/>
+    <row r="93" ht="16.5" customHeight="1"/>
+    <row r="94" ht="16.5" customHeight="1"/>
+    <row r="95" ht="16.5" customHeight="1"/>
+    <row r="96" ht="16.5" customHeight="1"/>
+    <row r="97" ht="16.5" customHeight="1"/>
+    <row r="98" ht="16.5" customHeight="1"/>
+    <row r="99" ht="16.5" customHeight="1"/>
+    <row r="100" ht="16.5" customHeight="1"/>
+    <row r="101" ht="16.5" customHeight="1"/>
+    <row r="102" ht="16.5" customHeight="1"/>
+    <row r="103" ht="16.5" customHeight="1"/>
+    <row r="104" ht="16.5" customHeight="1"/>
+    <row r="105" ht="16.5" customHeight="1"/>
+    <row r="106" ht="16.5" customHeight="1"/>
+    <row r="107" ht="16.5" customHeight="1"/>
+    <row r="108" ht="16.5" customHeight="1"/>
+    <row r="109" ht="16.5" customHeight="1"/>
+    <row r="110" ht="16.5" customHeight="1"/>
+    <row r="111" ht="16.5" customHeight="1"/>
+    <row r="112" ht="16.5" customHeight="1"/>
+    <row r="113" ht="16.5" customHeight="1"/>
+    <row r="114" ht="16.5" customHeight="1"/>
+    <row r="115" ht="16.5" customHeight="1"/>
+    <row r="116" ht="16.5" customHeight="1"/>
+    <row r="117" ht="16.5" customHeight="1"/>
+    <row r="118" ht="16.5" customHeight="1"/>
+    <row r="119" ht="16.5" customHeight="1"/>
+    <row r="120" ht="16.5" customHeight="1"/>
+    <row r="121" ht="16.5" customHeight="1"/>
+    <row r="122" ht="16.5" customHeight="1"/>
+    <row r="123" ht="16.5" customHeight="1"/>
+    <row r="124" ht="16.5" customHeight="1"/>
+    <row r="125" ht="16.5" customHeight="1"/>
+    <row r="126" ht="16.5" customHeight="1"/>
+    <row r="127" ht="16.5" customHeight="1"/>
+    <row r="128" ht="16.5" customHeight="1"/>
+    <row r="129" ht="16.5" customHeight="1"/>
+    <row r="130" ht="16.5" customHeight="1"/>
+    <row r="131" ht="16.5" customHeight="1"/>
+    <row r="132" ht="16.5" customHeight="1"/>
+    <row r="133" ht="16.5" customHeight="1"/>
+    <row r="134" ht="16.5" customHeight="1"/>
+    <row r="135" ht="16.5" customHeight="1"/>
+    <row r="136" ht="16.5" customHeight="1"/>
+    <row r="137" ht="16.5" customHeight="1"/>
+    <row r="138" ht="16.5" customHeight="1"/>
+    <row r="139" ht="16.5" customHeight="1"/>
+    <row r="140" ht="16.5" customHeight="1"/>
+    <row r="141" ht="16.5" customHeight="1"/>
+    <row r="142" ht="16.5" customHeight="1"/>
+    <row r="143" ht="16.5" customHeight="1"/>
+    <row r="144" ht="16.5" customHeight="1"/>
+    <row r="145" ht="16.5" customHeight="1"/>
+    <row r="146" ht="16.5" customHeight="1"/>
+    <row r="147" ht="16.5" customHeight="1"/>
+    <row r="148" ht="16.5" customHeight="1"/>
+    <row r="149" ht="16.5" customHeight="1"/>
+    <row r="150" ht="16.5" customHeight="1"/>
+    <row r="151" ht="16.5" customHeight="1"/>
+    <row r="152" ht="16.5" customHeight="1"/>
+    <row r="153" ht="16.5" customHeight="1"/>
+    <row r="154" ht="16.5" customHeight="1"/>
+    <row r="155" ht="16.5" customHeight="1"/>
+    <row r="156" ht="16.5" customHeight="1"/>
+    <row r="157" ht="16.5" customHeight="1"/>
+    <row r="158" ht="16.5" customHeight="1"/>
+    <row r="159" ht="16.5" customHeight="1"/>
+    <row r="160" ht="16.5" customHeight="1"/>
+    <row r="161" ht="16.5" customHeight="1"/>
+    <row r="162" ht="16.5" customHeight="1"/>
+    <row r="163" ht="16.5" customHeight="1"/>
+    <row r="164" ht="16.5" customHeight="1"/>
+    <row r="165" ht="16.5" customHeight="1"/>
+    <row r="166" ht="16.5" customHeight="1"/>
+    <row r="167" ht="16.5" customHeight="1"/>
+    <row r="168" ht="16.5" customHeight="1"/>
+    <row r="169" ht="16.5" customHeight="1"/>
+    <row r="170" ht="16.5" customHeight="1"/>
+    <row r="171" ht="16.5" customHeight="1"/>
+    <row r="172" ht="16.5" customHeight="1"/>
+    <row r="173" ht="16.5" customHeight="1"/>
+    <row r="174" ht="16.5" customHeight="1"/>
+    <row r="175" ht="16.5" customHeight="1"/>
+    <row r="176" ht="16.5" customHeight="1"/>
+    <row r="177" ht="16.5" customHeight="1"/>
+    <row r="178" ht="16.5" customHeight="1"/>
+    <row r="179" ht="16.5" customHeight="1"/>
+    <row r="180" ht="16.5" customHeight="1"/>
+    <row r="181" ht="16.5" customHeight="1"/>
+    <row r="182" ht="16.5" customHeight="1"/>
+    <row r="183" ht="16.5" customHeight="1"/>
+    <row r="184" ht="16.5" customHeight="1"/>
+    <row r="185" ht="16.5" customHeight="1"/>
+    <row r="186" ht="16.5" customHeight="1"/>
+    <row r="187" ht="16.5" customHeight="1"/>
+    <row r="188" ht="16.5" customHeight="1"/>
+    <row r="189" ht="16.5" customHeight="1"/>
+    <row r="190" ht="16.5" customHeight="1"/>
+    <row r="191" ht="16.5" customHeight="1"/>
+    <row r="192" ht="16.5" customHeight="1"/>
+    <row r="193" ht="16.5" customHeight="1"/>
+    <row r="194" ht="16.5" customHeight="1"/>
+    <row r="195" ht="16.5" customHeight="1"/>
+    <row r="196" ht="16.5" customHeight="1"/>
+    <row r="197" ht="16.5" customHeight="1"/>
+    <row r="198" ht="16.5" customHeight="1"/>
+    <row r="199" ht="16.5" customHeight="1"/>
+    <row r="200" ht="16.5" customHeight="1"/>
+    <row r="201" ht="16.5" customHeight="1"/>
+    <row r="202" ht="16.5" customHeight="1"/>
+    <row r="203" ht="16.5" customHeight="1"/>
+    <row r="204" ht="16.5" customHeight="1"/>
+    <row r="205" ht="16.5" customHeight="1"/>
+    <row r="206" ht="16.5" customHeight="1"/>
+    <row r="207" ht="16.5" customHeight="1"/>
+    <row r="208" ht="16.5" customHeight="1"/>
+    <row r="209" ht="16.5" customHeight="1"/>
+    <row r="210" ht="16.5" customHeight="1"/>
+    <row r="211" ht="16.5" customHeight="1"/>
+    <row r="212" ht="16.5" customHeight="1"/>
+    <row r="213" ht="16.5" customHeight="1"/>
+    <row r="214" ht="16.5" customHeight="1"/>
+    <row r="215" ht="16.5" customHeight="1"/>
+    <row r="216" ht="16.5" customHeight="1"/>
+    <row r="217" ht="16.5" customHeight="1"/>
+    <row r="218" ht="16.5" customHeight="1"/>
+    <row r="219" ht="16.5" customHeight="1"/>
+    <row r="220" ht="16.5" customHeight="1"/>
+    <row r="221" ht="16.5" customHeight="1"/>
+    <row r="222" ht="16.5" customHeight="1"/>
+    <row r="223" ht="16.5" customHeight="1"/>
+    <row r="224" ht="16.5" customHeight="1"/>
+    <row r="225" ht="16.5" customHeight="1"/>
+    <row r="226" ht="16.5" customHeight="1"/>
+    <row r="227" ht="16.5" customHeight="1"/>
+    <row r="228" ht="16.5" customHeight="1"/>
+    <row r="229" ht="16.5" customHeight="1"/>
+    <row r="230" ht="16.5" customHeight="1"/>
+    <row r="231" ht="16.5" customHeight="1"/>
+    <row r="232" ht="16.5" customHeight="1"/>
+    <row r="233" ht="16.5" customHeight="1"/>
+    <row r="234" ht="16.5" customHeight="1"/>
+    <row r="235" ht="16.5" customHeight="1"/>
+    <row r="236" ht="16.5" customHeight="1"/>
+    <row r="237" ht="16.5" customHeight="1"/>
+    <row r="238" ht="16.5" customHeight="1"/>
+    <row r="239" ht="16.5" customHeight="1"/>
+    <row r="240" ht="16.5" customHeight="1"/>
+    <row r="241" ht="16.5" customHeight="1"/>
+    <row r="242" ht="16.5" customHeight="1"/>
+    <row r="243" ht="16.5" customHeight="1"/>
+    <row r="244" ht="16.5" customHeight="1"/>
+    <row r="245" ht="16.5" customHeight="1"/>
+    <row r="246" ht="16.5" customHeight="1"/>
+    <row r="247" ht="16.5" customHeight="1"/>
+    <row r="248" ht="16.5" customHeight="1"/>
+    <row r="249" ht="16.5" customHeight="1"/>
+    <row r="250" ht="16.5" customHeight="1"/>
+    <row r="251" ht="16.5" customHeight="1"/>
+    <row r="252" ht="16.5" customHeight="1"/>
+    <row r="253" ht="16.5" customHeight="1"/>
+    <row r="254" ht="16.5" customHeight="1"/>
+    <row r="255" ht="16.5" customHeight="1"/>
+    <row r="256" ht="16.5" customHeight="1"/>
+    <row r="257" ht="16.5" customHeight="1"/>
+    <row r="258" ht="16.5" customHeight="1"/>
+    <row r="259" ht="16.5" customHeight="1"/>
+    <row r="260" ht="16.5" customHeight="1"/>
+    <row r="261" ht="16.5" customHeight="1"/>
+    <row r="262" ht="16.5" customHeight="1"/>
+    <row r="263" ht="16.5" customHeight="1"/>
+    <row r="264" ht="16.5" customHeight="1"/>
+    <row r="265" ht="16.5" customHeight="1"/>
+    <row r="266" ht="16.5" customHeight="1"/>
+    <row r="267" ht="16.5" customHeight="1"/>
+    <row r="268" ht="16.5" customHeight="1"/>
+    <row r="269" ht="16.5" customHeight="1"/>
+    <row r="270" ht="16.5" customHeight="1"/>
+    <row r="271" ht="16.5" customHeight="1"/>
+    <row r="272" ht="16.5" customHeight="1"/>
+    <row r="273" ht="16.5" customHeight="1"/>
+    <row r="274" ht="16.5" customHeight="1"/>
+    <row r="275" ht="16.5" customHeight="1"/>
+    <row r="276" ht="16.5" customHeight="1"/>
+    <row r="277" ht="16.5" customHeight="1"/>
+    <row r="278" ht="16.5" customHeight="1"/>
+    <row r="279" ht="16.5" customHeight="1"/>
+    <row r="280" ht="16.5" customHeight="1"/>
+    <row r="281" ht="16.5" customHeight="1"/>
+    <row r="282" ht="16.5" customHeight="1"/>
+    <row r="283" ht="16.5" customHeight="1"/>
+    <row r="284" ht="16.5" customHeight="1"/>
+    <row r="285" ht="16.5" customHeight="1"/>
+    <row r="286" ht="16.5" customHeight="1"/>
+    <row r="287" ht="16.5" customHeight="1"/>
+    <row r="288" ht="16.5" customHeight="1"/>
+    <row r="289" ht="16.5" customHeight="1"/>
+    <row r="290" ht="16.5" customHeight="1"/>
+    <row r="291" ht="16.5" customHeight="1"/>
+    <row r="292" ht="16.5" customHeight="1"/>
+    <row r="293" ht="16.5" customHeight="1"/>
+    <row r="294" ht="16.5" customHeight="1"/>
+    <row r="295" ht="16.5" customHeight="1"/>
+    <row r="296" ht="16.5" customHeight="1"/>
+    <row r="297" ht="16.5" customHeight="1"/>
+    <row r="298" ht="16.5" customHeight="1"/>
+    <row r="299" ht="16.5" customHeight="1"/>
+    <row r="300" ht="16.5" customHeight="1"/>
+    <row r="301" ht="16.5" customHeight="1"/>
+    <row r="302" ht="16.5" customHeight="1"/>
+    <row r="303" ht="16.5" customHeight="1"/>
+    <row r="304" ht="16.5" customHeight="1"/>
+    <row r="305" ht="16.5" customHeight="1"/>
+    <row r="306" ht="16.5" customHeight="1"/>
+    <row r="307" ht="16.5" customHeight="1"/>
+    <row r="308" ht="16.5" customHeight="1"/>
+    <row r="309" ht="16.5" customHeight="1"/>
+    <row r="310" ht="16.5" customHeight="1"/>
+    <row r="311" ht="16.5" customHeight="1"/>
+    <row r="312" ht="16.5" customHeight="1"/>
+    <row r="313" ht="16.5" customHeight="1"/>
+    <row r="314" ht="16.5" customHeight="1"/>
+    <row r="315" ht="16.5" customHeight="1"/>
+    <row r="316" ht="16.5" customHeight="1"/>
+    <row r="317" ht="16.5" customHeight="1"/>
+    <row r="318" ht="16.5" customHeight="1"/>
+    <row r="319" ht="16.5" customHeight="1"/>
+    <row r="320" ht="16.5" customHeight="1"/>
+    <row r="321" ht="16.5" customHeight="1"/>
+    <row r="322" ht="16.5" customHeight="1"/>
+    <row r="323" ht="16.5" customHeight="1"/>
+    <row r="324" ht="16.5" customHeight="1"/>
+    <row r="325" ht="16.5" customHeight="1"/>
+    <row r="326" ht="16.5" customHeight="1"/>
+    <row r="327" ht="16.5" customHeight="1"/>
+    <row r="328" ht="16.5" customHeight="1"/>
+    <row r="329" ht="16.5" customHeight="1"/>
+    <row r="330" ht="16.5" customHeight="1"/>
+    <row r="331" ht="16.5" customHeight="1"/>
+    <row r="332" ht="16.5" customHeight="1"/>
+    <row r="333" ht="16.5" customHeight="1"/>
+    <row r="334" ht="16.5" customHeight="1"/>
+    <row r="335" ht="16.5" customHeight="1"/>
+    <row r="336" ht="16.5" customHeight="1"/>
+    <row r="337" ht="16.5" customHeight="1"/>
+    <row r="338" ht="16.5" customHeight="1"/>
+    <row r="339" ht="16.5" customHeight="1"/>
+    <row r="340" ht="16.5" customHeight="1"/>
+    <row r="341" ht="16.5" customHeight="1"/>
+    <row r="342" ht="16.5" customHeight="1"/>
+    <row r="343" ht="16.5" customHeight="1"/>
+    <row r="344" ht="16.5" customHeight="1"/>
+    <row r="345" ht="16.5" customHeight="1"/>
+    <row r="346" ht="16.5" customHeight="1"/>
+    <row r="347" ht="16.5" customHeight="1"/>
+    <row r="348" ht="16.5" customHeight="1"/>
+    <row r="349" ht="16.5" customHeight="1"/>
+    <row r="350" ht="16.5" customHeight="1"/>
+    <row r="351" ht="16.5" customHeight="1"/>
+    <row r="352" ht="16.5" customHeight="1"/>
+    <row r="353" ht="16.5" customHeight="1"/>
+    <row r="354" ht="16.5" customHeight="1"/>
+    <row r="355" ht="16.5" customHeight="1"/>
+    <row r="356" ht="16.5" customHeight="1"/>
+    <row r="357" ht="16.5" customHeight="1"/>
+    <row r="358" ht="16.5" customHeight="1"/>
+    <row r="359" ht="16.5" customHeight="1"/>
+    <row r="360" ht="16.5" customHeight="1"/>
+    <row r="361" ht="16.5" customHeight="1"/>
+    <row r="362" ht="16.5" customHeight="1"/>
+    <row r="363" ht="16.5" customHeight="1"/>
+    <row r="364" ht="16.5" customHeight="1"/>
+    <row r="365" ht="16.5" customHeight="1"/>
+    <row r="366" ht="16.5" customHeight="1"/>
+    <row r="367" ht="16.5" customHeight="1"/>
+    <row r="368" ht="16.5" customHeight="1"/>
+    <row r="369" ht="16.5" customHeight="1"/>
+    <row r="370" ht="16.5" customHeight="1"/>
+    <row r="371" ht="16.5" customHeight="1"/>
+    <row r="372" ht="16.5" customHeight="1"/>
+    <row r="373" ht="16.5" customHeight="1"/>
+    <row r="374" ht="16.5" customHeight="1"/>
+    <row r="375" ht="16.5" customHeight="1"/>
+    <row r="376" ht="16.5" customHeight="1"/>
+    <row r="377" ht="16.5" customHeight="1"/>
+    <row r="378" ht="16.5" customHeight="1"/>
+    <row r="379" ht="16.5" customHeight="1"/>
+    <row r="380" ht="16.5" customHeight="1"/>
+    <row r="381" ht="16.5" customHeight="1"/>
+    <row r="382" ht="16.5" customHeight="1"/>
+    <row r="383" ht="16.5" customHeight="1"/>
+    <row r="384" ht="16.5" customHeight="1"/>
+    <row r="385" ht="16.5" customHeight="1"/>
+    <row r="386" ht="16.5" customHeight="1"/>
+    <row r="387" ht="16.5" customHeight="1"/>
+    <row r="388" ht="16.5" customHeight="1"/>
+    <row r="389" ht="16.5" customHeight="1"/>
+    <row r="390" ht="16.5" customHeight="1"/>
+    <row r="391" ht="16.5" customHeight="1"/>
+    <row r="392" ht="16.5" customHeight="1"/>
+    <row r="393" ht="16.5" customHeight="1"/>
+    <row r="394" ht="16.5" customHeight="1"/>
+    <row r="395" ht="16.5" customHeight="1"/>
+    <row r="396" ht="16.5" customHeight="1"/>
+    <row r="397" ht="16.5" customHeight="1"/>
+    <row r="398" ht="16.5" customHeight="1"/>
+    <row r="399" ht="16.5" customHeight="1"/>
+    <row r="400" ht="16.5" customHeight="1"/>
+    <row r="401" ht="16.5" customHeight="1"/>
+    <row r="402" ht="16.5" customHeight="1"/>
+    <row r="403" ht="16.5" customHeight="1"/>
+    <row r="404" ht="16.5" customHeight="1"/>
+    <row r="405" ht="16.5" customHeight="1"/>
+    <row r="406" ht="16.5" customHeight="1"/>
+    <row r="407" ht="16.5" customHeight="1"/>
+    <row r="408" ht="16.5" customHeight="1"/>
+    <row r="409" ht="16.5" customHeight="1"/>
+    <row r="410" ht="16.5" customHeight="1"/>
+    <row r="411" ht="16.5" customHeight="1"/>
+    <row r="412" ht="16.5" customHeight="1"/>
+    <row r="413" ht="16.5" customHeight="1"/>
+    <row r="414" ht="16.5" customHeight="1"/>
+    <row r="415" ht="16.5" customHeight="1"/>
+    <row r="416" ht="16.5" customHeight="1"/>
+    <row r="417" ht="16.5" customHeight="1"/>
+    <row r="418" ht="16.5" customHeight="1"/>
+    <row r="419" ht="16.5" customHeight="1"/>
+    <row r="420" ht="16.5" customHeight="1"/>
+    <row r="421" ht="16.5" customHeight="1"/>
+    <row r="422" ht="16.5" customHeight="1"/>
+    <row r="423" ht="16.5" customHeight="1"/>
+    <row r="424" ht="16.5" customHeight="1"/>
+    <row r="425" ht="16.5" customHeight="1"/>
+    <row r="426" ht="16.5" customHeight="1"/>
+    <row r="427" ht="16.5" customHeight="1"/>
+    <row r="428" ht="16.5" customHeight="1"/>
+    <row r="429" ht="16.5" customHeight="1"/>
+    <row r="430" ht="16.5" customHeight="1"/>
+    <row r="431" ht="16.5" customHeight="1"/>
+    <row r="432" ht="16.5" customHeight="1"/>
+    <row r="433" ht="16.5" customHeight="1"/>
+    <row r="434" ht="16.5" customHeight="1"/>
+    <row r="435" ht="16.5" customHeight="1"/>
+    <row r="436" ht="16.5" customHeight="1"/>
+    <row r="437" ht="16.5" customHeight="1"/>
+    <row r="438" ht="16.5" customHeight="1"/>
+    <row r="439" ht="16.5" customHeight="1"/>
+    <row r="440" ht="16.5" customHeight="1"/>
+    <row r="441" ht="16.5" customHeight="1"/>
+    <row r="442" ht="16.5" customHeight="1"/>
+    <row r="443" ht="16.5" customHeight="1"/>
+    <row r="444" ht="16.5" customHeight="1"/>
+    <row r="445" ht="16.5" customHeight="1"/>
+    <row r="446" ht="16.5" customHeight="1"/>
+    <row r="447" ht="16.5" customHeight="1"/>
+    <row r="448" ht="16.5" customHeight="1"/>
+    <row r="449" ht="16.5" customHeight="1"/>
+    <row r="450" ht="16.5" customHeight="1"/>
+    <row r="451" ht="16.5" customHeight="1"/>
+    <row r="452" ht="16.5" customHeight="1"/>
+    <row r="453" ht="16.5" customHeight="1"/>
+    <row r="454" ht="16.5" customHeight="1"/>
+    <row r="455" ht="16.5" customHeight="1"/>
+    <row r="456" ht="16.5" customHeight="1"/>
+    <row r="457" ht="16.5" customHeight="1"/>
+    <row r="458" ht="16.5" customHeight="1"/>
+    <row r="459" ht="16.5" customHeight="1"/>
+    <row r="460" ht="16.5" customHeight="1"/>
+    <row r="461" ht="16.5" customHeight="1"/>
+    <row r="462" ht="16.5" customHeight="1"/>
+    <row r="463" ht="16.5" customHeight="1"/>
+    <row r="464" ht="16.5" customHeight="1"/>
+    <row r="465" ht="16.5" customHeight="1"/>
+    <row r="466" ht="16.5" customHeight="1"/>
+    <row r="467" ht="16.5" customHeight="1"/>
+    <row r="468" ht="16.5" customHeight="1"/>
+    <row r="469" ht="16.5" customHeight="1"/>
+    <row r="470" ht="16.5" customHeight="1"/>
+    <row r="471" ht="16.5" customHeight="1"/>
+    <row r="472" ht="16.5" customHeight="1"/>
+    <row r="473" ht="16.5" customHeight="1"/>
+    <row r="474" ht="16.5" customHeight="1"/>
+    <row r="475" ht="16.5" customHeight="1"/>
+    <row r="476" ht="16.5" customHeight="1"/>
+    <row r="477" ht="16.5" customHeight="1"/>
+    <row r="478" ht="16.5" customHeight="1"/>
+    <row r="479" ht="16.5" customHeight="1"/>
+    <row r="480" ht="16.5" customHeight="1"/>
+    <row r="481" ht="16.5" customHeight="1"/>
+    <row r="482" ht="16.5" customHeight="1"/>
+    <row r="483" ht="16.5" customHeight="1"/>
+    <row r="484" ht="16.5" customHeight="1"/>
+    <row r="485" ht="16.5" customHeight="1"/>
+    <row r="486" ht="16.5" customHeight="1"/>
+    <row r="487" ht="16.5" customHeight="1"/>
+    <row r="488" ht="16.5" customHeight="1"/>
+    <row r="489" ht="16.5" customHeight="1"/>
+    <row r="490" ht="16.5" customHeight="1"/>
+    <row r="491" ht="16.5" customHeight="1"/>
+    <row r="492" ht="16.5" customHeight="1"/>
+    <row r="493" ht="16.5" customHeight="1"/>
+    <row r="494" ht="16.5" customHeight="1"/>
+    <row r="495" ht="16.5" customHeight="1"/>
+    <row r="496" ht="16.5" customHeight="1"/>
+    <row r="497" ht="16.5" customHeight="1"/>
+    <row r="498" ht="16.5" customHeight="1"/>
+    <row r="499" ht="16.5" customHeight="1"/>
+    <row r="500" ht="16.5" customHeight="1"/>
+    <row r="501" ht="16.5" customHeight="1"/>
+    <row r="502" ht="16.5" customHeight="1"/>
+    <row r="503" ht="16.5" customHeight="1"/>
+    <row r="504" ht="16.5" customHeight="1"/>
+    <row r="505" ht="16.5" customHeight="1"/>
+    <row r="506" ht="16.5" customHeight="1"/>
+    <row r="507" ht="16.5" customHeight="1"/>
+    <row r="508" ht="16.5" customHeight="1"/>
+    <row r="509" ht="16.5" customHeight="1"/>
+    <row r="510" ht="16.5" customHeight="1"/>
+    <row r="511" ht="16.5" customHeight="1"/>
+    <row r="512" ht="16.5" customHeight="1"/>
+    <row r="513" ht="16.5" customHeight="1"/>
+    <row r="514" ht="16.5" customHeight="1"/>
+    <row r="515" ht="16.5" customHeight="1"/>
+    <row r="516" ht="16.5" customHeight="1"/>
+    <row r="517" ht="16.5" customHeight="1"/>
+    <row r="518" ht="16.5" customHeight="1"/>
+    <row r="519" ht="16.5" customHeight="1"/>
+    <row r="520" ht="16.5" customHeight="1"/>
+    <row r="521" ht="16.5" customHeight="1"/>
+    <row r="522" ht="16.5" customHeight="1"/>
+    <row r="523" ht="16.5" customHeight="1"/>
+    <row r="524" ht="16.5" customHeight="1"/>
+    <row r="525" ht="16.5" customHeight="1"/>
+    <row r="526" ht="16.5" customHeight="1"/>
+    <row r="527" ht="16.5" customHeight="1"/>
+    <row r="528" ht="16.5" customHeight="1"/>
+    <row r="529" ht="16.5" customHeight="1"/>
+    <row r="530" ht="16.5" customHeight="1"/>
+    <row r="531" ht="16.5" customHeight="1"/>
+    <row r="532" ht="16.5" customHeight="1"/>
+    <row r="533" ht="16.5" customHeight="1"/>
+    <row r="534" ht="16.5" customHeight="1"/>
+    <row r="535" ht="16.5" customHeight="1"/>
+    <row r="536" ht="16.5" customHeight="1"/>
+    <row r="537" ht="16.5" customHeight="1"/>
+    <row r="538" ht="16.5" customHeight="1"/>
+    <row r="539" ht="16.5" customHeight="1"/>
+    <row r="540" ht="16.5" customHeight="1"/>
+    <row r="541" ht="16.5" customHeight="1"/>
+    <row r="542" ht="16.5" customHeight="1"/>
+    <row r="543" ht="16.5" customHeight="1"/>
+    <row r="544" ht="16.5" customHeight="1"/>
+    <row r="545" ht="16.5" customHeight="1"/>
+    <row r="546" ht="16.5" customHeight="1"/>
+    <row r="547" ht="16.5" customHeight="1"/>
+    <row r="548" ht="16.5" customHeight="1"/>
+    <row r="549" ht="16.5" customHeight="1"/>
+    <row r="550" ht="16.5" customHeight="1"/>
+    <row r="551" ht="16.5" customHeight="1"/>
+    <row r="552" ht="16.5" customHeight="1"/>
+    <row r="553" ht="16.5" customHeight="1"/>
+    <row r="554" ht="16.5" customHeight="1"/>
+    <row r="555" ht="16.5" customHeight="1"/>
+    <row r="556" ht="16.5" customHeight="1"/>
+    <row r="557" ht="16.5" customHeight="1"/>
+    <row r="558" ht="16.5" customHeight="1"/>
+    <row r="559" ht="16.5" customHeight="1"/>
+    <row r="560" ht="16.5" customHeight="1"/>
+    <row r="561" ht="16.5" customHeight="1"/>
+    <row r="562" ht="16.5" customHeight="1"/>
+    <row r="563" ht="16.5" customHeight="1"/>
+    <row r="564" ht="16.5" customHeight="1"/>
+    <row r="565" ht="16.5" customHeight="1"/>
+    <row r="566" ht="16.5" customHeight="1"/>
+    <row r="567" ht="16.5" customHeight="1"/>
+    <row r="568" ht="16.5" customHeight="1"/>
+    <row r="569" ht="16.5" customHeight="1"/>
+    <row r="570" ht="16.5" customHeight="1"/>
+    <row r="571" ht="16.5" customHeight="1"/>
+    <row r="572" ht="16.5" customHeight="1"/>
+    <row r="573" ht="16.5" customHeight="1"/>
+    <row r="574" ht="16.5" customHeight="1"/>
+    <row r="575" ht="16.5" customHeight="1"/>
+    <row r="576" ht="16.5" customHeight="1"/>
+    <row r="577" ht="16.5" customHeight="1"/>
+    <row r="578" ht="16.5" customHeight="1"/>
+    <row r="579" ht="16.5" customHeight="1"/>
+    <row r="580" ht="16.5" customHeight="1"/>
+    <row r="581" ht="16.5" customHeight="1"/>
+    <row r="582" ht="16.5" customHeight="1"/>
+    <row r="583" ht="16.5" customHeight="1"/>
+    <row r="584" ht="16.5" customHeight="1"/>
+    <row r="585" ht="16.5" customHeight="1"/>
+    <row r="586" ht="16.5" customHeight="1"/>
+    <row r="587" ht="16.5" customHeight="1"/>
+    <row r="588" ht="16.5" customHeight="1"/>
+    <row r="589" ht="16.5" customHeight="1"/>
+    <row r="590" ht="16.5" customHeight="1"/>
+    <row r="591" ht="16.5" customHeight="1"/>
+    <row r="592" ht="16.5" customHeight="1"/>
+    <row r="593" ht="16.5" customHeight="1"/>
+    <row r="594" ht="16.5" customHeight="1"/>
+    <row r="595" ht="16.5" customHeight="1"/>
+    <row r="596" ht="16.5" customHeight="1"/>
+    <row r="597" ht="16.5" customHeight="1"/>
+    <row r="598" ht="16.5" customHeight="1"/>
+    <row r="599" ht="16.5" customHeight="1"/>
+    <row r="600" ht="16.5" customHeight="1"/>
+    <row r="601" ht="16.5" customHeight="1"/>
+    <row r="602" ht="16.5" customHeight="1"/>
+    <row r="603" ht="16.5" customHeight="1"/>
+    <row r="604" ht="16.5" customHeight="1"/>
+    <row r="605" ht="16.5" customHeight="1"/>
+    <row r="606" ht="16.5" customHeight="1"/>
+    <row r="607" ht="16.5" customHeight="1"/>
+    <row r="608" ht="16.5" customHeight="1"/>
+    <row r="609" ht="16.5" customHeight="1"/>
+    <row r="610" ht="16.5" customHeight="1"/>
+    <row r="611" ht="16.5" customHeight="1"/>
+    <row r="612" ht="16.5" customHeight="1"/>
+    <row r="613" ht="16.5" customHeight="1"/>
+    <row r="614" ht="16.5" customHeight="1"/>
+    <row r="615" ht="16.5" customHeight="1"/>
+    <row r="616" ht="16.5" customHeight="1"/>
+    <row r="617" ht="16.5" customHeight="1"/>
+    <row r="618" ht="16.5" customHeight="1"/>
+    <row r="619" ht="16.5" customHeight="1"/>
+    <row r="620" ht="16.5" customHeight="1"/>
+    <row r="621" ht="16.5" customHeight="1"/>
+    <row r="622" ht="16.5" customHeight="1"/>
+    <row r="623" ht="16.5" customHeight="1"/>
+    <row r="624" ht="16.5" customHeight="1"/>
+    <row r="625" ht="16.5" customHeight="1"/>
+    <row r="626" ht="16.5" customHeight="1"/>
+    <row r="627" ht="16.5" customHeight="1"/>
+    <row r="628" ht="16.5" customHeight="1"/>
+    <row r="629" ht="16.5" customHeight="1"/>
+    <row r="630" ht="16.5" customHeight="1"/>
+    <row r="631" ht="16.5" customHeight="1"/>
+    <row r="632" ht="16.5" customHeight="1"/>
+    <row r="633" ht="16.5" customHeight="1"/>
+    <row r="634" ht="16.5" customHeight="1"/>
+    <row r="635" ht="16.5" customHeight="1"/>
+    <row r="636" ht="16.5" customHeight="1"/>
+    <row r="637" ht="16.5" customHeight="1"/>
+    <row r="638" ht="16.5" customHeight="1"/>
+    <row r="639" ht="16.5" customHeight="1"/>
+    <row r="640" ht="16.5" customHeight="1"/>
+    <row r="641" ht="16.5" customHeight="1"/>
+    <row r="642" ht="16.5" customHeight="1"/>
+    <row r="643" ht="16.5" customHeight="1"/>
+    <row r="644" ht="16.5" customHeight="1"/>
+    <row r="645" ht="16.5" customHeight="1"/>
+    <row r="646" ht="16.5" customHeight="1"/>
+    <row r="647" ht="16.5" customHeight="1"/>
+    <row r="648" ht="16.5" customHeight="1"/>
+    <row r="649" ht="16.5" customHeight="1"/>
+    <row r="650" ht="16.5" customHeight="1"/>
+    <row r="651" ht="16.5" customHeight="1"/>
+    <row r="652" ht="16.5" customHeight="1"/>
+    <row r="653" ht="16.5" customHeight="1"/>
+    <row r="654" ht="16.5" customHeight="1"/>
+    <row r="655" ht="16.5" customHeight="1"/>
+    <row r="656" ht="16.5" customHeight="1"/>
+    <row r="657" ht="16.5" customHeight="1"/>
+    <row r="658" ht="16.5" customHeight="1"/>
+    <row r="659" ht="16.5" customHeight="1"/>
+    <row r="660" ht="16.5" customHeight="1"/>
+    <row r="661" ht="16.5" customHeight="1"/>
+    <row r="662" ht="16.5" customHeight="1"/>
+    <row r="663" ht="16.5" customHeight="1"/>
+    <row r="664" ht="16.5" customHeight="1"/>
+    <row r="665" ht="16.5" customHeight="1"/>
+    <row r="666" ht="16.5" customHeight="1"/>
+    <row r="667" ht="16.5" customHeight="1"/>
+    <row r="668" ht="16.5" customHeight="1"/>
+    <row r="669" ht="16.5" customHeight="1"/>
+    <row r="670" ht="16.5" customHeight="1"/>
+    <row r="671" ht="16.5" customHeight="1"/>
+    <row r="672" ht="16.5" customHeight="1"/>
+    <row r="673" ht="16.5" customHeight="1"/>
+    <row r="674" ht="16.5" customHeight="1"/>
+    <row r="675" ht="16.5" customHeight="1"/>
+    <row r="676" ht="16.5" customHeight="1"/>
+    <row r="677" ht="16.5" customHeight="1"/>
+    <row r="678" ht="16.5" customHeight="1"/>
+    <row r="679" ht="16.5" customHeight="1"/>
+    <row r="680" ht="16.5" customHeight="1"/>
+    <row r="681" ht="16.5" customHeight="1"/>
+    <row r="682" ht="16.5" customHeight="1"/>
+    <row r="683" ht="16.5" customHeight="1"/>
+    <row r="684" ht="16.5" customHeight="1"/>
+    <row r="685" ht="16.5" customHeight="1"/>
+    <row r="686" ht="16.5" customHeight="1"/>
+    <row r="687" ht="16.5" customHeight="1"/>
+    <row r="688" ht="16.5" customHeight="1"/>
+    <row r="689" ht="16.5" customHeight="1"/>
+    <row r="690" ht="16.5" customHeight="1"/>
+    <row r="691" ht="16.5" customHeight="1"/>
+    <row r="692" ht="16.5" customHeight="1"/>
+    <row r="693" ht="16.5" customHeight="1"/>
+    <row r="694" ht="16.5" customHeight="1"/>
+    <row r="695" ht="16.5" customHeight="1"/>
+    <row r="696" ht="16.5" customHeight="1"/>
+    <row r="697" ht="16.5" customHeight="1"/>
+    <row r="698" ht="16.5" customHeight="1"/>
+    <row r="699" ht="16.5" customHeight="1"/>
+    <row r="700" ht="16.5" customHeight="1"/>
+    <row r="701" ht="16.5" customHeight="1"/>
+    <row r="702" ht="16.5" customHeight="1"/>
+    <row r="703" ht="16.5" customHeight="1"/>
+    <row r="704" ht="16.5" customHeight="1"/>
+    <row r="705" ht="16.5" customHeight="1"/>
+    <row r="706" ht="16.5" customHeight="1"/>
+    <row r="707" ht="16.5" customHeight="1"/>
+    <row r="708" ht="16.5" customHeight="1"/>
+    <row r="709" ht="16.5" customHeight="1"/>
+    <row r="710" ht="16.5" customHeight="1"/>
+    <row r="711" ht="16.5" customHeight="1"/>
+    <row r="712" ht="16.5" customHeight="1"/>
+    <row r="713" ht="16.5" customHeight="1"/>
+    <row r="714" ht="16.5" customHeight="1"/>
+    <row r="715" ht="16.5" customHeight="1"/>
+    <row r="716" ht="16.5" customHeight="1"/>
+    <row r="717" ht="16.5" customHeight="1"/>
+    <row r="718" ht="16.5" customHeight="1"/>
+    <row r="719" ht="16.5" customHeight="1"/>
+    <row r="720" ht="16.5" customHeight="1"/>
+    <row r="721" ht="16.5" customHeight="1"/>
+    <row r="722" ht="16.5" customHeight="1"/>
+    <row r="723" ht="16.5" customHeight="1"/>
+    <row r="724" ht="16.5" customHeight="1"/>
+    <row r="725" ht="16.5" customHeight="1"/>
+    <row r="726" ht="16.5" customHeight="1"/>
+    <row r="727" ht="16.5" customHeight="1"/>
+    <row r="728" ht="16.5" customHeight="1"/>
+    <row r="729" ht="16.5" customHeight="1"/>
+    <row r="730" ht="16.5" customHeight="1"/>
+    <row r="731" ht="16.5" customHeight="1"/>
+    <row r="732" ht="16.5" customHeight="1"/>
+    <row r="733" ht="16.5" customHeight="1"/>
+    <row r="734" ht="16.5" customHeight="1"/>
+    <row r="735" ht="16.5" customHeight="1"/>
+    <row r="736" ht="16.5" customHeight="1"/>
+    <row r="737" ht="16.5" customHeight="1"/>
+    <row r="738" ht="16.5" customHeight="1"/>
+    <row r="739" ht="16.5" customHeight="1"/>
+    <row r="740" ht="16.5" customHeight="1"/>
+    <row r="741" ht="16.5" customHeight="1"/>
+    <row r="742" ht="16.5" customHeight="1"/>
+    <row r="743" ht="16.5" customHeight="1"/>
+    <row r="744" ht="16.5" customHeight="1"/>
+    <row r="745" ht="16.5" customHeight="1"/>
+    <row r="746" ht="16.5" customHeight="1"/>
+    <row r="747" ht="16.5" customHeight="1"/>
+    <row r="748" ht="16.5" customHeight="1"/>
+    <row r="749" ht="16.5" customHeight="1"/>
+    <row r="750" ht="16.5" customHeight="1"/>
+    <row r="751" ht="16.5" customHeight="1"/>
+    <row r="752" ht="16.5" customHeight="1"/>
+    <row r="753" ht="16.5" customHeight="1"/>
+    <row r="754" ht="16.5" customHeight="1"/>
+    <row r="755" ht="16.5" customHeight="1"/>
+    <row r="756" ht="16.5" customHeight="1"/>
+    <row r="757" ht="16.5" customHeight="1"/>
+    <row r="758" ht="16.5" customHeight="1"/>
+    <row r="759" ht="16.5" customHeight="1"/>
+    <row r="760" ht="16.5" customHeight="1"/>
+    <row r="761" ht="16.5" customHeight="1"/>
+    <row r="762" ht="16.5" customHeight="1"/>
+    <row r="763" ht="16.5" customHeight="1"/>
+    <row r="764" ht="16.5" customHeight="1"/>
+    <row r="765" ht="16.5" customHeight="1"/>
+    <row r="766" ht="16.5" customHeight="1"/>
+    <row r="767" ht="16.5" customHeight="1"/>
+    <row r="768" ht="16.5" customHeight="1"/>
+    <row r="769" ht="16.5" customHeight="1"/>
+    <row r="770" ht="16.5" customHeight="1"/>
+    <row r="771" ht="16.5" customHeight="1"/>
+    <row r="772" ht="16.5" customHeight="1"/>
+    <row r="773" ht="16.5" customHeight="1"/>
+    <row r="774" ht="16.5" customHeight="1"/>
+    <row r="775" ht="16.5" customHeight="1"/>
+    <row r="776" ht="16.5" customHeight="1"/>
+    <row r="777" ht="16.5" customHeight="1"/>
+    <row r="778" ht="16.5" customHeight="1"/>
+    <row r="779" ht="16.5" customHeight="1"/>
+    <row r="780" ht="16.5" customHeight="1"/>
+    <row r="781" ht="16.5" customHeight="1"/>
+    <row r="782" ht="16.5" customHeight="1"/>
+    <row r="783" ht="16.5" customHeight="1"/>
+    <row r="784" ht="16.5" customHeight="1"/>
+    <row r="785" ht="16.5" customHeight="1"/>
+    <row r="786" ht="16.5" customHeight="1"/>
+    <row r="787" ht="16.5" customHeight="1"/>
+    <row r="788" ht="16.5" customHeight="1"/>
+    <row r="789" ht="16.5" customHeight="1"/>
+    <row r="790" ht="16.5" customHeight="1"/>
+    <row r="791" ht="16.5" customHeight="1"/>
+    <row r="792" ht="16.5" customHeight="1"/>
+    <row r="793" ht="16.5" customHeight="1"/>
+    <row r="794" ht="16.5" customHeight="1"/>
+    <row r="795" ht="16.5" customHeight="1"/>
+    <row r="796" ht="16.5" customHeight="1"/>
+    <row r="797" ht="16.5" customHeight="1"/>
+    <row r="798" ht="16.5" customHeight="1"/>
+    <row r="799" ht="16.5" customHeight="1"/>
+    <row r="800" ht="16.5" customHeight="1"/>
+    <row r="801" ht="16.5" customHeight="1"/>
+    <row r="802" ht="16.5" customHeight="1"/>
+    <row r="803" ht="16.5" customHeight="1"/>
+    <row r="804" ht="16.5" customHeight="1"/>
+    <row r="805" ht="16.5" customHeight="1"/>
+    <row r="806" ht="16.5" customHeight="1"/>
+    <row r="807" ht="16.5" customHeight="1"/>
+    <row r="808" ht="16.5" customHeight="1"/>
+    <row r="809" ht="16.5" customHeight="1"/>
+    <row r="810" ht="16.5" customHeight="1"/>
+    <row r="811" ht="16.5" customHeight="1"/>
+    <row r="812" ht="16.5" customHeight="1"/>
+    <row r="813" ht="16.5" customHeight="1"/>
+    <row r="814" ht="16.5" customHeight="1"/>
+    <row r="815" ht="16.5" customHeight="1"/>
+    <row r="816" ht="16.5" customHeight="1"/>
+    <row r="817" ht="16.5" customHeight="1"/>
+    <row r="818" ht="16.5" customHeight="1"/>
+    <row r="819" ht="16.5" customHeight="1"/>
+    <row r="820" ht="16.5" customHeight="1"/>
+    <row r="821" ht="16.5" customHeight="1"/>
+    <row r="822" ht="16.5" customHeight="1"/>
+    <row r="823" ht="16.5" customHeight="1"/>
+    <row r="824" ht="16.5" customHeight="1"/>
+    <row r="825" ht="16.5" customHeight="1"/>
+    <row r="826" ht="16.5" customHeight="1"/>
+    <row r="827" ht="16.5" customHeight="1"/>
+    <row r="828" ht="16.5" customHeight="1"/>
+    <row r="829" ht="16.5" customHeight="1"/>
+    <row r="830" ht="16.5" customHeight="1"/>
+    <row r="831" ht="16.5" customHeight="1"/>
+    <row r="832" ht="16.5" customHeight="1"/>
+    <row r="833" ht="16.5" customHeight="1"/>
+    <row r="834" ht="16.5" customHeight="1"/>
+    <row r="835" ht="16.5" customHeight="1"/>
+    <row r="836" ht="16.5" customHeight="1"/>
+    <row r="837" ht="16.5" customHeight="1"/>
+    <row r="838" ht="16.5" customHeight="1"/>
+    <row r="839" ht="16.5" customHeight="1"/>
+    <row r="840" ht="16.5" customHeight="1"/>
+    <row r="841" ht="16.5" customHeight="1"/>
+    <row r="842" ht="16.5" customHeight="1"/>
+    <row r="843" ht="16.5" customHeight="1"/>
+    <row r="844" ht="16.5" customHeight="1"/>
+    <row r="845" ht="16.5" customHeight="1"/>
+    <row r="846" ht="16.5" customHeight="1"/>
+    <row r="847" ht="16.5" customHeight="1"/>
+    <row r="848" ht="16.5" customHeight="1"/>
+    <row r="849" ht="16.5" customHeight="1"/>
+    <row r="850" ht="16.5" customHeight="1"/>
+    <row r="851" ht="16.5" customHeight="1"/>
+    <row r="852" ht="16.5" customHeight="1"/>
+    <row r="853" ht="16.5" customHeight="1"/>
+    <row r="854" ht="16.5" customHeight="1"/>
+    <row r="855" ht="16.5" customHeight="1"/>
+    <row r="856" ht="16.5" customHeight="1"/>
+    <row r="857" ht="16.5" customHeight="1"/>
+    <row r="858" ht="16.5" customHeight="1"/>
+    <row r="859" ht="16.5" customHeight="1"/>
+    <row r="860" ht="16.5" customHeight="1"/>
+    <row r="861" ht="16.5" customHeight="1"/>
+    <row r="862" ht="16.5" customHeight="1"/>
+    <row r="863" ht="16.5" customHeight="1"/>
+    <row r="864" ht="16.5" customHeight="1"/>
+    <row r="865" ht="16.5" customHeight="1"/>
+    <row r="866" ht="16.5" customHeight="1"/>
+    <row r="867" ht="16.5" customHeight="1"/>
+    <row r="868" ht="16.5" customHeight="1"/>
+    <row r="869" ht="16.5" customHeight="1"/>
+    <row r="870" ht="16.5" customHeight="1"/>
+    <row r="871" ht="16.5" customHeight="1"/>
+    <row r="872" ht="16.5" customHeight="1"/>
+    <row r="873" ht="16.5" customHeight="1"/>
+    <row r="874" ht="16.5" customHeight="1"/>
+    <row r="875" ht="16.5" customHeight="1"/>
+    <row r="876" ht="16.5" customHeight="1"/>
+    <row r="877" ht="16.5" customHeight="1"/>
+    <row r="878" ht="16.5" customHeight="1"/>
+    <row r="879" ht="16.5" customHeight="1"/>
+    <row r="880" ht="16.5" customHeight="1"/>
+    <row r="881" ht="16.5" customHeight="1"/>
+    <row r="882" ht="16.5" customHeight="1"/>
+    <row r="883" ht="16.5" customHeight="1"/>
+    <row r="884" ht="16.5" customHeight="1"/>
+    <row r="885" ht="16.5" customHeight="1"/>
+    <row r="886" ht="16.5" customHeight="1"/>
+    <row r="887" ht="16.5" customHeight="1"/>
+    <row r="888" ht="16.5" customHeight="1"/>
+    <row r="889" ht="16.5" customHeight="1"/>
+    <row r="890" ht="16.5" customHeight="1"/>
+    <row r="891" ht="16.5" customHeight="1"/>
+    <row r="892" ht="16.5" customHeight="1"/>
+    <row r="893" ht="16.5" customHeight="1"/>
+    <row r="894" ht="16.5" customHeight="1"/>
+    <row r="895" ht="16.5" customHeight="1"/>
+    <row r="896" ht="16.5" customHeight="1"/>
+    <row r="897" ht="16.5" customHeight="1"/>
+    <row r="898" ht="16.5" customHeight="1"/>
+    <row r="899" ht="16.5" customHeight="1"/>
+    <row r="900" ht="16.5" customHeight="1"/>
+    <row r="901" ht="16.5" customHeight="1"/>
+    <row r="902" ht="16.5" customHeight="1"/>
+    <row r="903" ht="16.5" customHeight="1"/>
+    <row r="904" ht="16.5" customHeight="1"/>
+    <row r="905" ht="16.5" customHeight="1"/>
+    <row r="906" ht="16.5" customHeight="1"/>
+    <row r="907" ht="16.5" customHeight="1"/>
+    <row r="908" ht="16.5" customHeight="1"/>
+    <row r="909" ht="16.5" customHeight="1"/>
+    <row r="910" ht="16.5" customHeight="1"/>
+    <row r="911" ht="16.5" customHeight="1"/>
+    <row r="912" ht="16.5" customHeight="1"/>
+    <row r="913" ht="16.5" customHeight="1"/>
+    <row r="914" ht="16.5" customHeight="1"/>
+    <row r="915" ht="16.5" customHeight="1"/>
+    <row r="916" ht="16.5" customHeight="1"/>
+    <row r="917" ht="16.5" customHeight="1"/>
+    <row r="918" ht="16.5" customHeight="1"/>
+    <row r="919" ht="16.5" customHeight="1"/>
+    <row r="920" ht="16.5" customHeight="1"/>
+    <row r="921" ht="16.5" customHeight="1"/>
+    <row r="922" ht="16.5" customHeight="1"/>
+    <row r="923" ht="16.5" customHeight="1"/>
+    <row r="924" ht="16.5" customHeight="1"/>
+    <row r="925" ht="16.5" customHeight="1"/>
+    <row r="926" ht="16.5" customHeight="1"/>
+    <row r="927" ht="16.5" customHeight="1"/>
+    <row r="928" ht="16.5" customHeight="1"/>
+    <row r="929" ht="16.5" customHeight="1"/>
+    <row r="930" ht="16.5" customHeight="1"/>
+    <row r="931" ht="16.5" customHeight="1"/>
+    <row r="932" ht="16.5" customHeight="1"/>
+    <row r="933" ht="16.5" customHeight="1"/>
+    <row r="934" ht="16.5" customHeight="1"/>
+    <row r="935" ht="16.5" customHeight="1"/>
+    <row r="936" ht="16.5" customHeight="1"/>
+    <row r="937" ht="16.5" customHeight="1"/>
+    <row r="938" ht="16.5" customHeight="1"/>
+    <row r="939" ht="16.5" customHeight="1"/>
+    <row r="940" ht="16.5" customHeight="1"/>
+    <row r="941" ht="16.5" customHeight="1"/>
+    <row r="942" ht="16.5" customHeight="1"/>
+    <row r="943" ht="16.5" customHeight="1"/>
+    <row r="944" ht="16.5" customHeight="1"/>
+    <row r="945" ht="16.5" customHeight="1"/>
+    <row r="946" ht="16.5" customHeight="1"/>
+    <row r="947" ht="16.5" customHeight="1"/>
+    <row r="948" ht="16.5" customHeight="1"/>
+    <row r="949" ht="16.5" customHeight="1"/>
+    <row r="950" ht="16.5" customHeight="1"/>
+    <row r="951" ht="16.5" customHeight="1"/>
+    <row r="952" ht="16.5" customHeight="1"/>
+    <row r="953" ht="16.5" customHeight="1"/>
+    <row r="954" ht="16.5" customHeight="1"/>
+    <row r="955" ht="16.5" customHeight="1"/>
+    <row r="956" ht="16.5" customHeight="1"/>
+    <row r="957" ht="16.5" customHeight="1"/>
+    <row r="958" ht="16.5" customHeight="1"/>
+    <row r="959" ht="16.5" customHeight="1"/>
+    <row r="960" ht="16.5" customHeight="1"/>
+    <row r="961" ht="16.5" customHeight="1"/>
+    <row r="962" ht="16.5" customHeight="1"/>
+    <row r="963" ht="16.5" customHeight="1"/>
+    <row r="964" ht="16.5" customHeight="1"/>
+    <row r="965" ht="16.5" customHeight="1"/>
+    <row r="966" ht="16.5" customHeight="1"/>
+    <row r="967" ht="16.5" customHeight="1"/>
+    <row r="968" ht="16.5" customHeight="1"/>
+    <row r="969" ht="16.5" customHeight="1"/>
+    <row r="970" ht="16.5" customHeight="1"/>
+    <row r="971" ht="16.5" customHeight="1"/>
+    <row r="972" ht="16.5" customHeight="1"/>
+    <row r="973" ht="16.5" customHeight="1"/>
+    <row r="974" ht="16.5" customHeight="1"/>
+    <row r="975" ht="16.5" customHeight="1"/>
+    <row r="976" ht="16.5" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+</worksheet>
 </file>
--- a/1.회의록(PJE_REC_A01).xlsx
+++ b/1.회의록(PJE_REC_A01).xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="202">
   <si>
     <t>문서번호</t>
   </si>
@@ -904,19 +904,7 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>ppt</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>웹 페이지 마무리</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>웹 페이지 마무리</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>정확도 높아지는 이유 찾기</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -941,6 +929,22 @@
   </si>
   <si>
     <t>ppt 만들기 시작</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>정확도 높아지는 이유 찾기, ppt(웹 아키텍쳐, 개발환경)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ppt 전체 마무리</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>회의록, ppt(기획 배경, 프로그램 목표)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹 페이지 마무리, ppt(서비스 개요)</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -37021,7 +37025,7 @@
     <row r="14" spans="1:3" ht="16.5" customHeight="1">
       <c r="A14" s="15"/>
       <c r="B14" s="28" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C14" s="26"/>
     </row>
@@ -37188,7 +37192,7 @@
         <v>32</v>
       </c>
       <c r="B39" s="41" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C39" s="35"/>
     </row>
@@ -37197,7 +37201,7 @@
         <v>33</v>
       </c>
       <c r="B40" s="41" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C40" s="35"/>
     </row>
@@ -37206,7 +37210,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="41" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C41" s="35"/>
     </row>
@@ -37215,7 +37219,7 @@
         <v>37</v>
       </c>
       <c r="B42" s="41" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C42" s="35"/>
     </row>
@@ -37224,7 +37228,7 @@
         <v>40</v>
       </c>
       <c r="B43" s="41" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C43" s="35"/>
     </row>
@@ -38196,8 +38200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D976"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -38476,7 +38480,7 @@
         <v>33</v>
       </c>
       <c r="B39" s="41" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C39" s="35"/>
     </row>
@@ -38485,7 +38489,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="41" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="C40" s="35"/>
     </row>
@@ -38494,7 +38498,7 @@
         <v>37</v>
       </c>
       <c r="B41" s="41" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="C41" s="35"/>
     </row>
@@ -38503,7 +38507,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="41" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C42" s="35"/>
     </row>
@@ -38512,7 +38516,7 @@
         <v>21</v>
       </c>
       <c r="B43" s="41" t="s">
-        <v>153</v>
+        <v>200</v>
       </c>
       <c r="C43" s="35"/>
     </row>
